--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_101.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_101.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32530-d78395-Reviews-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>92</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Candlewood-Suites-Irvine.h126585.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_101.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_101.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="406">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1154 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r555625287-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>32530</t>
+  </si>
+  <si>
+    <t>78395</t>
+  </si>
+  <si>
+    <t>555625287</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Convinient and rather clean</t>
+  </si>
+  <si>
+    <t>Despite the road near by, it was rather quiet. With a little kitchen, equipped and clean. It was nice, with fitness and laundry on the first floor. We stayed there for a week and we ll stay there again. The staff was nice and helpful. Pet friendly establishment with hospital right next to it.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r540951323-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>540951323</t>
+  </si>
+  <si>
+    <t>11/14/2017</t>
+  </si>
+  <si>
+    <t>Average stay</t>
+  </si>
+  <si>
+    <t>Hotel location and setup is good with spacious room and fully equipped kitchen. This horek doesn't have a breakfast option, they have a small pantry type setup where you can purchase sime items to munch on.The biggest set back for me was the wifi connection in the room. Every 2 min the wifi either goes off or comes up with no data. I did complain and it was promptly attended to and things were better for half a day before it went back to what it was.This hotel doesn't provide daily room service as well.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Orange County, Irvine Spectrum, responded to this reviewResponded November 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2017</t>
+  </si>
+  <si>
+    <t>Hotel location and setup is good with spacious room and fully equipped kitchen. This horek doesn't have a breakfast option, they have a small pantry type setup where you can purchase sime items to munch on.The biggest set back for me was the wifi connection in the room. Every 2 min the wifi either goes off or comes up with no data. I did complain and it was promptly attended to and things were better for half a day before it went back to what it was.This hotel doesn't provide daily room service as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r540275868-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>540275868</t>
+  </si>
+  <si>
+    <t>11/11/2017</t>
+  </si>
+  <si>
+    <t>Outstanding value and an incredibly comfortable room!</t>
+  </si>
+  <si>
+    <t>After another hotel gave my room to a "higher paying customer", I was fortunate to find a room at the Candlewood Suites.  The staff was incredibly friendly and helpful.  My room was perfect... clean, quiet, and very comfortable.  You can't ask for more than that.  They have a great snack area where you can grab food and drinks - all based on the honor system.  They workout facility is small, but adequate and kept clean.  There were dozens of great restaurant options within a mile or so of this location.  I travel to Irvine every month for work, and this is where I will stay from this point forward.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r522458105-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>522458105</t>
+  </si>
+  <si>
+    <t>09/07/2017</t>
+  </si>
+  <si>
+    <t>Just make sure you don't have a problem</t>
+  </si>
+  <si>
+    <t>I went to this place because they offered good long term rates.  After staying there, I ran into a couple of issues with my room.  On the third day when I was there, I tried to use the garbage disposal after cutting up some veggies.  Unfortunately, the disposal didn't work.  When I went to the front desk, they told me to look under the sink for a hex key to manually crank it, then it should  work.   I couldn't find the key.  When I went  back, they said they would get to me later.  After several visits and an hour, the front desk operator came to my room to confirm I didn't have a key (my room was at least 50-60 feet from the front desk, so I understand why it took so long).  After a couple of more visits and about 2 more hours, the front desk manager was able to get me a key and I was able to fix it, so that worked out fairly well.  Then, over the weekend, the shower that hadn't been working all that great was broken by the maid.  The hot water was going full steam and the knob was broken.  The room reminded me not of dry California, but the hot muggy South that I am used to.  I went to the front desk and they said their maintenance person was out, but they would look at it.  After a couple...I went to this place because they offered good long term rates.  After staying there, I ran into a couple of issues with my room.  On the third day when I was there, I tried to use the garbage disposal after cutting up some veggies.  Unfortunately, the disposal didn't work.  When I went to the front desk, they told me to look under the sink for a hex key to manually crank it, then it should  work.   I couldn't find the key.  When I went  back, they said they would get to me later.  After several visits and an hour, the front desk operator came to my room to confirm I didn't have a key (my room was at least 50-60 feet from the front desk, so I understand why it took so long).  After a couple of more visits and about 2 more hours, the front desk manager was able to get me a key and I was able to fix it, so that worked out fairly well.  Then, over the weekend, the shower that hadn't been working all that great was broken by the maid.  The hot water was going full steam and the knob was broken.  The room reminded me not of dry California, but the hot muggy South that I am used to.  I went to the front desk and they said their maintenance person was out, but they would look at it.  After a couple of hours and several visits, they told me each time I was the next priority, but they were trying to get people checked in, as well as help a rental car company find a customer who didn't sign something.  I understand why it is more important to take care of new guest rather than paying guests, only one of them you already have money from, so I waited patiently in my 89 degree room where all the metal objects (refrigerator, microwave glass, etc) were collecting condensation.  Well, that isn't fair, after two hours I went to a local hardware store and bought some tool, then took off the broken handle and turned the shower off.  They said they couldn't fix the shower for a day and couldn't put me in a room that wasn't an sauna because they were filled that night.  When I asked how to take a shower in the morning, they informed my I could use a screwdriver to try to make the shower work.  I'm not a plumber, but since I figured out how to turn the shower off I figured I could turn it back on.  The next morning after about 15 minutes of messing with the valves with a screwdriver, I took a cold  shower.  I was told to go to the hotel between 8 and 4 to talk with the general manager, but unfortunately my job didn't allow me a break during that time frame.   Luckily, they gave me the option of having him call me, which didn't happen.  The next day I checked out.  When asked why I was checking out of my 60 day stay 45 days early, I let them know.  They said they would have the general manager contact me, and gave me a 1000 bonus points.  That was nice, because I am Spire Elite and have staid at IHG properties more than 75 nights a year for the last several years.  I'm still waiting on the call.  Then  I got  a survey request, and of course I said I would like to be contacted about my stay after filling out the survey.  I declined to post my review at the time because normally IHG properties are awesome and take care of the guests.  After a month and a half  of  waiting to be contacted, waiting by my phone (which in reality is in my pocket), I finally decided to post a review.  Looooooong story short,  this is a nice  place, smaller than most extended stays in the area and  in the middle of the price range, and if you don't have an issue you will be fine.  If  you do have an issue, good luck.  I should also mention that there were bugs in the room, but in fairness I didn't mention them to the staff due to what it took to get a backed up sink and a stuck on then non-working shower fixed.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Orange County, Irvine Spectrum, responded to this reviewResponded September 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2017</t>
+  </si>
+  <si>
+    <t>I went to this place because they offered good long term rates.  After staying there, I ran into a couple of issues with my room.  On the third day when I was there, I tried to use the garbage disposal after cutting up some veggies.  Unfortunately, the disposal didn't work.  When I went to the front desk, they told me to look under the sink for a hex key to manually crank it, then it should  work.   I couldn't find the key.  When I went  back, they said they would get to me later.  After several visits and an hour, the front desk operator came to my room to confirm I didn't have a key (my room was at least 50-60 feet from the front desk, so I understand why it took so long).  After a couple of more visits and about 2 more hours, the front desk manager was able to get me a key and I was able to fix it, so that worked out fairly well.  Then, over the weekend, the shower that hadn't been working all that great was broken by the maid.  The hot water was going full steam and the knob was broken.  The room reminded me not of dry California, but the hot muggy South that I am used to.  I went to the front desk and they said their maintenance person was out, but they would look at it.  After a couple...I went to this place because they offered good long term rates.  After staying there, I ran into a couple of issues with my room.  On the third day when I was there, I tried to use the garbage disposal after cutting up some veggies.  Unfortunately, the disposal didn't work.  When I went to the front desk, they told me to look under the sink for a hex key to manually crank it, then it should  work.   I couldn't find the key.  When I went  back, they said they would get to me later.  After several visits and an hour, the front desk operator came to my room to confirm I didn't have a key (my room was at least 50-60 feet from the front desk, so I understand why it took so long).  After a couple of more visits and about 2 more hours, the front desk manager was able to get me a key and I was able to fix it, so that worked out fairly well.  Then, over the weekend, the shower that hadn't been working all that great was broken by the maid.  The hot water was going full steam and the knob was broken.  The room reminded me not of dry California, but the hot muggy South that I am used to.  I went to the front desk and they said their maintenance person was out, but they would look at it.  After a couple of hours and several visits, they told me each time I was the next priority, but they were trying to get people checked in, as well as help a rental car company find a customer who didn't sign something.  I understand why it is more important to take care of new guest rather than paying guests, only one of them you already have money from, so I waited patiently in my 89 degree room where all the metal objects (refrigerator, microwave glass, etc) were collecting condensation.  Well, that isn't fair, after two hours I went to a local hardware store and bought some tool, then took off the broken handle and turned the shower off.  They said they couldn't fix the shower for a day and couldn't put me in a room that wasn't an sauna because they were filled that night.  When I asked how to take a shower in the morning, they informed my I could use a screwdriver to try to make the shower work.  I'm not a plumber, but since I figured out how to turn the shower off I figured I could turn it back on.  The next morning after about 15 minutes of messing with the valves with a screwdriver, I took a cold  shower.  I was told to go to the hotel between 8 and 4 to talk with the general manager, but unfortunately my job didn't allow me a break during that time frame.   Luckily, they gave me the option of having him call me, which didn't happen.  The next day I checked out.  When asked why I was checking out of my 60 day stay 45 days early, I let them know.  They said they would have the general manager contact me, and gave me a 1000 bonus points.  That was nice, because I am Spire Elite and have staid at IHG properties more than 75 nights a year for the last several years.  I'm still waiting on the call.  Then  I got  a survey request, and of course I said I would like to be contacted about my stay after filling out the survey.  I declined to post my review at the time because normally IHG properties are awesome and take care of the guests.  After a month and a half  of  waiting to be contacted, waiting by my phone (which in reality is in my pocket), I finally decided to post a review.  Looooooong story short,  this is a nice  place, smaller than most extended stays in the area and  in the middle of the price range, and if you don't have an issue you will be fine.  If  you do have an issue, good luck.  I should also mention that there were bugs in the room, but in fairness I didn't mention them to the staff due to what it took to get a backed up sink and a stuck on then non-working shower fixed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r510518874-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>510518874</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solid Good Hotel </t>
+  </si>
+  <si>
+    <t>Good hotel for a business trip.  Nothing spectacular.   Staff was helpful and friendly.   Location is convenient to I-405 and medical center.   There's an Albertson's right down the road for stocking up on groceries.   Fitness center was small but well maintained, had a good assortment of equipment and was clean.  Room was quiet and comfortable.   There was a recliner in the room but the room was really too small to accommodate it.  Bed was comfortable. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Orange County, Irvine Spectrum, responded to this reviewResponded August 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2017</t>
+  </si>
+  <si>
+    <t>Good hotel for a business trip.  Nothing spectacular.   Staff was helpful and friendly.   Location is convenient to I-405 and medical center.   There's an Albertson's right down the road for stocking up on groceries.   Fitness center was small but well maintained, had a good assortment of equipment and was clean.  Room was quiet and comfortable.   There was a recliner in the room but the room was really too small to accommodate it.  Bed was comfortable. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r509654815-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>509654815</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>By far, this was the worst 30-minutes that I have experienced at a hotel, ever!</t>
+  </si>
+  <si>
+    <t>By far, this was the worst 30-minutes that I have experienced at a hotel, ever! 
+I never write a review online; yet, this experience is worth documenting. Unfortunately, the Candlewood Suites (on Sand Canyon Ave) has the name of a top rate hotel (i.e., “Suites”); but, the experience is like a country motel in the south. There were several warning signs and events that caused me to check-out after 30-minutes:
+1.	During my arrival and departure, there were customers at the front desk discussing/disputing charges to hotel bill charges;
+2.	During my arrival and departure, the front desk assistance stated that house-keeping occurs only once a week. This was the excuse provided to charge me for “use of the room” since I laid on the bed and smiled smoke on the pillowcase. NOTE: After reading a few reviews, the hotel appears to leverage “use of the room” as way to charge individuals for a full-night stay without addressing the real issues at-hand with the hotel;
+3.	Upon entering the room, the AC was set to maximum and the room was freezing which is one-sign for trying to hide the smoking smell;
+4.	After cracking the window, I laid on the bed and the pillow had residue of smoke;
+5.	There was a strong odor as you enter/exit the elevator.      
+I could list more issues after losing $152.07 in 30 minutes; but, I’m residing at a better hotel for the same...By far, this was the worst 30-minutes that I have experienced at a hotel, ever! I never write a review online; yet, this experience is worth documenting. Unfortunately, the Candlewood Suites (on Sand Canyon Ave) has the name of a top rate hotel (i.e., “Suites”); but, the experience is like a country motel in the south. There were several warning signs and events that caused me to check-out after 30-minutes:1.	During my arrival and departure, there were customers at the front desk discussing/disputing charges to hotel bill charges;2.	During my arrival and departure, the front desk assistance stated that house-keeping occurs only once a week. This was the excuse provided to charge me for “use of the room” since I laid on the bed and smiled smoke on the pillowcase. NOTE: After reading a few reviews, the hotel appears to leverage “use of the room” as way to charge individuals for a full-night stay without addressing the real issues at-hand with the hotel;3.	Upon entering the room, the AC was set to maximum and the room was freezing which is one-sign for trying to hide the smoking smell;4.	After cracking the window, I laid on the bed and the pillow had residue of smoke;5.	There was a strong odor as you enter/exit the elevator.      I could list more issues after losing $152.07 in 30 minutes; but, I’m residing at a better hotel for the same cost.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Orange County, Irvine Spectrum, responded to this reviewResponded August 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2017</t>
+  </si>
+  <si>
+    <t>By far, this was the worst 30-minutes that I have experienced at a hotel, ever! 
+I never write a review online; yet, this experience is worth documenting. Unfortunately, the Candlewood Suites (on Sand Canyon Ave) has the name of a top rate hotel (i.e., “Suites”); but, the experience is like a country motel in the south. There were several warning signs and events that caused me to check-out after 30-minutes:
+1.	During my arrival and departure, there were customers at the front desk discussing/disputing charges to hotel bill charges;
+2.	During my arrival and departure, the front desk assistance stated that house-keeping occurs only once a week. This was the excuse provided to charge me for “use of the room” since I laid on the bed and smiled smoke on the pillowcase. NOTE: After reading a few reviews, the hotel appears to leverage “use of the room” as way to charge individuals for a full-night stay without addressing the real issues at-hand with the hotel;
+3.	Upon entering the room, the AC was set to maximum and the room was freezing which is one-sign for trying to hide the smoking smell;
+4.	After cracking the window, I laid on the bed and the pillow had residue of smoke;
+5.	There was a strong odor as you enter/exit the elevator.      
+I could list more issues after losing $152.07 in 30 minutes; but, I’m residing at a better hotel for the same...By far, this was the worst 30-minutes that I have experienced at a hotel, ever! I never write a review online; yet, this experience is worth documenting. Unfortunately, the Candlewood Suites (on Sand Canyon Ave) has the name of a top rate hotel (i.e., “Suites”); but, the experience is like a country motel in the south. There were several warning signs and events that caused me to check-out after 30-minutes:1.	During my arrival and departure, there were customers at the front desk discussing/disputing charges to hotel bill charges;2.	During my arrival and departure, the front desk assistance stated that house-keeping occurs only once a week. This was the excuse provided to charge me for “use of the room” since I laid on the bed and smiled smoke on the pillowcase. NOTE: After reading a few reviews, the hotel appears to leverage “use of the room” as way to charge individuals for a full-night stay without addressing the real issues at-hand with the hotel;3.	Upon entering the room, the AC was set to maximum and the room was freezing which is one-sign for trying to hide the smoking smell;4.	After cracking the window, I laid on the bed and the pillow had residue of smoke;5.	There was a strong odor as you enter/exit the elevator.      I could list more issues after losing $152.07 in 30 minutes; but, I’m residing at a better hotel for the same cost.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r476952385-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>476952385</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>Average Hotel,  Service from the employees was top notch</t>
+  </si>
+  <si>
+    <t>Very average,  The Candle wood Cupboard was not restocked in the more than a week that I was there, but the employees more than made up for it, very professional staff.Would gladly stay again because of the staff</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r459480882-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>459480882</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Not bad / not stellar</t>
+  </si>
+  <si>
+    <t>The rooms are OK and the exercise facilities are decent. The night staff seemed more friendly than the day staff; but generally, most people were cordial and friendly enough. No one really went out of their way to be helpful, but the went any big issues. It was a good, quiet stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Orange County, Irvine Spectrum, responded to this reviewResponded March 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 3, 2017</t>
+  </si>
+  <si>
+    <t>The rooms are OK and the exercise facilities are decent. The night staff seemed more friendly than the day staff; but generally, most people were cordial and friendly enough. No one really went out of their way to be helpful, but the went any big issues. It was a good, quiet stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r447911678-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>447911678</t>
+  </si>
+  <si>
+    <t>12/30/2016</t>
+  </si>
+  <si>
+    <t>Irvine stay</t>
+  </si>
+  <si>
+    <t>Hotel is an odd location but it's mainly because they cater to specific businesses in the area.
+Has a nice size parking lot.
+Check in was quick and the front desk guy was very nice and professional.
+Room was the typical candlewood decor.
+I enjoyed having a kitchenette although an oven or toaster oven would be nice.
+Dishwasher in my room leaked the first time I used it. Called the front desk and the guy came up right away and cleaned up the water but said that they had to wait for a maintenence person to come in the next day. Unfortunately the dishwasher could not be fixed so I was moved to a new upgraded one bedroom and given some gift certificates for the cupboard store for my trouble.
+TV was decent but could use more channels.
+Bathroom was clean and worked fine for me.
+Bed was comfy. Pillows were too soft and went flat.
+Hotel has all the typical candlewood features like the cupboard, fitness center, laundry and grilling area out back.
+Hotel is quiet and I didn't hear other guests which is always nice.
+It seems like the staff at this hotel genuinely cares about guest satisfaction.
+This hotel also has a monthly raffle for ihg club members where you can win points. Kinda cool I thought.
+All in all was not a bad stay. This hotel is in a quiet area and it served my needs....Hotel is an odd location but it's mainly because they cater to specific businesses in the area.Has a nice size parking lot.Check in was quick and the front desk guy was very nice and professional.Room was the typical candlewood decor.I enjoyed having a kitchenette although an oven or toaster oven would be nice.Dishwasher in my room leaked the first time I used it. Called the front desk and the guy came up right away and cleaned up the water but said that they had to wait for a maintenence person to come in the next day. Unfortunately the dishwasher could not be fixed so I was moved to a new upgraded one bedroom and given some gift certificates for the cupboard store for my trouble.TV was decent but could use more channels.Bathroom was clean and worked fine for me.Bed was comfy. Pillows were too soft and went flat.Hotel has all the typical candlewood features like the cupboard, fitness center, laundry and grilling area out back.Hotel is quiet and I didn't hear other guests which is always nice.It seems like the staff at this hotel genuinely cares about guest satisfaction.This hotel also has a monthly raffle for ihg club members where you can win points. Kinda cool I thought.All in all was not a bad stay. This hotel is in a quiet area and it served my needs.I'd come again for the one bedroom suite again!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Hotel is an odd location but it's mainly because they cater to specific businesses in the area.
+Has a nice size parking lot.
+Check in was quick and the front desk guy was very nice and professional.
+Room was the typical candlewood decor.
+I enjoyed having a kitchenette although an oven or toaster oven would be nice.
+Dishwasher in my room leaked the first time I used it. Called the front desk and the guy came up right away and cleaned up the water but said that they had to wait for a maintenence person to come in the next day. Unfortunately the dishwasher could not be fixed so I was moved to a new upgraded one bedroom and given some gift certificates for the cupboard store for my trouble.
+TV was decent but could use more channels.
+Bathroom was clean and worked fine for me.
+Bed was comfy. Pillows were too soft and went flat.
+Hotel has all the typical candlewood features like the cupboard, fitness center, laundry and grilling area out back.
+Hotel is quiet and I didn't hear other guests which is always nice.
+It seems like the staff at this hotel genuinely cares about guest satisfaction.
+This hotel also has a monthly raffle for ihg club members where you can win points. Kinda cool I thought.
+All in all was not a bad stay. This hotel is in a quiet area and it served my needs....Hotel is an odd location but it's mainly because they cater to specific businesses in the area.Has a nice size parking lot.Check in was quick and the front desk guy was very nice and professional.Room was the typical candlewood decor.I enjoyed having a kitchenette although an oven or toaster oven would be nice.Dishwasher in my room leaked the first time I used it. Called the front desk and the guy came up right away and cleaned up the water but said that they had to wait for a maintenence person to come in the next day. Unfortunately the dishwasher could not be fixed so I was moved to a new upgraded one bedroom and given some gift certificates for the cupboard store for my trouble.TV was decent but could use more channels.Bathroom was clean and worked fine for me.Bed was comfy. Pillows were too soft and went flat.Hotel has all the typical candlewood features like the cupboard, fitness center, laundry and grilling area out back.Hotel is quiet and I didn't hear other guests which is always nice.It seems like the staff at this hotel genuinely cares about guest satisfaction.This hotel also has a monthly raffle for ihg club members where you can win points. Kinda cool I thought.All in all was not a bad stay. This hotel is in a quiet area and it served my needs.I'd come again for the one bedroom suite again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r408296023-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>408296023</t>
+  </si>
+  <si>
+    <t>08/21/2016</t>
+  </si>
+  <si>
+    <t>too many issues</t>
+  </si>
+  <si>
+    <t>If given the opportunity I would avoid this hotel and choose a different place.  I was staying using IHG rewards points for one night prior to an early flight from SNA, and the location was close, and the points per night among the lowest options available.  As a spire elite I received no upgrade, although I did inquire online ahead of my stay and at the reception when I checked in.  The problem is that the IHG website does not allow for any other type of room than a single queen studio when using points to book a reward night.  The room was very warm when we checked in, and the very noisy A/C did a poor job of cooling the room.  It was not a particularly restful nights sleep.  The internet speed was fast enough, no complaints there.  Maintenance is lacking a little bit with a fair amount of wear and tear both in the room and in common areas.  Be aware that there is no breakfast provided and no pool at most Candlewood Suites locations.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Orange County, Irvine Spectrum, responded to this reviewResponded September 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2016</t>
+  </si>
+  <si>
+    <t>If given the opportunity I would avoid this hotel and choose a different place.  I was staying using IHG rewards points for one night prior to an early flight from SNA, and the location was close, and the points per night among the lowest options available.  As a spire elite I received no upgrade, although I did inquire online ahead of my stay and at the reception when I checked in.  The problem is that the IHG website does not allow for any other type of room than a single queen studio when using points to book a reward night.  The room was very warm when we checked in, and the very noisy A/C did a poor job of cooling the room.  It was not a particularly restful nights sleep.  The internet speed was fast enough, no complaints there.  Maintenance is lacking a little bit with a fair amount of wear and tear both in the room and in common areas.  Be aware that there is no breakfast provided and no pool at most Candlewood Suites locations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r392654445-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>392654445</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>Clean, reasonably priced, great location as base camp for Orange County adventure!</t>
+  </si>
+  <si>
+    <t>I stayed here with my family as part of an Orange County weekend beach getaway. Even on a holiday weekend with heavy traffic it was about a 15-20 minute drive to Laguna Beach. The actual location isn't anything exotic (it's a bit hard to find as its literally in the back of a hospital parking lot) but its proximity to the beaches and Orange County attractions, its cleanliness, and the spaciousness of suits with kitchens make this a great choice for family adventures in the area. Also the staff was extremely nice and helpful.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r379465341-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>379465341</t>
+  </si>
+  <si>
+    <t>06/03/2016</t>
+  </si>
+  <si>
+    <t>Decent business hotel with inroom kitchen</t>
+  </si>
+  <si>
+    <t>I was here for 3weeks on business. The location is good...near to lot of businesses..inhouse kitchen is good...esp if you are vegan coming from India this is ideal...hotel could use some upgrade though...equipment is old and noisy some times...no breakfast as well..but a decent hotel to stay..Wifi speed improved since last time 2years back...MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Orange County, Irvine Spectrum, responded to this reviewResponded June 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2016</t>
+  </si>
+  <si>
+    <t>I was here for 3weeks on business. The location is good...near to lot of businesses..inhouse kitchen is good...esp if you are vegan coming from India this is ideal...hotel could use some upgrade though...equipment is old and noisy some times...no breakfast as well..but a decent hotel to stay..Wifi speed improved since last time 2years back...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r365894531-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>365894531</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>Private and out of the way</t>
+  </si>
+  <si>
+    <t>This hotel is literally hidden in the middle of a multi hospital complex. If you have a long term reason to be in the hospital area then I definitely and strongly recommend this place for you. It wasn't the best fit for me simply because I was not interested in preparing meals and eating in. I was at work more than I was in the room and so having the convenience of a full kitchen didn't add any value for my trip. There is not a convenient grocery store, had to map a route to closest one to pick up food for fridge. Then after first meal I realized I was going to have to clean up after myself and food containers would remain in trash for the duration of my visit unless I took out the trash, well, quickly I realized I didn't enjoy paying the room rate to clean and service my own room. I did not love the shower head and water pressure in my room either. Not returning for a second visit didn't allow me to determine if my room was a fluke or if that was the norm. I know a guy who wants to make his own meals and has spent weeks staying at this hotel.  He's the one he referred me to it. I can see the appeal in the right conditions but wasn't best for me for my purposes.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Orange County, Irvine Spectrum, responded to this reviewResponded May 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is literally hidden in the middle of a multi hospital complex. If you have a long term reason to be in the hospital area then I definitely and strongly recommend this place for you. It wasn't the best fit for me simply because I was not interested in preparing meals and eating in. I was at work more than I was in the room and so having the convenience of a full kitchen didn't add any value for my trip. There is not a convenient grocery store, had to map a route to closest one to pick up food for fridge. Then after first meal I realized I was going to have to clean up after myself and food containers would remain in trash for the duration of my visit unless I took out the trash, well, quickly I realized I didn't enjoy paying the room rate to clean and service my own room. I did not love the shower head and water pressure in my room either. Not returning for a second visit didn't allow me to determine if my room was a fluke or if that was the norm. I know a guy who wants to make his own meals and has spent weeks staying at this hotel.  He's the one he referred me to it. I can see the appeal in the right conditions but wasn't best for me for my purposes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r354237096-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>354237096</t>
+  </si>
+  <si>
+    <t>03/09/2016</t>
+  </si>
+  <si>
+    <t>Great basic hotel with free parking and laundry</t>
+  </si>
+  <si>
+    <t>Clean and spacious room. I find the refrigerator humming sound to be a bit too loud.  I did not turn on the air-conditioner so I can't comment on its noise.  There is a Denny's within 2 miles that made It convenient to get breakfast. Hotel is well located in terms of proximity to the major freeways, restaurants and Spectrum mall, but nothing is within walking distance. I don't expect a large variety of bathroom amenities in this hotel but I was surprised they did not provide a shower cap. A great plus is the free parking and use of washer/dryer (detergent can be purchased at the hotel). I would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stephanie H, Director of Sales at Candlewood Suites Orange County, Irvine Spectrum, responded to this reviewResponded March 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 11, 2016</t>
+  </si>
+  <si>
+    <t>Clean and spacious room. I find the refrigerator humming sound to be a bit too loud.  I did not turn on the air-conditioner so I can't comment on its noise.  There is a Denny's within 2 miles that made It convenient to get breakfast. Hotel is well located in terms of proximity to the major freeways, restaurants and Spectrum mall, but nothing is within walking distance. I don't expect a large variety of bathroom amenities in this hotel but I was surprised they did not provide a shower cap. A great plus is the free parking and use of washer/dryer (detergent can be purchased at the hotel). I would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r350065837-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>350065837</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>Good value, old equipment</t>
+  </si>
+  <si>
+    <t>It was one of cheapest hotels from IHG on my route, so I've choosed it mostly because of good price and location near main highways.Room equipment looks old and air condition was extremly noisy. Most unexpected thing: no shampoo in bathroom, only soap bar.But I understand that this property is more for extended stay scenario when it's not a problem for you to buy shampoo from grocery.What I like is Cupboard. Usually eating is overpriced in hotels and here you can find nice selection of food and drinks for nearby grocery prices, quickly reach it and easily pay for it.I'm not sure will I stay there once again or not, but it's nothing really bad in this location and if you need something nearby and travel on budget it could be a good option to consider.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>It was one of cheapest hotels from IHG on my route, so I've choosed it mostly because of good price and location near main highways.Room equipment looks old and air condition was extremly noisy. Most unexpected thing: no shampoo in bathroom, only soap bar.But I understand that this property is more for extended stay scenario when it's not a problem for you to buy shampoo from grocery.What I like is Cupboard. Usually eating is overpriced in hotels and here you can find nice selection of food and drinks for nearby grocery prices, quickly reach it and easily pay for it.I'm not sure will I stay there once again or not, but it's nothing really bad in this location and if you need something nearby and travel on budget it could be a good option to consider.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r327499689-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>327499689</t>
+  </si>
+  <si>
+    <t>11/17/2015</t>
+  </si>
+  <si>
+    <t>It is all about the Location</t>
+  </si>
+  <si>
+    <t>The was $98 with tax and near to Newport Beach, Laguna Beach and about an hour north of San Diego but NOT at those $$$ prices.  We went to Ralphs to get breakfast and late night snacks (microwave and full size refrigerator ) for Ice Cream and Apple Pie.  This was our only hotel with FREE parking!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Orange County, Irvine Spectrum, responded to this reviewResponded December 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 2, 2015</t>
+  </si>
+  <si>
+    <t>The was $98 with tax and near to Newport Beach, Laguna Beach and about an hour north of San Diego but NOT at those $$$ prices.  We went to Ralphs to get breakfast and late night snacks (microwave and full size refrigerator ) for Ice Cream and Apple Pie.  This was our only hotel with FREE parking!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r318596728-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>318596728</t>
+  </si>
+  <si>
+    <t>10/14/2015</t>
+  </si>
+  <si>
+    <t>Not what I expected</t>
+  </si>
+  <si>
+    <t>I probably should have done more research before booking this hotel. It just wasn't what I was expecting, so I was taken aback when the concept of Candlewood Suites was explained to me at check-in - basically, you get a room and no services. That is, the room is cleaned once a week, if you need clean linens in the meantime, you have to take your dirty ones to the lobby and get replacements; take out your own garbage, etc. I stayed 5 nights and my room was never cleaned. So, not your regular hotel. Again, my fault for not understanding the concept when I booked. The room itself was a good size, clean and comfortable, and had a well-equipped kitchenette with everything you'd need to make and serve a meal (and clean up afterwards). It would be a good choice for a family or an extended-stay visitor who didn't want to eat out all the time. You need a car (or use a cab) to get to anywhere; there is nothing in walking distance except the hospital next door. The driver of the shuttle I took from the airport had trouble finding the place, and it seems you have to go through the hospital parking lot to get to the hotel. I was in a ground floor room and was awoken at 5 am the first two days by the person upstairs apparently running a herd of elephants through...I probably should have done more research before booking this hotel. It just wasn't what I was expecting, so I was taken aback when the concept of Candlewood Suites was explained to me at check-in - basically, you get a room and no services. That is, the room is cleaned once a week, if you need clean linens in the meantime, you have to take your dirty ones to the lobby and get replacements; take out your own garbage, etc. I stayed 5 nights and my room was never cleaned. So, not your regular hotel. Again, my fault for not understanding the concept when I booked. The room itself was a good size, clean and comfortable, and had a well-equipped kitchenette with everything you'd need to make and serve a meal (and clean up afterwards). It would be a good choice for a family or an extended-stay visitor who didn't want to eat out all the time. You need a car (or use a cab) to get to anywhere; there is nothing in walking distance except the hospital next door. The driver of the shuttle I took from the airport had trouble finding the place, and it seems you have to go through the hospital parking lot to get to the hotel. I was in a ground floor room and was awoken at 5 am the first two days by the person upstairs apparently running a herd of elephants through their room (at least that's what it sounded like), so maybe try getting a room on the top floor if you want to avoid that. The front-desk staff were friendly and always had a cheerful greeting. All-in-all, it was OK; just not what I expected and I probably would not stay here again. I'd pay the extra to have more services and better location.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Orange County, Irvine Spectrum, responded to this reviewResponded October 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2015</t>
+  </si>
+  <si>
+    <t>I probably should have done more research before booking this hotel. It just wasn't what I was expecting, so I was taken aback when the concept of Candlewood Suites was explained to me at check-in - basically, you get a room and no services. That is, the room is cleaned once a week, if you need clean linens in the meantime, you have to take your dirty ones to the lobby and get replacements; take out your own garbage, etc. I stayed 5 nights and my room was never cleaned. So, not your regular hotel. Again, my fault for not understanding the concept when I booked. The room itself was a good size, clean and comfortable, and had a well-equipped kitchenette with everything you'd need to make and serve a meal (and clean up afterwards). It would be a good choice for a family or an extended-stay visitor who didn't want to eat out all the time. You need a car (or use a cab) to get to anywhere; there is nothing in walking distance except the hospital next door. The driver of the shuttle I took from the airport had trouble finding the place, and it seems you have to go through the hospital parking lot to get to the hotel. I was in a ground floor room and was awoken at 5 am the first two days by the person upstairs apparently running a herd of elephants through...I probably should have done more research before booking this hotel. It just wasn't what I was expecting, so I was taken aback when the concept of Candlewood Suites was explained to me at check-in - basically, you get a room and no services. That is, the room is cleaned once a week, if you need clean linens in the meantime, you have to take your dirty ones to the lobby and get replacements; take out your own garbage, etc. I stayed 5 nights and my room was never cleaned. So, not your regular hotel. Again, my fault for not understanding the concept when I booked. The room itself was a good size, clean and comfortable, and had a well-equipped kitchenette with everything you'd need to make and serve a meal (and clean up afterwards). It would be a good choice for a family or an extended-stay visitor who didn't want to eat out all the time. You need a car (or use a cab) to get to anywhere; there is nothing in walking distance except the hospital next door. The driver of the shuttle I took from the airport had trouble finding the place, and it seems you have to go through the hospital parking lot to get to the hotel. I was in a ground floor room and was awoken at 5 am the first two days by the person upstairs apparently running a herd of elephants through their room (at least that's what it sounded like), so maybe try getting a room on the top floor if you want to avoid that. The front-desk staff were friendly and always had a cheerful greeting. All-in-all, it was OK; just not what I expected and I probably would not stay here again. I'd pay the extra to have more services and better location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r318437712-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>318437712</t>
+  </si>
+  <si>
+    <t>10/13/2015</t>
+  </si>
+  <si>
+    <t>A great place to stay either for business or pleasure.</t>
+  </si>
+  <si>
+    <t>You feel like you are at home here.  Relaxing, quite, clean.  Just pack your food and drinks,  the rooms are fully equipped with everything you need to have a 7 course meal.Close to airport, $13.00 taxi ride from airport to hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r290428326-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>290428326</t>
+  </si>
+  <si>
+    <t>07/19/2015</t>
+  </si>
+  <si>
+    <t>Housekeeping once a week!</t>
+  </si>
+  <si>
+    <t>I went to Candlewood with my wife for two weeks for a study proposal. Price is good, but I didn't see, clearly, in any place at the site, that the housekeeping would come once a week. Impossible to keep clean if there is a kitchen inside the suite. Staff very good, specially a young Latin one. The American was to cold. He never responded to "good morning", "good evening". Very basic education, but that's it!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Orange County, Irvine Spectrum, responded to this reviewResponded August 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2015</t>
+  </si>
+  <si>
+    <t>I went to Candlewood with my wife for two weeks for a study proposal. Price is good, but I didn't see, clearly, in any place at the site, that the housekeeping would come once a week. Impossible to keep clean if there is a kitchen inside the suite. Staff very good, specially a young Latin one. The American was to cold. He never responded to "good morning", "good evening". Very basic education, but that's it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r289349149-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>289349149</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>Worst Candlewood Suites Ever...</t>
+  </si>
+  <si>
+    <t>This place is so hard to find, just like others have stated. Wasted 20 minutes circling around. Just know it's near Hoag Hospital. Room was dirty (hairs) dated, and musty. Most CS smell amazing as soon as you walk in. Would never stay here again. My wake up call was even late. Since when does 15 sound like 20? I lived in a CS for 3 monthsand it was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Orange County, Irvine Spectrum, responded to this reviewResponded July 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2015</t>
+  </si>
+  <si>
+    <t>This place is so hard to find, just like others have stated. Wasted 20 minutes circling around. Just know it's near Hoag Hospital. Room was dirty (hairs) dated, and musty. Most CS smell amazing as soon as you walk in. Would never stay here again. My wake up call was even late. Since when does 15 sound like 20? I lived in a CS for 3 monthsand it was great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r260233405-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>260233405</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>Not bad for the price</t>
+  </si>
+  <si>
+    <t>We spent 3 nights here while on business.  The mattress was not the best and the A/C had some problems but after we notified the front desk, they sent someone in to fix it promptly.  It would have been nice to have a restaurant close by but we enjoyed the convenience of having a room with a kitchenette. There is a workout room onsite with 4-5 cardio machines. Staff was friendly and the room was clean so, overall, a good value.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Orange County, Irvine Spectrum, responded to this reviewResponded April 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2015</t>
+  </si>
+  <si>
+    <t>We spent 3 nights here while on business.  The mattress was not the best and the A/C had some problems but after we notified the front desk, they sent someone in to fix it promptly.  It would have been nice to have a restaurant close by but we enjoyed the convenience of having a room with a kitchenette. There is a workout room onsite with 4-5 cardio machines. Staff was friendly and the room was clean so, overall, a good value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r255132843-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>255132843</t>
+  </si>
+  <si>
+    <t>02/18/2015</t>
+  </si>
+  <si>
+    <t>Its a quiet extended stay hotel right next to hospital</t>
+  </si>
+  <si>
+    <t>Very quiet except for the typical midnight car alarm from some guest. Staff friendly, place is clean, adequate. I won't say its super nice, it could use some updating but for the price its great. Nice bike / jog path right out the door. Bed was comfy, can sleep with windows open and get some real air.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Orange County, Irvine Spectrum, responded to this reviewResponded March 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2015</t>
+  </si>
+  <si>
+    <t>Very quiet except for the typical midnight car alarm from some guest. Staff friendly, place is clean, adequate. I won't say its super nice, it could use some updating but for the price its great. Nice bike / jog path right out the door. Bed was comfy, can sleep with windows open and get some real air.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r254669211-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>254669211</t>
+  </si>
+  <si>
+    <t>02/17/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decent </t>
+  </si>
+  <si>
+    <t>The renovation to Candlewood was ok, the one thing I found odd was all three facilities were connected. There wasn't much space to move around in the gym. Also, the room we stayed in had major flaws such as unmatched paint, mildew build up around the bathroom sink and tub, and wall thermostat not functioning properly. Inspector needs to check for every detail.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r250825993-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>250825993</t>
+  </si>
+  <si>
+    <t>01/24/2015</t>
+  </si>
+  <si>
+    <t>we love it</t>
+  </si>
+  <si>
+    <t>actually studio type is pretty cool..like it..requested a king size and got my request...it was a double bed in two...nice stuff..we'll be back for sure...we were in room 118...love the ambiance of this room and pretty close to hoag hospital..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r243148786-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>243148786</t>
+  </si>
+  <si>
+    <t>12/05/2014</t>
+  </si>
+  <si>
+    <t>smelled horribly of cigarette smoke</t>
+  </si>
+  <si>
+    <t>Horrible - could be nice as the rooms are large. Unfortunately the place reeks of cigarette smoke - the smell is imbedded into the furniture and walls. I actually checked out and didn't spend the night because the smell of smoke was so horrible.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Orange County, Irvine Spectrum, responded to this reviewResponded December 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 21, 2014</t>
+  </si>
+  <si>
+    <t>Horrible - could be nice as the rooms are large. Unfortunately the place reeks of cigarette smoke - the smell is imbedded into the furniture and walls. I actually checked out and didn't spend the night because the smell of smoke was so horrible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r238704596-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>238704596</t>
+  </si>
+  <si>
+    <t>11/07/2014</t>
+  </si>
+  <si>
+    <t>Quiet property good for productivity</t>
+  </si>
+  <si>
+    <t>I stay here for several weekends. The room is quiet and sunny. The hotel is right off freeway. Nearby there are several complexes that have restaurants and supermarkets. The most near one  Quail Hill is only minutes drive. The Starbucks there names its wi-fi 'googlestarbucks'. Google has a office nearby. Many people who go there are googlers. People in this area are friendly and pleasant.   I found myself productive during the weekends over here. I think this is a nice property for long stay.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r235362494-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>235362494</t>
+  </si>
+  <si>
+    <t>10/20/2014</t>
+  </si>
+  <si>
+    <t>Dog-friendly and convenient to video game studios</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here over the weekend with our dog. Long story short, we wanted to be near his work so we could maximize the little time we had together this weekend. It was not meant to be a romantic weekend. I read a lot of the reviews on multiple sites and was a bit wary about the condition of the hotel, but I was pleasantly surprised. I read somewhere that the hotel was completely remodeled in 2013. So I'd ignore the old reviews regarding the condition. 
+There is a very strong perfumed chemical smell in the stairways but you don't smell it in your room. We had a studio suite and it was plenty roomy for all two and a half of us. The shower had great pressure and it was nice to have a full kitchen (although we weren't there to cook). 
+The location isn't that great if you want to just walk to dinner but we were only a mile and a half from the husband's work, so that was convenient. The hotel actually connects with miles of bike paths so I was able to take the dog on a long walk every day without being next to a busy road. It also means the hotel is really quiet. And I didn't hear any of the other dogs that were staying there.  
+My only real complaint was with the beds. The first night I passed...My husband and I stayed here over the weekend with our dog. Long story short, we wanted to be near his work so we could maximize the little time we had together this weekend. It was not meant to be a romantic weekend. I read a lot of the reviews on multiple sites and was a bit wary about the condition of the hotel, but I was pleasantly surprised. I read somewhere that the hotel was completely remodeled in 2013. So I'd ignore the old reviews regarding the condition. There is a very strong perfumed chemical smell in the stairways but you don't smell it in your room. We had a studio suite and it was plenty roomy for all two and a half of us. The shower had great pressure and it was nice to have a full kitchen (although we weren't there to cook). The location isn't that great if you want to just walk to dinner but we were only a mile and a half from the husband's work, so that was convenient. The hotel actually connects with miles of bike paths so I was able to take the dog on a long walk every day without being next to a busy road. It also means the hotel is really quiet. And I didn't hear any of the other dogs that were staying there.  My only real complaint was with the beds. The first night I passed out and slept through the entire night. My husband did not feel the same. The second night both our necks hurt and we tossed and turned. The beds are on noisy box springs, so you know what that means. Squeak squeak squeak. Oh, and I was also annoyed that the free wi-fi shut off on our check out day. It would have been nice if it was available until noon. I could have called the front desk but I didn't feel like going through the effort. But overall, we were happy we stayed there. You can get to the Spectrum and all of the malls fairly quickly because you're also pretty close to the 405. There's a 7-11 just down the road if you need snacks. And this is the OC. You're most likely going to have to drive.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here over the weekend with our dog. Long story short, we wanted to be near his work so we could maximize the little time we had together this weekend. It was not meant to be a romantic weekend. I read a lot of the reviews on multiple sites and was a bit wary about the condition of the hotel, but I was pleasantly surprised. I read somewhere that the hotel was completely remodeled in 2013. So I'd ignore the old reviews regarding the condition. 
+There is a very strong perfumed chemical smell in the stairways but you don't smell it in your room. We had a studio suite and it was plenty roomy for all two and a half of us. The shower had great pressure and it was nice to have a full kitchen (although we weren't there to cook). 
+The location isn't that great if you want to just walk to dinner but we were only a mile and a half from the husband's work, so that was convenient. The hotel actually connects with miles of bike paths so I was able to take the dog on a long walk every day without being next to a busy road. It also means the hotel is really quiet. And I didn't hear any of the other dogs that were staying there.  
+My only real complaint was with the beds. The first night I passed...My husband and I stayed here over the weekend with our dog. Long story short, we wanted to be near his work so we could maximize the little time we had together this weekend. It was not meant to be a romantic weekend. I read a lot of the reviews on multiple sites and was a bit wary about the condition of the hotel, but I was pleasantly surprised. I read somewhere that the hotel was completely remodeled in 2013. So I'd ignore the old reviews regarding the condition. There is a very strong perfumed chemical smell in the stairways but you don't smell it in your room. We had a studio suite and it was plenty roomy for all two and a half of us. The shower had great pressure and it was nice to have a full kitchen (although we weren't there to cook). The location isn't that great if you want to just walk to dinner but we were only a mile and a half from the husband's work, so that was convenient. The hotel actually connects with miles of bike paths so I was able to take the dog on a long walk every day without being next to a busy road. It also means the hotel is really quiet. And I didn't hear any of the other dogs that were staying there.  My only real complaint was with the beds. The first night I passed out and slept through the entire night. My husband did not feel the same. The second night both our necks hurt and we tossed and turned. The beds are on noisy box springs, so you know what that means. Squeak squeak squeak. Oh, and I was also annoyed that the free wi-fi shut off on our check out day. It would have been nice if it was available until noon. I could have called the front desk but I didn't feel like going through the effort. But overall, we were happy we stayed there. You can get to the Spectrum and all of the malls fairly quickly because you're also pretty close to the 405. There's a 7-11 just down the road if you need snacks. And this is the OC. You're most likely going to have to drive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r229226853-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>229226853</t>
+  </si>
+  <si>
+    <t>09/16/2014</t>
+  </si>
+  <si>
+    <t>Never again</t>
+  </si>
+  <si>
+    <t>Rooms are fine but the halls and stairwells stink like smoke and the chemical they used to try and cover it. Its so bad that it doesn't matter if we give the rest of the hotel 5 stars we can not stay there again. Set AC to 60 and it never got below 78. nothing within walking distance</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r228907613-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>228907613</t>
+  </si>
+  <si>
+    <t>09/14/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel if you can find it</t>
+  </si>
+  <si>
+    <t>First off this place is hard to find, its hidden way in the back off of Sand Canyon the hotel is not visible from the street.   Right next to Hoag Hospital.  The rooms are large they feature a small kitchenette, with refrigerator, microwave, coffee maker, and 2 small burners, the room is well equipped with all types of utensils to cook just about anything that you want to.  TV is mounted where you can swing it around to see it from any area in the room.  Free Internet that was really easy to set up. If you are in the mood to exercise the hotel is equipped with a gym, in the gym area you will also find a place where you can purchase snacks and drinks. Noticed they also had free coffee available at all times.  You need your room key to open up the gym area.  Washers and Dryers were also available for use.The location of this place is not near anything you definitely will need a car to get around.Would recommend this place to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>First off this place is hard to find, its hidden way in the back off of Sand Canyon the hotel is not visible from the street.   Right next to Hoag Hospital.  The rooms are large they feature a small kitchenette, with refrigerator, microwave, coffee maker, and 2 small burners, the room is well equipped with all types of utensils to cook just about anything that you want to.  TV is mounted where you can swing it around to see it from any area in the room.  Free Internet that was really easy to set up. If you are in the mood to exercise the hotel is equipped with a gym, in the gym area you will also find a place where you can purchase snacks and drinks. Noticed they also had free coffee available at all times.  You need your room key to open up the gym area.  Washers and Dryers were also available for use.The location of this place is not near anything you definitely will need a car to get around.Would recommend this place to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r222740303-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>222740303</t>
+  </si>
+  <si>
+    <t>08/18/2014</t>
+  </si>
+  <si>
+    <t>Decent Hotel, reasonably priced</t>
+  </si>
+  <si>
+    <t>I needed accommodations for weekend events in the general area and chose this based on their affiliation with IHG (able to use or earn points).  It was a little tricky to find - there is a sign at the road, but no directional signs once you make the turn off of Sand Cyn.  Just bear left and follow the signs to 'Emergency'. Yes, it is on the campus of Hoag Medical Center. 
+The desk clerks were very nice and the young man who checked me, when I commented I was looking for a quiet spot, made the effort to locate my room on the opposite end of the hotel from a family group that had lots of children.   
+The room was very comfortable, and spacious - well appointed for the extended stay guest. 
+In Room Coffee was provided, along with a bag of microwave popcorn and a bottle of water (although these may have been due to my IHG membership). Bathroom amenities were basic - nice fluffy towels, comfortable bedding as well.  
+Having the full size refrigerator in the room did add noise, but it did not disturb my sleep. Bathroom has only one switch which turns on the light and a noisy fan.  Nice big window which can be fully opened to allow fresh air in - a warning to those with small children! I had a view of the parking lot, but with the sheer curtains pulled had...I needed accommodations for weekend events in the general area and chose this based on their affiliation with IHG (able to use or earn points).  It was a little tricky to find - there is a sign at the road, but no directional signs once you make the turn off of Sand Cyn.  Just bear left and follow the signs to 'Emergency'. Yes, it is on the campus of Hoag Medical Center. The desk clerks were very nice and the young man who checked me, when I commented I was looking for a quiet spot, made the effort to locate my room on the opposite end of the hotel from a family group that had lots of children.   The room was very comfortable, and spacious - well appointed for the extended stay guest. In Room Coffee was provided, along with a bag of microwave popcorn and a bottle of water (although these may have been due to my IHG membership). Bathroom amenities were basic - nice fluffy towels, comfortable bedding as well.  Having the full size refrigerator in the room did add noise, but it did not disturb my sleep. Bathroom has only one switch which turns on the light and a noisy fan.  Nice big window which can be fully opened to allow fresh air in - a warning to those with small children! I had a view of the parking lot, but with the sheer curtains pulled had nice light. Blackout curtains worked well. They have gym equipment.  NO restaurant on site, NO free breakfast, but the 'Candlewood Cupboard' offers breakfast and lunch items for fairly reasonable prices.  Ralph's and Gelson's supermarkets along with a variety of restaurants are located just over a mile away. You pretty much have to drive for any shopping/food/entertainment.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>I needed accommodations for weekend events in the general area and chose this based on their affiliation with IHG (able to use or earn points).  It was a little tricky to find - there is a sign at the road, but no directional signs once you make the turn off of Sand Cyn.  Just bear left and follow the signs to 'Emergency'. Yes, it is on the campus of Hoag Medical Center. 
+The desk clerks were very nice and the young man who checked me, when I commented I was looking for a quiet spot, made the effort to locate my room on the opposite end of the hotel from a family group that had lots of children.   
+The room was very comfortable, and spacious - well appointed for the extended stay guest. 
+In Room Coffee was provided, along with a bag of microwave popcorn and a bottle of water (although these may have been due to my IHG membership). Bathroom amenities were basic - nice fluffy towels, comfortable bedding as well.  
+Having the full size refrigerator in the room did add noise, but it did not disturb my sleep. Bathroom has only one switch which turns on the light and a noisy fan.  Nice big window which can be fully opened to allow fresh air in - a warning to those with small children! I had a view of the parking lot, but with the sheer curtains pulled had...I needed accommodations for weekend events in the general area and chose this based on their affiliation with IHG (able to use or earn points).  It was a little tricky to find - there is a sign at the road, but no directional signs once you make the turn off of Sand Cyn.  Just bear left and follow the signs to 'Emergency'. Yes, it is on the campus of Hoag Medical Center. The desk clerks were very nice and the young man who checked me, when I commented I was looking for a quiet spot, made the effort to locate my room on the opposite end of the hotel from a family group that had lots of children.   The room was very comfortable, and spacious - well appointed for the extended stay guest. In Room Coffee was provided, along with a bag of microwave popcorn and a bottle of water (although these may have been due to my IHG membership). Bathroom amenities were basic - nice fluffy towels, comfortable bedding as well.  Having the full size refrigerator in the room did add noise, but it did not disturb my sleep. Bathroom has only one switch which turns on the light and a noisy fan.  Nice big window which can be fully opened to allow fresh air in - a warning to those with small children! I had a view of the parking lot, but with the sheer curtains pulled had nice light. Blackout curtains worked well. They have gym equipment.  NO restaurant on site, NO free breakfast, but the 'Candlewood Cupboard' offers breakfast and lunch items for fairly reasonable prices.  Ralph's and Gelson's supermarkets along with a variety of restaurants are located just over a mile away. You pretty much have to drive for any shopping/food/entertainment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r183032054-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>183032054</t>
+  </si>
+  <si>
+    <t>10/31/2013</t>
+  </si>
+  <si>
+    <t>Very Far from market Place</t>
+  </si>
+  <si>
+    <t>Hotel is good, main problem is the location, far away from any market, for that one need to cross the highway, Not recommended unless you have a car. Crossing the higway by walking is impossible no way. Mostly the Medicals around.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Orange County, Irvine Spectrum, responded to this reviewResponded November 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2013</t>
+  </si>
+  <si>
+    <t>Hotel is good, main problem is the location, far away from any market, for that one need to cross the highway, Not recommended unless you have a car. Crossing the higway by walking is impossible no way. Mostly the Medicals around.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r182287447-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>182287447</t>
+  </si>
+  <si>
+    <t>10/24/2013</t>
+  </si>
+  <si>
+    <t>Not Bad!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was unsure about this hotel but that went away shortly after arriving. It's not your resort hotel (all rooms have full kitchens, no pool, no breakfast, no hot tub), but it's great if your there a long time. They do have a store in the hotel where you can buy food, snacks, and drinks. Highly recommend this hotel. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r175830190-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>175830190</t>
+  </si>
+  <si>
+    <t>09/04/2013</t>
+  </si>
+  <si>
+    <t>Very comfortable for longer stays</t>
+  </si>
+  <si>
+    <t>Hotel that makes extended stays comfortable. I have been staying here for more than 2 weeks in a Queen bed studioPros:1. Very close to the Irvine Spectrum Center and the offices around this area.2. I have stayed in other Candlewood suites and the level of service from the staff here is better.3. Cost effective pricing and they have good corporate rates for long stays4. Complimentary washer and dryer use5. Hotel seems to have been recently refurbished so it does not appear dated6. Kitchen with stove, microwave, utensils - something that is very important to me on extended stays as I do not like to eat out every day7. Irvine city Shuttle service (Route D) stop is just a couple of minutes away and has regular service during working hours8. Average gym, but good enough when you are on the moveCons1. No restaurant, or breakfast but that is standard across all Candlewood suites2. Finding the hotel the first time might be difficult, so remember to enter the campus of Hoag Irvine hospital and turn right. Even with a GPS you might be lost for a bit.My colleagues who have stayed in other hotels like Extended Stay America and La Quinta in Irvine have recommended this place. I would definitely want to stay here againMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Hotel that makes extended stays comfortable. I have been staying here for more than 2 weeks in a Queen bed studioPros:1. Very close to the Irvine Spectrum Center and the offices around this area.2. I have stayed in other Candlewood suites and the level of service from the staff here is better.3. Cost effective pricing and they have good corporate rates for long stays4. Complimentary washer and dryer use5. Hotel seems to have been recently refurbished so it does not appear dated6. Kitchen with stove, microwave, utensils - something that is very important to me on extended stays as I do not like to eat out every day7. Irvine city Shuttle service (Route D) stop is just a couple of minutes away and has regular service during working hours8. Average gym, but good enough when you are on the moveCons1. No restaurant, or breakfast but that is standard across all Candlewood suites2. Finding the hotel the first time might be difficult, so remember to enter the campus of Hoag Irvine hospital and turn right. Even with a GPS you might be lost for a bit.My colleagues who have stayed in other hotels like Extended Stay America and La Quinta in Irvine have recommended this place. I would definitely want to stay here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r162544304-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>162544304</t>
+  </si>
+  <si>
+    <t>05/31/2013</t>
+  </si>
+  <si>
+    <t>Looks like new!</t>
+  </si>
+  <si>
+    <t>This is my second time here and I love the new lobby/check in area! Updated and refreshing! The staff was great as they were last time. I will definitely stay again in the future when in the area for business.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r154288985-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>154288985</t>
+  </si>
+  <si>
+    <t>03/11/2013</t>
+  </si>
+  <si>
+    <t>Very good service and environment</t>
+  </si>
+  <si>
+    <t>I have stayed in this hotel 2 times. I like their very quite and safe environment. Their staff are also very nice and warm heart. The room is clean and the equipment in kitchen is good enough. I also can borrow DVD for my night time. I for sure will live there again.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r152754079-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>152754079</t>
+  </si>
+  <si>
+    <t>02/21/2013</t>
+  </si>
+  <si>
+    <t>Value for the money - extended stay</t>
+  </si>
+  <si>
+    <t>I have stayed in this extended stay when I relocated to Irvine . value for money.clean rooms and good extended stay . dont expect great customer service ..its just average..safe area and value for the money.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r133313185-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>133313185</t>
+  </si>
+  <si>
+    <t>07/02/2012</t>
+  </si>
+  <si>
+    <t>Excellent Location</t>
+  </si>
+  <si>
+    <t>Stayed here twice in the past year.
+Location is by far the best thing about this hotel. It’s located right off the I-405 and just minutes away from the I-5. This makes getting anywhere inside Orange County a snap and a quick shot up to northern Los Angeles if needed. Your also minutes from a couple major shopping centers, which have Macy’s and Targets so getting supplies is very convenient.
+Finding this hotel is not such a joy. It shares the entrance with a major hospital and you cannot actually see the property from the road. Navigation systems get confused as well and pretty much get you to the hospital entrance and then you’re on your own. The hotel is actually in the back. You take the hospital entrance and follow the winding road to almost the backside of the property. The hotel is on the left-hand side. For being by a major hospital, I never once heard a single ambulance, even far off.
+I stayed in a one-bedroom unit, so I don’t know how much different the studio suites are, but I am told it’s basically the same, just a wall is added to separate the bedroom and living room. Overall the room was average, nothing to get overly excited. The brochure says the rooms include a kitchen. What you get is a two station electric hot-surface stove, microwave, refrigerator, coffee maker and toaster. They do include two placements...Stayed here twice in the past year.Location is by far the best thing about this hotel. It’s located right off the I-405 and just minutes away from the I-5. This makes getting anywhere inside Orange County a snap and a quick shot up to northern Los Angeles if needed. Your also minutes from a couple major shopping centers, which have Macy’s and Targets so getting supplies is very convenient.Finding this hotel is not such a joy. It shares the entrance with a major hospital and you cannot actually see the property from the road. Navigation systems get confused as well and pretty much get you to the hospital entrance and then you’re on your own. The hotel is actually in the back. You take the hospital entrance and follow the winding road to almost the backside of the property. The hotel is on the left-hand side. For being by a major hospital, I never once heard a single ambulance, even far off.I stayed in a one-bedroom unit, so I don’t know how much different the studio suites are, but I am told it’s basically the same, just a wall is added to separate the bedroom and living room. Overall the room was average, nothing to get overly excited. The brochure says the rooms include a kitchen. What you get is a two station electric hot-surface stove, microwave, refrigerator, coffee maker and toaster. They do include two placements of silverware for use and a dishwasher to easily clean. The appliances are what you would expect, usable, but some in need of replacement. The dishwasher loved to leak water and the ice machine inside the refrigerator did not work. The toaster worked fine, but the coffee maker was a nightmare, the light did work to say it was on and it did a great job of overflowing water and beans onto the counter. I was seriously tempted to buy a coffee maker for my limited stay.The rest of the room was about average or standard. Sleeping will defiantly not be a problem as you’re surrounded by foliage and trees, which effectively block out noises from the street. One appliance issue that actually plagued both rooms I have stayed in was the air conditioner. For whatever reason, both units leak water onto the floor under them. If you walk close to them after running for a couple hours, you get wet so be carefully putting anything around them. My biggest concern was any biological issues that could result from water under the rug from countless times running. Unfortunately, no one ever answered the maintenance line when I called.One last note. Do not expect any maid service at this hotel, unless you’re staying over 7-days.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Stayed here twice in the past year.
+Location is by far the best thing about this hotel. It’s located right off the I-405 and just minutes away from the I-5. This makes getting anywhere inside Orange County a snap and a quick shot up to northern Los Angeles if needed. Your also minutes from a couple major shopping centers, which have Macy’s and Targets so getting supplies is very convenient.
+Finding this hotel is not such a joy. It shares the entrance with a major hospital and you cannot actually see the property from the road. Navigation systems get confused as well and pretty much get you to the hospital entrance and then you’re on your own. The hotel is actually in the back. You take the hospital entrance and follow the winding road to almost the backside of the property. The hotel is on the left-hand side. For being by a major hospital, I never once heard a single ambulance, even far off.
+I stayed in a one-bedroom unit, so I don’t know how much different the studio suites are, but I am told it’s basically the same, just a wall is added to separate the bedroom and living room. Overall the room was average, nothing to get overly excited. The brochure says the rooms include a kitchen. What you get is a two station electric hot-surface stove, microwave, refrigerator, coffee maker and toaster. They do include two placements...Stayed here twice in the past year.Location is by far the best thing about this hotel. It’s located right off the I-405 and just minutes away from the I-5. This makes getting anywhere inside Orange County a snap and a quick shot up to northern Los Angeles if needed. Your also minutes from a couple major shopping centers, which have Macy’s and Targets so getting supplies is very convenient.Finding this hotel is not such a joy. It shares the entrance with a major hospital and you cannot actually see the property from the road. Navigation systems get confused as well and pretty much get you to the hospital entrance and then you’re on your own. The hotel is actually in the back. You take the hospital entrance and follow the winding road to almost the backside of the property. The hotel is on the left-hand side. For being by a major hospital, I never once heard a single ambulance, even far off.I stayed in a one-bedroom unit, so I don’t know how much different the studio suites are, but I am told it’s basically the same, just a wall is added to separate the bedroom and living room. Overall the room was average, nothing to get overly excited. The brochure says the rooms include a kitchen. What you get is a two station electric hot-surface stove, microwave, refrigerator, coffee maker and toaster. They do include two placements of silverware for use and a dishwasher to easily clean. The appliances are what you would expect, usable, but some in need of replacement. The dishwasher loved to leak water and the ice machine inside the refrigerator did not work. The toaster worked fine, but the coffee maker was a nightmare, the light did work to say it was on and it did a great job of overflowing water and beans onto the counter. I was seriously tempted to buy a coffee maker for my limited stay.The rest of the room was about average or standard. Sleeping will defiantly not be a problem as you’re surrounded by foliage and trees, which effectively block out noises from the street. One appliance issue that actually plagued both rooms I have stayed in was the air conditioner. For whatever reason, both units leak water onto the floor under them. If you walk close to them after running for a couple hours, you get wet so be carefully putting anything around them. My biggest concern was any biological issues that could result from water under the rug from countless times running. Unfortunately, no one ever answered the maintenance line when I called.One last note. Do not expect any maid service at this hotel, unless you’re staying over 7-days.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r130405692-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>130405692</t>
+  </si>
+  <si>
+    <t>05/22/2012</t>
+  </si>
+  <si>
+    <t>Beautiful location!</t>
+  </si>
+  <si>
+    <t>Hotel was in a perfect location! Everything we needed near by.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r127489542-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>127489542</t>
+  </si>
+  <si>
+    <t>04/08/2012</t>
+  </si>
+  <si>
+    <t>Very Friendly, well trained and helpfull Staff.</t>
+  </si>
+  <si>
+    <t>The rooms are set up for long term stay with a small but totally equipped (for 2) and adequate kitchenette (minus an oven). They are clean and very quiet.We stoppped by the front desk on our way out for only a few hours.  We made a couple of comments of items that possibly could use some attention in our room.  Ice maker was not working and the air conditioner seemed a bit noisy.  Upon our return we had a working ice maker and a working but silent air conditioner.  The staff and maintenance crew was on top of it!The Video Library had a nice selection and even had "Second Hand Lion"!  We have a hard time getting that one from Block Buster!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>The rooms are set up for long term stay with a small but totally equipped (for 2) and adequate kitchenette (minus an oven). They are clean and very quiet.We stoppped by the front desk on our way out for only a few hours.  We made a couple of comments of items that possibly could use some attention in our room.  Ice maker was not working and the air conditioner seemed a bit noisy.  Upon our return we had a working ice maker and a working but silent air conditioner.  The staff and maintenance crew was on top of it!The Video Library had a nice selection and even had "Second Hand Lion"!  We have a hard time getting that one from Block Buster!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r119242801-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>119242801</t>
+  </si>
+  <si>
+    <t>10/12/2011</t>
+  </si>
+  <si>
+    <t>No longer a good hotel</t>
+  </si>
+  <si>
+    <t>Poor management of hotel and staff. There has been a deterioration of integrity; guests are intentionally given faulty information and no remorse is shown even when calmly confronted about this. My husband and I stayed at this hotel on Sand Canyon Avenue four times during the past 12 months, and observed that guests are treated as disposables, as if management fails to comprehend and uphold its role in the hospitality industry!  We have had two incidences with this hotel.  There was an issue with the room that we were incorrectly assigned. When we approached the general manager, he checked the computer and said that he understood the issue and that he would personally fix this by assigning us a different room within a half hour.  After 40 minutes, we went to him for the fulfillment of his commit and he said that there was nothing he can do for us.  We immediately terminated our stay there.Thank goodness, there are optional hotels for guests.  So we have astutely opted to not return to that hotel.  For the sake of other guests, we truly hope for correction of the attitude of indifference towards guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>Poor management of hotel and staff. There has been a deterioration of integrity; guests are intentionally given faulty information and no remorse is shown even when calmly confronted about this. My husband and I stayed at this hotel on Sand Canyon Avenue four times during the past 12 months, and observed that guests are treated as disposables, as if management fails to comprehend and uphold its role in the hospitality industry!  We have had two incidences with this hotel.  There was an issue with the room that we were incorrectly assigned. When we approached the general manager, he checked the computer and said that he understood the issue and that he would personally fix this by assigning us a different room within a half hour.  After 40 minutes, we went to him for the fulfillment of his commit and he said that there was nothing he can do for us.  We immediately terminated our stay there.Thank goodness, there are optional hotels for guests.  So we have astutely opted to not return to that hotel.  For the sake of other guests, we truly hope for correction of the attitude of indifference towards guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r117631249-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>117631249</t>
+  </si>
+  <si>
+    <t>09/03/2011</t>
+  </si>
+  <si>
+    <t>not like I remembered</t>
+  </si>
+  <si>
+    <t>I had previously stayed at this hotel 9 years ago for 2 months during a business relocation and it was fine. I had 2 cats with me and the hotel did everything to accomodate me.  This recent 4 day stay was disappointing. The hotel is a bit run down, stained sink, scratchy sheets and a plugged bathtub drain which I requested they fix. 2 calls and a visit to the front desk and nothing was done about it. The 24 cupboard is not well stocked or actually even re-stocked. I watched the same bananas turn brown over my 4 day stay.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r117447406-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>117447406</t>
+  </si>
+  <si>
+    <t>08/30/2011</t>
+  </si>
+  <si>
+    <t>As advertised</t>
+  </si>
+  <si>
+    <t>In town for a small family reunion, this hotel couldn't have been more perfect.  Modest in services (no housekeeping during our stay), the hotel has everything you want, whenever you want it.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r115895865-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>115895865</t>
+  </si>
+  <si>
+    <t>07/28/2011</t>
+  </si>
+  <si>
+    <t>Decent Hotel; Spent Two Nights</t>
+  </si>
+  <si>
+    <t>Decent hotel; clean and up-to-date. I found it a nice retreat from the races in Long Beach.</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r103882602-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>103882602</t>
+  </si>
+  <si>
+    <t>04/13/2011</t>
+  </si>
+  <si>
+    <t>Rooms lack maintenance</t>
+  </si>
+  <si>
+    <t>I stayed here twice in April 2011 on business. The first time, I was in a first floor room, and got very little sleep due to the noise from the room above. The resident above was pacing on the heels of his feet back and forth all night long. Miserable.The second time, I requested a top floor room. The first room had a climate control system on the wall which would not turn on. It was completely dead. The room was hot. Opening the window is not an option, due to the noise of people talking in the parking lot, and the traffic noise.They gave me a second room on the top floor, and lo and behold, the climate control did not work in that room either!!!!! The display worked, but the AC unit would never come on. Amazing.This hotel has some serious maintenance issues. I will probably not be staying there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>LAXSDGM, General Manager at Candlewood Suites Orange County, Irvine Spectrum, responded to this reviewResponded April 15, 2011</t>
+  </si>
+  <si>
+    <t>Responded April 15, 2011</t>
+  </si>
+  <si>
+    <t>I stayed here twice in April 2011 on business. The first time, I was in a first floor room, and got very little sleep due to the noise from the room above. The resident above was pacing on the heels of his feet back and forth all night long. Miserable.The second time, I requested a top floor room. The first room had a climate control system on the wall which would not turn on. It was completely dead. The room was hot. Opening the window is not an option, due to the noise of people talking in the parking lot, and the traffic noise.They gave me a second room on the top floor, and lo and behold, the climate control did not work in that room either!!!!! The display worked, but the AC unit would never come on. Amazing.This hotel has some serious maintenance issues. I will probably not be staying there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r85087207-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>85087207</t>
+  </si>
+  <si>
+    <t>10/27/2010</t>
+  </si>
+  <si>
+    <t>Nice if you get the suites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel needs renovation. Inteior is  showing its age. But price is right. The suite is worth the upgrade as there is a door for the bedroom, which cuts down the noise from the fridge </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r54048465-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>54048465</t>
+  </si>
+  <si>
+    <t>01/21/2010</t>
+  </si>
+  <si>
+    <t>Best business hotel stay I've ever had!</t>
+  </si>
+  <si>
+    <t>My wife and I arrived Sunday evening and I would suggest that Candlewood put a sign indicating that they are located in the back of the hospital that you see on Sand Canyon Ave, because you can't see the hotel from Sand Canyon Ave. That was the only thing that we found to be a problem during our stay.
+The standard room is what we had booked and it was a large room &amp; bathroom. The room includes a full size refrigerator w/ icemaker, two burner electric cooktop, large microwave oven, dishwasher, set of cookware, microwavable glassware, set of dishes, glasses, can opener, potato peeler, cutting knife, steak knives, spatula, cooking spoon and fork, strainer, toaster, measuring cup, dish towels, paper towels, dishwasher soap &amp; regular dish soap and there is even a garbage disposal! My wife had come with me so she just brought some food from home and made breakfast and a couple of dinners while we were there. She had brought a lot of the things like dish soap, paper towels, dish towels as well as a can opener. We were both surprised that they provided so much in the room. All you need to bring is food. They provide free hardline internet connection, the tv is pretty much like most hotels with cable and a dvd/vhs player so bring your own movies or check out the free ones at the front desk, a desk with 2...My wife and I arrived Sunday evening and I would suggest that Candlewood put a sign indicating that they are located in the back of the hospital that you see on Sand Canyon Ave, because you can't see the hotel from Sand Canyon Ave. That was the only thing that we found to be a problem during our stay. The standard room is what we had booked and it was a large room &amp; bathroom. The room includes a full size refrigerator w/ icemaker, two burner electric cooktop, large microwave oven, dishwasher, set of cookware, microwavable glassware, set of dishes, glasses, can opener, potato peeler, cutting knife, steak knives, spatula, cooking spoon and fork, strainer, toaster, measuring cup, dish towels, paper towels, dishwasher soap &amp; regular dish soap and there is even a garbage disposal! My wife had come with me so she just brought some food from home and made breakfast and a couple of dinners while we were there. She had brought a lot of the things like dish soap, paper towels, dish towels as well as a can opener. We were both surprised that they provided so much in the room. All you need to bring is food. They provide free hardline internet connection, the tv is pretty much like most hotels with cable and a dvd/vhs player so bring your own movies or check out the free ones at the front desk, a desk with 2 chairs for use as a desk/dining table and they even have a little convience store that is attached to the gym on the first floor. If you do use the store they have a complimentary coffee station for you to use. I forgot to mention there is a coffee pot in the room also. The queen size bed was comfortable but the I guess the bed is situated for 1 traveler, the bed was not centered on the wall so there would be equal room on each side of the bed so she could get into it from her own side, but there is a recliner on the side with more room and a bedside table. I think next time I'll just get the Deluxe room for about $20.00 more, which is still a bargan!The staff is helpful and very nice. When I had to stay at Quality Suites in Santa Ana because the company paid for it I figured it was okay and they provided a free breakfast, tiny refrigerator, microwave. But after finding and staying at Candlewood Suites, there will never be a question of where I will be staying for business or pleasure when we want a place to stay if we want to have the option of cooking our own food while out of town. I've probably forgotten something but they probably have it, if not in the room at the front desk.  We were in Irvine for 4 days and we enjoyed our stay at Candlewood Suites. It is close to the freeway, shopping centers, movie theaters and basically everything.  Do yourself a favor if you need a place to stay in Irvine, don't pass up the Candlewood Suites.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>My wife and I arrived Sunday evening and I would suggest that Candlewood put a sign indicating that they are located in the back of the hospital that you see on Sand Canyon Ave, because you can't see the hotel from Sand Canyon Ave. That was the only thing that we found to be a problem during our stay.
+The standard room is what we had booked and it was a large room &amp; bathroom. The room includes a full size refrigerator w/ icemaker, two burner electric cooktop, large microwave oven, dishwasher, set of cookware, microwavable glassware, set of dishes, glasses, can opener, potato peeler, cutting knife, steak knives, spatula, cooking spoon and fork, strainer, toaster, measuring cup, dish towels, paper towels, dishwasher soap &amp; regular dish soap and there is even a garbage disposal! My wife had come with me so she just brought some food from home and made breakfast and a couple of dinners while we were there. She had brought a lot of the things like dish soap, paper towels, dish towels as well as a can opener. We were both surprised that they provided so much in the room. All you need to bring is food. They provide free hardline internet connection, the tv is pretty much like most hotels with cable and a dvd/vhs player so bring your own movies or check out the free ones at the front desk, a desk with 2...My wife and I arrived Sunday evening and I would suggest that Candlewood put a sign indicating that they are located in the back of the hospital that you see on Sand Canyon Ave, because you can't see the hotel from Sand Canyon Ave. That was the only thing that we found to be a problem during our stay. The standard room is what we had booked and it was a large room &amp; bathroom. The room includes a full size refrigerator w/ icemaker, two burner electric cooktop, large microwave oven, dishwasher, set of cookware, microwavable glassware, set of dishes, glasses, can opener, potato peeler, cutting knife, steak knives, spatula, cooking spoon and fork, strainer, toaster, measuring cup, dish towels, paper towels, dishwasher soap &amp; regular dish soap and there is even a garbage disposal! My wife had come with me so she just brought some food from home and made breakfast and a couple of dinners while we were there. She had brought a lot of the things like dish soap, paper towels, dish towels as well as a can opener. We were both surprised that they provided so much in the room. All you need to bring is food. They provide free hardline internet connection, the tv is pretty much like most hotels with cable and a dvd/vhs player so bring your own movies or check out the free ones at the front desk, a desk with 2 chairs for use as a desk/dining table and they even have a little convience store that is attached to the gym on the first floor. If you do use the store they have a complimentary coffee station for you to use. I forgot to mention there is a coffee pot in the room also. The queen size bed was comfortable but the I guess the bed is situated for 1 traveler, the bed was not centered on the wall so there would be equal room on each side of the bed so she could get into it from her own side, but there is a recliner on the side with more room and a bedside table. I think next time I'll just get the Deluxe room for about $20.00 more, which is still a bargan!The staff is helpful and very nice. When I had to stay at Quality Suites in Santa Ana because the company paid for it I figured it was okay and they provided a free breakfast, tiny refrigerator, microwave. But after finding and staying at Candlewood Suites, there will never be a question of where I will be staying for business or pleasure when we want a place to stay if we want to have the option of cooking our own food while out of town. I've probably forgotten something but they probably have it, if not in the room at the front desk.  We were in Irvine for 4 days and we enjoyed our stay at Candlewood Suites. It is close to the freeway, shopping centers, movie theaters and basically everything.  Do yourself a favor if you need a place to stay in Irvine, don't pass up the Candlewood Suites.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r45705027-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>45705027</t>
+  </si>
+  <si>
+    <t>10/02/2009</t>
+  </si>
+  <si>
+    <t>AWESOME HOTEL!</t>
+  </si>
+  <si>
+    <t>Immaculate room! Bed was not as soft as I hoped it would be, sheets and pillows incredible! Large tv w/dvd &amp; vhs player in room, 52 cable channels including multiple HBO. Radio/alarm clock/CD player. Kitchen comes stocked with not just a silverware and a pot but multiple and very nice cookware pots w/lids, glass bowls w/lids, measuring cup, potato peeler-you name it. Full sized fridge has an icemaker. Full size microwave. Dishwasher, stove top (no oven), garbage disposal, plenty of hanger and a separate closet, laundry basket in room, dishwasher soap, paper towels, soaps and shampoo, hair dryer. Decorated to feel like home, large recliner, work space with two chairs, 2 phones w/multiple features, free internet in the room, full length mirror, hair dryer, pleasant location and close to gas station, grocery and places to dine. , Free washers and dryers, free lending dvd/vhs library, free locked mail box if you desire during your stay. Gym, business center, 24 hr store. Called the front desk and asked if the store had tylenol, that I wasn't feeling well. She hand delivered tylenol to my room for me with a smile. Hotel itself is very clean and friendly and feels safe. I am very impressive, I travel to this area often for a month at a time and I will be a repeat traveler!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>LAXSDGM, General Manager at Candlewood Suites Orange County, Irvine Spectrum, responded to this reviewResponded October 8, 2009</t>
+  </si>
+  <si>
+    <t>Responded October 8, 2009</t>
+  </si>
+  <si>
+    <t>Immaculate room! Bed was not as soft as I hoped it would be, sheets and pillows incredible! Large tv w/dvd &amp; vhs player in room, 52 cable channels including multiple HBO. Radio/alarm clock/CD player. Kitchen comes stocked with not just a silverware and a pot but multiple and very nice cookware pots w/lids, glass bowls w/lids, measuring cup, potato peeler-you name it. Full sized fridge has an icemaker. Full size microwave. Dishwasher, stove top (no oven), garbage disposal, plenty of hanger and a separate closet, laundry basket in room, dishwasher soap, paper towels, soaps and shampoo, hair dryer. Decorated to feel like home, large recliner, work space with two chairs, 2 phones w/multiple features, free internet in the room, full length mirror, hair dryer, pleasant location and close to gas station, grocery and places to dine. , Free washers and dryers, free lending dvd/vhs library, free locked mail box if you desire during your stay. Gym, business center, 24 hr store. Called the front desk and asked if the store had tylenol, that I wasn't feeling well. She hand delivered tylenol to my room for me with a smile. Hotel itself is very clean and friendly and feels safe. I am very impressive, I travel to this area often for a month at a time and I will be a repeat traveler!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r37192611-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>37192611</t>
+  </si>
+  <si>
+    <t>08/09/2009</t>
+  </si>
+  <si>
+    <t>Can't wait to come back!</t>
+  </si>
+  <si>
+    <t>What a pleasant surprise!  The staff at Candlewood was terrific, making us feel like royalty when we arrived and all throughout our stay.  The room was clean and comfortable, giving us a great place for a low fee.  The kitchenette was well supplied with everything we needed for our visit.We have stayed in less comfortable hotel rooms for a lot more money.  Anytime we come back to Orange County, you can bet we'll be staying at the Candlewood Suites in the Irvine Spectrum!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>LAXSDGM, General Manager at Candlewood Suites Orange County, Irvine Spectrum, responded to this reviewResponded August 11, 2009</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2009</t>
+  </si>
+  <si>
+    <t>What a pleasant surprise!  The staff at Candlewood was terrific, making us feel like royalty when we arrived and all throughout our stay.  The room was clean and comfortable, giving us a great place for a low fee.  The kitchenette was well supplied with everything we needed for our visit.We have stayed in less comfortable hotel rooms for a lot more money.  Anytime we come back to Orange County, you can bet we'll be staying at the Candlewood Suites in the Irvine Spectrum!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r6156136-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>6156136</t>
+  </si>
+  <si>
+    <t>11/19/2006</t>
+  </si>
+  <si>
+    <t>This hotel really bugged me</t>
+  </si>
+  <si>
+    <t>Any hotel room over $50 should not have ants. Thankfully my stay was short.  I have stay here frequently and generally the room smell pretty bad and the service is not good either.  This will be my last stay!!  I killed a hundred or so Ants in the kitchen area and even though my room was non-smoking I had to wash all my stuff when I got home.  Dark, dingy and barely adequate for a low end stay.</t>
+  </si>
+  <si>
+    <t>November 2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r3743168-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>3743168</t>
+  </si>
+  <si>
+    <t>08/06/2005</t>
+  </si>
+  <si>
+    <t>loved the candlewood suites</t>
+  </si>
+  <si>
+    <t>I had a studio suite with queen bed.  The room is very clean and comfortable.  The hotel is easy to find after you get off either I5 or I405.  The desk clerk is very friendly. The only down side I can find is the bed is a little too small and too soft.  Otherwise, I had a great stay. Free high speed internet and parking are big bonuses.   Highly recommended.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1796,3170 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>83</v>
+      </c>
+      <c r="X6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>91</v>
+      </c>
+      <c r="X7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>106</v>
+      </c>
+      <c r="X9" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>114</v>
+      </c>
+      <c r="O10" t="s">
+        <v>115</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>123</v>
+      </c>
+      <c r="X11" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>131</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>137</v>
+      </c>
+      <c r="O13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>138</v>
+      </c>
+      <c r="X13" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>142</v>
+      </c>
+      <c r="J14" t="s">
+        <v>143</v>
+      </c>
+      <c r="K14" t="s">
+        <v>144</v>
+      </c>
+      <c r="L14" t="s">
+        <v>145</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>146</v>
+      </c>
+      <c r="O14" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>147</v>
+      </c>
+      <c r="X14" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" t="s">
+        <v>152</v>
+      </c>
+      <c r="K15" t="s">
+        <v>153</v>
+      </c>
+      <c r="L15" t="s">
+        <v>154</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>146</v>
+      </c>
+      <c r="O15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>155</v>
+      </c>
+      <c r="X15" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>159</v>
+      </c>
+      <c r="J16" t="s">
+        <v>160</v>
+      </c>
+      <c r="K16" t="s">
+        <v>161</v>
+      </c>
+      <c r="L16" t="s">
+        <v>162</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>163</v>
+      </c>
+      <c r="O16" t="s">
+        <v>115</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>166</v>
+      </c>
+      <c r="J17" t="s">
+        <v>167</v>
+      </c>
+      <c r="K17" t="s">
+        <v>168</v>
+      </c>
+      <c r="L17" t="s">
+        <v>169</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>170</v>
+      </c>
+      <c r="O17" t="s">
+        <v>171</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>172</v>
+      </c>
+      <c r="X17" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>176</v>
+      </c>
+      <c r="J18" t="s">
+        <v>177</v>
+      </c>
+      <c r="K18" t="s">
+        <v>178</v>
+      </c>
+      <c r="L18" t="s">
+        <v>179</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>180</v>
+      </c>
+      <c r="O18" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>181</v>
+      </c>
+      <c r="X18" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>184</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>185</v>
+      </c>
+      <c r="J19" t="s">
+        <v>186</v>
+      </c>
+      <c r="K19" t="s">
+        <v>187</v>
+      </c>
+      <c r="L19" t="s">
+        <v>188</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>180</v>
+      </c>
+      <c r="O19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>190</v>
+      </c>
+      <c r="J20" t="s">
+        <v>191</v>
+      </c>
+      <c r="K20" t="s">
+        <v>192</v>
+      </c>
+      <c r="L20" t="s">
+        <v>193</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>194</v>
+      </c>
+      <c r="O20" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>195</v>
+      </c>
+      <c r="X20" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>198</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>199</v>
+      </c>
+      <c r="J21" t="s">
+        <v>200</v>
+      </c>
+      <c r="K21" t="s">
+        <v>201</v>
+      </c>
+      <c r="L21" t="s">
+        <v>202</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>194</v>
+      </c>
+      <c r="O21" t="s">
+        <v>59</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>203</v>
+      </c>
+      <c r="X21" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>206</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>207</v>
+      </c>
+      <c r="J22" t="s">
+        <v>208</v>
+      </c>
+      <c r="K22" t="s">
+        <v>209</v>
+      </c>
+      <c r="L22" t="s">
+        <v>210</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>211</v>
+      </c>
+      <c r="O22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>212</v>
+      </c>
+      <c r="X22" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>215</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>216</v>
+      </c>
+      <c r="J23" t="s">
+        <v>217</v>
+      </c>
+      <c r="K23" t="s">
+        <v>218</v>
+      </c>
+      <c r="L23" t="s">
+        <v>219</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>220</v>
+      </c>
+      <c r="O23" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>221</v>
+      </c>
+      <c r="X23" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>224</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>225</v>
+      </c>
+      <c r="J24" t="s">
+        <v>226</v>
+      </c>
+      <c r="K24" t="s">
+        <v>227</v>
+      </c>
+      <c r="L24" t="s">
+        <v>228</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>220</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>229</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>230</v>
+      </c>
+      <c r="J25" t="s">
+        <v>231</v>
+      </c>
+      <c r="K25" t="s">
+        <v>232</v>
+      </c>
+      <c r="L25" t="s">
+        <v>233</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>234</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>235</v>
+      </c>
+      <c r="J26" t="s">
+        <v>236</v>
+      </c>
+      <c r="K26" t="s">
+        <v>237</v>
+      </c>
+      <c r="L26" t="s">
+        <v>238</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>239</v>
+      </c>
+      <c r="O26" t="s">
+        <v>59</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>240</v>
+      </c>
+      <c r="X26" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>243</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>244</v>
+      </c>
+      <c r="J27" t="s">
+        <v>245</v>
+      </c>
+      <c r="K27" t="s">
+        <v>246</v>
+      </c>
+      <c r="L27" t="s">
+        <v>247</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>248</v>
+      </c>
+      <c r="O27" t="s">
+        <v>115</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>249</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>250</v>
+      </c>
+      <c r="J28" t="s">
+        <v>251</v>
+      </c>
+      <c r="K28" t="s">
+        <v>252</v>
+      </c>
+      <c r="L28" t="s">
+        <v>253</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>239</v>
+      </c>
+      <c r="O28" t="s">
+        <v>171</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>255</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>256</v>
+      </c>
+      <c r="J29" t="s">
+        <v>257</v>
+      </c>
+      <c r="K29" t="s">
+        <v>258</v>
+      </c>
+      <c r="L29" t="s">
+        <v>259</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>260</v>
+      </c>
+      <c r="O29" t="s">
+        <v>59</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>261</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>262</v>
+      </c>
+      <c r="J30" t="s">
+        <v>263</v>
+      </c>
+      <c r="K30" t="s">
+        <v>264</v>
+      </c>
+      <c r="L30" t="s">
+        <v>265</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>260</v>
+      </c>
+      <c r="O30" t="s">
+        <v>266</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>269</v>
+      </c>
+      <c r="J31" t="s">
+        <v>270</v>
+      </c>
+      <c r="K31" t="s">
+        <v>271</v>
+      </c>
+      <c r="L31" t="s">
+        <v>272</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>273</v>
+      </c>
+      <c r="O31" t="s">
+        <v>115</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>275</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>276</v>
+      </c>
+      <c r="J32" t="s">
+        <v>277</v>
+      </c>
+      <c r="K32" t="s">
+        <v>278</v>
+      </c>
+      <c r="L32" t="s">
+        <v>279</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>280</v>
+      </c>
+      <c r="O32" t="s">
+        <v>59</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>281</v>
+      </c>
+      <c r="X32" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>284</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>285</v>
+      </c>
+      <c r="J33" t="s">
+        <v>286</v>
+      </c>
+      <c r="K33" t="s">
+        <v>287</v>
+      </c>
+      <c r="L33" t="s">
+        <v>288</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>289</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>290</v>
+      </c>
+      <c r="J34" t="s">
+        <v>291</v>
+      </c>
+      <c r="K34" t="s">
+        <v>292</v>
+      </c>
+      <c r="L34" t="s">
+        <v>293</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>294</v>
+      </c>
+      <c r="O34" t="s">
+        <v>59</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>296</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>297</v>
+      </c>
+      <c r="J35" t="s">
+        <v>298</v>
+      </c>
+      <c r="K35" t="s">
+        <v>299</v>
+      </c>
+      <c r="L35" t="s">
+        <v>300</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>301</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>302</v>
+      </c>
+      <c r="J36" t="s">
+        <v>303</v>
+      </c>
+      <c r="K36" t="s">
+        <v>304</v>
+      </c>
+      <c r="L36" t="s">
+        <v>305</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>306</v>
+      </c>
+      <c r="O36" t="s">
+        <v>59</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>307</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>308</v>
+      </c>
+      <c r="J37" t="s">
+        <v>309</v>
+      </c>
+      <c r="K37" t="s">
+        <v>310</v>
+      </c>
+      <c r="L37" t="s">
+        <v>311</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>312</v>
+      </c>
+      <c r="O37" t="s">
+        <v>115</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>313</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>314</v>
+      </c>
+      <c r="J38" t="s">
+        <v>315</v>
+      </c>
+      <c r="K38" t="s">
+        <v>316</v>
+      </c>
+      <c r="L38" t="s">
+        <v>317</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>318</v>
+      </c>
+      <c r="O38" t="s">
+        <v>59</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>320</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>321</v>
+      </c>
+      <c r="J39" t="s">
+        <v>322</v>
+      </c>
+      <c r="K39" t="s">
+        <v>323</v>
+      </c>
+      <c r="L39" t="s">
+        <v>324</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>325</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>326</v>
+      </c>
+      <c r="J40" t="s">
+        <v>327</v>
+      </c>
+      <c r="K40" t="s">
+        <v>328</v>
+      </c>
+      <c r="L40" t="s">
+        <v>329</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>330</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>332</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>333</v>
+      </c>
+      <c r="J41" t="s">
+        <v>334</v>
+      </c>
+      <c r="K41" t="s">
+        <v>335</v>
+      </c>
+      <c r="L41" t="s">
+        <v>336</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>337</v>
+      </c>
+      <c r="O41" t="s">
+        <v>59</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>339</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>340</v>
+      </c>
+      <c r="J42" t="s">
+        <v>341</v>
+      </c>
+      <c r="K42" t="s">
+        <v>342</v>
+      </c>
+      <c r="L42" t="s">
+        <v>343</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>344</v>
+      </c>
+      <c r="O42" t="s">
+        <v>59</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>345</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>346</v>
+      </c>
+      <c r="J43" t="s">
+        <v>347</v>
+      </c>
+      <c r="K43" t="s">
+        <v>348</v>
+      </c>
+      <c r="L43" t="s">
+        <v>349</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>350</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>351</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>352</v>
+      </c>
+      <c r="J44" t="s">
+        <v>353</v>
+      </c>
+      <c r="K44" t="s">
+        <v>354</v>
+      </c>
+      <c r="L44" t="s">
+        <v>355</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>356</v>
+      </c>
+      <c r="O44" t="s">
+        <v>171</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>357</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>358</v>
+      </c>
+      <c r="J45" t="s">
+        <v>359</v>
+      </c>
+      <c r="K45" t="s">
+        <v>360</v>
+      </c>
+      <c r="L45" t="s">
+        <v>361</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>356</v>
+      </c>
+      <c r="O45" t="s">
+        <v>59</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>362</v>
+      </c>
+      <c r="X45" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>365</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>366</v>
+      </c>
+      <c r="J46" t="s">
+        <v>367</v>
+      </c>
+      <c r="K46" t="s">
+        <v>368</v>
+      </c>
+      <c r="L46" t="s">
+        <v>369</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>370</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>371</v>
+      </c>
+      <c r="J47" t="s">
+        <v>372</v>
+      </c>
+      <c r="K47" t="s">
+        <v>373</v>
+      </c>
+      <c r="L47" t="s">
+        <v>374</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>375</v>
+      </c>
+      <c r="O47" t="s">
+        <v>59</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>377</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>378</v>
+      </c>
+      <c r="J48" t="s">
+        <v>379</v>
+      </c>
+      <c r="K48" t="s">
+        <v>380</v>
+      </c>
+      <c r="L48" t="s">
+        <v>381</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>382</v>
+      </c>
+      <c r="O48" t="s">
+        <v>59</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>383</v>
+      </c>
+      <c r="X48" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>386</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>387</v>
+      </c>
+      <c r="J49" t="s">
+        <v>388</v>
+      </c>
+      <c r="K49" t="s">
+        <v>389</v>
+      </c>
+      <c r="L49" t="s">
+        <v>390</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>391</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>392</v>
+      </c>
+      <c r="X49" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>395</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>396</v>
+      </c>
+      <c r="J50" t="s">
+        <v>397</v>
+      </c>
+      <c r="K50" t="s">
+        <v>398</v>
+      </c>
+      <c r="L50" t="s">
+        <v>399</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>400</v>
+      </c>
+      <c r="O50" t="s">
+        <v>59</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>2</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>401</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>402</v>
+      </c>
+      <c r="J51" t="s">
+        <v>403</v>
+      </c>
+      <c r="K51" t="s">
+        <v>404</v>
+      </c>
+      <c r="L51" t="s">
+        <v>405</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>405</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_101.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_101.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="456">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Gregoire H</t>
+  </si>
+  <si>
     <t>06/29/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Atanu N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r540951323-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>Hotel location and setup is good with spacious room and fully equipped kitchen. This horek doesn't have a breakfast option, they have a small pantry type setup where you can purchase sime items to munch on.The biggest set back for me was the wifi connection in the room. Every 2 min the wifi either goes off or comes up with no data. I did complain and it was promptly attended to and things were better for half a day before it went back to what it was.This hotel doesn't provide daily room service as well.More</t>
   </si>
   <si>
+    <t>1mjw2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r540275868-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t>After another hotel gave my room to a "higher paying customer", I was fortunate to find a room at the Candlewood Suites.  The staff was incredibly friendly and helpful.  My room was perfect... clean, quiet, and very comfortable.  You can't ask for more than that.  They have a great snack area where you can grab food and drinks - all based on the honor system.  They workout facility is small, but adequate and kept clean.  There were dozens of great restaurant options within a mile or so of this location.  I travel to Irvine every month for work, and this is where I will stay from this point forward.</t>
   </si>
   <si>
+    <t>toetobin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r522458105-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -249,6 +261,9 @@
     <t>I went to this place because they offered good long term rates.  After staying there, I ran into a couple of issues with my room.  On the third day when I was there, I tried to use the garbage disposal after cutting up some veggies.  Unfortunately, the disposal didn't work.  When I went to the front desk, they told me to look under the sink for a hex key to manually crank it, then it should  work.   I couldn't find the key.  When I went  back, they said they would get to me later.  After several visits and an hour, the front desk operator came to my room to confirm I didn't have a key (my room was at least 50-60 feet from the front desk, so I understand why it took so long).  After a couple of more visits and about 2 more hours, the front desk manager was able to get me a key and I was able to fix it, so that worked out fairly well.  Then, over the weekend, the shower that hadn't been working all that great was broken by the maid.  The hot water was going full steam and the knob was broken.  The room reminded me not of dry California, but the hot muggy South that I am used to.  I went to the front desk and they said their maintenance person was out, but they would look at it.  After a couple...I went to this place because they offered good long term rates.  After staying there, I ran into a couple of issues with my room.  On the third day when I was there, I tried to use the garbage disposal after cutting up some veggies.  Unfortunately, the disposal didn't work.  When I went to the front desk, they told me to look under the sink for a hex key to manually crank it, then it should  work.   I couldn't find the key.  When I went  back, they said they would get to me later.  After several visits and an hour, the front desk operator came to my room to confirm I didn't have a key (my room was at least 50-60 feet from the front desk, so I understand why it took so long).  After a couple of more visits and about 2 more hours, the front desk manager was able to get me a key and I was able to fix it, so that worked out fairly well.  Then, over the weekend, the shower that hadn't been working all that great was broken by the maid.  The hot water was going full steam and the knob was broken.  The room reminded me not of dry California, but the hot muggy South that I am used to.  I went to the front desk and they said their maintenance person was out, but they would look at it.  After a couple of hours and several visits, they told me each time I was the next priority, but they were trying to get people checked in, as well as help a rental car company find a customer who didn't sign something.  I understand why it is more important to take care of new guest rather than paying guests, only one of them you already have money from, so I waited patiently in my 89 degree room where all the metal objects (refrigerator, microwave glass, etc) were collecting condensation.  Well, that isn't fair, after two hours I went to a local hardware store and bought some tool, then took off the broken handle and turned the shower off.  They said they couldn't fix the shower for a day and couldn't put me in a room that wasn't an sauna because they were filled that night.  When I asked how to take a shower in the morning, they informed my I could use a screwdriver to try to make the shower work.  I'm not a plumber, but since I figured out how to turn the shower off I figured I could turn it back on.  The next morning after about 15 minutes of messing with the valves with a screwdriver, I took a cold  shower.  I was told to go to the hotel between 8 and 4 to talk with the general manager, but unfortunately my job didn't allow me a break during that time frame.   Luckily, they gave me the option of having him call me, which didn't happen.  The next day I checked out.  When asked why I was checking out of my 60 day stay 45 days early, I let them know.  They said they would have the general manager contact me, and gave me a 1000 bonus points.  That was nice, because I am Spire Elite and have staid at IHG properties more than 75 nights a year for the last several years.  I'm still waiting on the call.  Then  I got  a survey request, and of course I said I would like to be contacted about my stay after filling out the survey.  I declined to post my review at the time because normally IHG properties are awesome and take care of the guests.  After a month and a half  of  waiting to be contacted, waiting by my phone (which in reality is in my pocket), I finally decided to post a review.  Looooooong story short,  this is a nice  place, smaller than most extended stays in the area and  in the middle of the price range, and if you don't have an issue you will be fine.  If  you do have an issue, good luck.  I should also mention that there were bugs in the room, but in fairness I didn't mention them to the staff due to what it took to get a backed up sink and a stuck on then non-working shower fixed.More</t>
   </si>
   <si>
+    <t>hjeff2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r510518874-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -274,6 +289,9 @@
   </si>
   <si>
     <t>Good hotel for a business trip.  Nothing spectacular.   Staff was helpful and friendly.   Location is convenient to I-405 and medical center.   There's an Albertson's right down the road for stocking up on groceries.   Fitness center was small but well maintained, had a good assortment of equipment and was clean.  Room was quiet and comfortable.   There was a recliner in the room but the room was really too small to accommodate it.  Bed was comfortable. More</t>
+  </si>
+  <si>
+    <t>Applied W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r509654815-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
@@ -314,6 +332,9 @@
 I could list more issues after losing $152.07 in 30 minutes; but, I’m residing at a better hotel for the same...By far, this was the worst 30-minutes that I have experienced at a hotel, ever! I never write a review online; yet, this experience is worth documenting. Unfortunately, the Candlewood Suites (on Sand Canyon Ave) has the name of a top rate hotel (i.e., “Suites”); but, the experience is like a country motel in the south. There were several warning signs and events that caused me to check-out after 30-minutes:1.	During my arrival and departure, there were customers at the front desk discussing/disputing charges to hotel bill charges;2.	During my arrival and departure, the front desk assistance stated that house-keeping occurs only once a week. This was the excuse provided to charge me for “use of the room” since I laid on the bed and smiled smoke on the pillowcase. NOTE: After reading a few reviews, the hotel appears to leverage “use of the room” as way to charge individuals for a full-night stay without addressing the real issues at-hand with the hotel;3.	Upon entering the room, the AC was set to maximum and the room was freezing which is one-sign for trying to hide the smoking smell;4.	After cracking the window, I laid on the bed and the pillow had residue of smoke;5.	There was a strong odor as you enter/exit the elevator.      I could list more issues after losing $152.07 in 30 minutes; but, I’m residing at a better hotel for the same cost.More</t>
   </si>
   <si>
+    <t>Rambleontr650</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r476952385-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -332,6 +353,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>Chris S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r459480882-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -357,6 +381,9 @@
   </si>
   <si>
     <t>The rooms are OK and the exercise facilities are decent. The night staff seemed more friendly than the day staff; but generally, most people were cordial and friendly enough. No one really went out of their way to be helpful, but the went any big issues. It was a good, quiet stay.More</t>
+  </si>
+  <si>
+    <t>HotelGuruGirl</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r447911678-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
@@ -409,6 +436,9 @@
 All in all was not a bad stay. This hotel is in a quiet area and it served my needs....Hotel is an odd location but it's mainly because they cater to specific businesses in the area.Has a nice size parking lot.Check in was quick and the front desk guy was very nice and professional.Room was the typical candlewood decor.I enjoyed having a kitchenette although an oven or toaster oven would be nice.Dishwasher in my room leaked the first time I used it. Called the front desk and the guy came up right away and cleaned up the water but said that they had to wait for a maintenence person to come in the next day. Unfortunately the dishwasher could not be fixed so I was moved to a new upgraded one bedroom and given some gift certificates for the cupboard store for my trouble.TV was decent but could use more channels.Bathroom was clean and worked fine for me.Bed was comfy. Pillows were too soft and went flat.Hotel has all the typical candlewood features like the cupboard, fitness center, laundry and grilling area out back.Hotel is quiet and I didn't hear other guests which is always nice.It seems like the staff at this hotel genuinely cares about guest satisfaction.This hotel also has a monthly raffle for ihg club members where you can win points. Kinda cool I thought.All in all was not a bad stay. This hotel is in a quiet area and it served my needs.I'd come again for the one bedroom suite again!More</t>
   </si>
   <si>
+    <t>ajnuff</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r408296023-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -436,6 +466,9 @@
     <t>If given the opportunity I would avoid this hotel and choose a different place.  I was staying using IHG rewards points for one night prior to an early flight from SNA, and the location was close, and the points per night among the lowest options available.  As a spire elite I received no upgrade, although I did inquire online ahead of my stay and at the reception when I checked in.  The problem is that the IHG website does not allow for any other type of room than a single queen studio when using points to book a reward night.  The room was very warm when we checked in, and the very noisy A/C did a poor job of cooling the room.  It was not a particularly restful nights sleep.  The internet speed was fast enough, no complaints there.  Maintenance is lacking a little bit with a fair amount of wear and tear both in the room and in common areas.  Be aware that there is no breakfast provided and no pool at most Candlewood Suites locations.More</t>
   </si>
   <si>
+    <t>Russell C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r392654445-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -454,6 +487,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>mahendra n</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r379465341-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -481,6 +517,9 @@
     <t>I was here for 3weeks on business. The location is good...near to lot of businesses..inhouse kitchen is good...esp if you are vegan coming from India this is ideal...hotel could use some upgrade though...equipment is old and noisy some times...no breakfast as well..but a decent hotel to stay..Wifi speed improved since last time 2years back...More</t>
   </si>
   <si>
+    <t>Debbie R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r365894531-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -508,6 +547,9 @@
     <t>This hotel is literally hidden in the middle of a multi hospital complex. If you have a long term reason to be in the hospital area then I definitely and strongly recommend this place for you. It wasn't the best fit for me simply because I was not interested in preparing meals and eating in. I was at work more than I was in the room and so having the convenience of a full kitchen didn't add any value for my trip. There is not a convenient grocery store, had to map a route to closest one to pick up food for fridge. Then after first meal I realized I was going to have to clean up after myself and food containers would remain in trash for the duration of my visit unless I took out the trash, well, quickly I realized I didn't enjoy paying the room rate to clean and service my own room. I did not love the shower head and water pressure in my room either. Not returning for a second visit didn't allow me to determine if my room was a fluke or if that was the norm. I know a guy who wants to make his own meals and has spent weeks staying at this hotel.  He's the one he referred me to it. I can see the appeal in the right conditions but wasn't best for me for my purposes.More</t>
   </si>
   <si>
+    <t>Nonya</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r354237096-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -532,6 +574,9 @@
     <t>Clean and spacious room. I find the refrigerator humming sound to be a bit too loud.  I did not turn on the air-conditioner so I can't comment on its noise.  There is a Denny's within 2 miles that made It convenient to get breakfast. Hotel is well located in terms of proximity to the major freeways, restaurants and Spectrum mall, but nothing is within walking distance. I don't expect a large variety of bathroom amenities in this hotel but I was surprised they did not provide a shower cap. A great plus is the free parking and use of washer/dryer (detergent can be purchased at the hotel). I would stay there again.More</t>
   </si>
   <si>
+    <t>Oldayn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r350065837-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -553,6 +598,9 @@
     <t>It was one of cheapest hotels from IHG on my route, so I've choosed it mostly because of good price and location near main highways.Room equipment looks old and air condition was extremly noisy. Most unexpected thing: no shampoo in bathroom, only soap bar.But I understand that this property is more for extended stay scenario when it's not a problem for you to buy shampoo from grocery.What I like is Cupboard. Usually eating is overpriced in hotels and here you can find nice selection of food and drinks for nearby grocery prices, quickly reach it and easily pay for it.I'm not sure will I stay there once again or not, but it's nothing really bad in this location and if you need something nearby and travel on budget it could be a good option to consider.More</t>
   </si>
   <si>
+    <t>TomRIUSA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r327499689-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -583,6 +631,9 @@
     <t>The was $98 with tax and near to Newport Beach, Laguna Beach and about an hour north of San Diego but NOT at those $$$ prices.  We went to Ralphs to get breakfast and late night snacks (microwave and full size refrigerator ) for Ice Cream and Apple Pie.  This was our only hotel with FREE parking!More</t>
   </si>
   <si>
+    <t>Sciencesy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r318596728-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -610,6 +661,9 @@
     <t>I probably should have done more research before booking this hotel. It just wasn't what I was expecting, so I was taken aback when the concept of Candlewood Suites was explained to me at check-in - basically, you get a room and no services. That is, the room is cleaned once a week, if you need clean linens in the meantime, you have to take your dirty ones to the lobby and get replacements; take out your own garbage, etc. I stayed 5 nights and my room was never cleaned. So, not your regular hotel. Again, my fault for not understanding the concept when I booked. The room itself was a good size, clean and comfortable, and had a well-equipped kitchenette with everything you'd need to make and serve a meal (and clean up afterwards). It would be a good choice for a family or an extended-stay visitor who didn't want to eat out all the time. You need a car (or use a cab) to get to anywhere; there is nothing in walking distance except the hospital next door. The driver of the shuttle I took from the airport had trouble finding the place, and it seems you have to go through the hospital parking lot to get to the hotel. I was in a ground floor room and was awoken at 5 am the first two days by the person upstairs apparently running a herd of elephants through...I probably should have done more research before booking this hotel. It just wasn't what I was expecting, so I was taken aback when the concept of Candlewood Suites was explained to me at check-in - basically, you get a room and no services. That is, the room is cleaned once a week, if you need clean linens in the meantime, you have to take your dirty ones to the lobby and get replacements; take out your own garbage, etc. I stayed 5 nights and my room was never cleaned. So, not your regular hotel. Again, my fault for not understanding the concept when I booked. The room itself was a good size, clean and comfortable, and had a well-equipped kitchenette with everything you'd need to make and serve a meal (and clean up afterwards). It would be a good choice for a family or an extended-stay visitor who didn't want to eat out all the time. You need a car (or use a cab) to get to anywhere; there is nothing in walking distance except the hospital next door. The driver of the shuttle I took from the airport had trouble finding the place, and it seems you have to go through the hospital parking lot to get to the hotel. I was in a ground floor room and was awoken at 5 am the first two days by the person upstairs apparently running a herd of elephants through their room (at least that's what it sounded like), so maybe try getting a room on the top floor if you want to avoid that. The front-desk staff were friendly and always had a cheerful greeting. All-in-all, it was OK; just not what I expected and I probably would not stay here again. I'd pay the extra to have more services and better location.More</t>
   </si>
   <si>
+    <t>dan m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r318437712-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -625,6 +679,9 @@
     <t>You feel like you are at home here.  Relaxing, quite, clean.  Just pack your food and drinks,  the rooms are fully equipped with everything you need to have a 7 course meal.Close to airport, $13.00 taxi ride from airport to hotel.</t>
   </si>
   <si>
+    <t>Felipe G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r290428326-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -652,6 +709,9 @@
     <t>I went to Candlewood with my wife for two weeks for a study proposal. Price is good, but I didn't see, clearly, in any place at the site, that the housekeeping would come once a week. Impossible to keep clean if there is a kitchen inside the suite. Staff very good, specially a young Latin one. The American was to cold. He never responded to "good morning", "good evening". Very basic education, but that's it!More</t>
   </si>
   <si>
+    <t>USCproud</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r289349149-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -676,6 +736,9 @@
     <t>This place is so hard to find, just like others have stated. Wasted 20 minutes circling around. Just know it's near Hoag Hospital. Room was dirty (hairs) dated, and musty. Most CS smell amazing as soon as you walk in. Would never stay here again. My wake up call was even late. Since when does 15 sound like 20? I lived in a CS for 3 monthsand it was great.More</t>
   </si>
   <si>
+    <t>Vickey G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r260233405-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -703,6 +766,9 @@
     <t>We spent 3 nights here while on business.  The mattress was not the best and the A/C had some problems but after we notified the front desk, they sent someone in to fix it promptly.  It would have been nice to have a restaurant close by but we enjoyed the convenience of having a room with a kitchenette. There is a workout room onsite with 4-5 cardio machines. Staff was friendly and the room was clean so, overall, a good value.More</t>
   </si>
   <si>
+    <t>Idahotraveler88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r255132843-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -730,6 +796,9 @@
     <t>Very quiet except for the typical midnight car alarm from some guest. Staff friendly, place is clean, adequate. I won't say its super nice, it could use some updating but for the price its great. Nice bike / jog path right out the door. Bed was comfy, can sleep with windows open and get some real air.More</t>
   </si>
   <si>
+    <t>Tommy L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r254669211-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -745,6 +814,9 @@
     <t>The renovation to Candlewood was ok, the one thing I found odd was all three facilities were connected. There wasn't much space to move around in the gym. Also, the room we stayed in had major flaws such as unmatched paint, mildew build up around the bathroom sink and tub, and wall thermostat not functioning properly. Inspector needs to check for every detail.</t>
   </si>
   <si>
+    <t>kimoxxx116</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r250825993-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -760,6 +832,9 @@
     <t>actually studio type is pretty cool..like it..requested a king size and got my request...it was a double bed in two...nice stuff..we'll be back for sure...we were in room 118...love the ambiance of this room and pretty close to hoag hospital..</t>
   </si>
   <si>
+    <t>Dejosa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r243148786-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -787,6 +862,9 @@
     <t>Horrible - could be nice as the rooms are large. Unfortunately the place reeks of cigarette smoke - the smell is imbedded into the furniture and walls. I actually checked out and didn't spend the night because the smell of smoke was so horrible.More</t>
   </si>
   <si>
+    <t>happyvaio</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r238704596-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -803,6 +881,9 @@
   </si>
   <si>
     <t>May 2014</t>
+  </si>
+  <si>
+    <t>LAshunn</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r235362494-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
@@ -829,6 +910,9 @@
 My only real complaint was with the beds. The first night I passed...My husband and I stayed here over the weekend with our dog. Long story short, we wanted to be near his work so we could maximize the little time we had together this weekend. It was not meant to be a romantic weekend. I read a lot of the reviews on multiple sites and was a bit wary about the condition of the hotel, but I was pleasantly surprised. I read somewhere that the hotel was completely remodeled in 2013. So I'd ignore the old reviews regarding the condition. There is a very strong perfumed chemical smell in the stairways but you don't smell it in your room. We had a studio suite and it was plenty roomy for all two and a half of us. The shower had great pressure and it was nice to have a full kitchen (although we weren't there to cook). The location isn't that great if you want to just walk to dinner but we were only a mile and a half from the husband's work, so that was convenient. The hotel actually connects with miles of bike paths so I was able to take the dog on a long walk every day without being next to a busy road. It also means the hotel is really quiet. And I didn't hear any of the other dogs that were staying there.  My only real complaint was with the beds. The first night I passed out and slept through the entire night. My husband did not feel the same. The second night both our necks hurt and we tossed and turned. The beds are on noisy box springs, so you know what that means. Squeak squeak squeak. Oh, and I was also annoyed that the free wi-fi shut off on our check out day. It would have been nice if it was available until noon. I could have called the front desk but I didn't feel like going through the effort. But overall, we were happy we stayed there. You can get to the Spectrum and all of the malls fairly quickly because you're also pretty close to the 405. There's a 7-11 just down the road if you need snacks. And this is the OC. You're most likely going to have to drive.More</t>
   </si>
   <si>
+    <t>Ron A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r229226853-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -847,6 +931,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Debbie L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r228907613-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -866,6 +953,9 @@
   </si>
   <si>
     <t>First off this place is hard to find, its hidden way in the back off of Sand Canyon the hotel is not visible from the street.   Right next to Hoag Hospital.  The rooms are large they feature a small kitchenette, with refrigerator, microwave, coffee maker, and 2 small burners, the room is well equipped with all types of utensils to cook just about anything that you want to.  TV is mounted where you can swing it around to see it from any area in the room.  Free Internet that was really easy to set up. If you are in the mood to exercise the hotel is equipped with a gym, in the gym area you will also find a place where you can purchase snacks and drinks. Noticed they also had free coffee available at all times.  You need your room key to open up the gym area.  Washers and Dryers were also available for use.The location of this place is not near anything you definitely will need a car to get around.Would recommend this place to anyone.More</t>
+  </si>
+  <si>
+    <t>OH2CA</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r222740303-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
@@ -897,6 +987,9 @@
 Having the full size refrigerator in the room did add noise, but it did not disturb my sleep. Bathroom has only one switch which turns on the light and a noisy fan.  Nice big window which can be fully opened to allow fresh air in - a warning to those with small children! I had a view of the parking lot, but with the sheer curtains pulled had...I needed accommodations for weekend events in the general area and chose this based on their affiliation with IHG (able to use or earn points).  It was a little tricky to find - there is a sign at the road, but no directional signs once you make the turn off of Sand Cyn.  Just bear left and follow the signs to 'Emergency'. Yes, it is on the campus of Hoag Medical Center. The desk clerks were very nice and the young man who checked me, when I commented I was looking for a quiet spot, made the effort to locate my room on the opposite end of the hotel from a family group that had lots of children.   The room was very comfortable, and spacious - well appointed for the extended stay guest. In Room Coffee was provided, along with a bag of microwave popcorn and a bottle of water (although these may have been due to my IHG membership). Bathroom amenities were basic - nice fluffy towels, comfortable bedding as well.  Having the full size refrigerator in the room did add noise, but it did not disturb my sleep. Bathroom has only one switch which turns on the light and a noisy fan.  Nice big window which can be fully opened to allow fresh air in - a warning to those with small children! I had a view of the parking lot, but with the sheer curtains pulled had nice light. Blackout curtains worked well. They have gym equipment.  NO restaurant on site, NO free breakfast, but the 'Candlewood Cupboard' offers breakfast and lunch items for fairly reasonable prices.  Ralph's and Gelson's supermarkets along with a variety of restaurants are located just over a mile away. You pretty much have to drive for any shopping/food/entertainment.More</t>
   </si>
   <si>
+    <t>RupjyotiDeka</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r183032054-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -924,6 +1017,9 @@
     <t>Hotel is good, main problem is the location, far away from any market, for that one need to cross the highway, Not recommended unless you have a car. Crossing the higway by walking is impossible no way. Mostly the Medicals around.More</t>
   </si>
   <si>
+    <t>Bobosanders</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r182287447-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -939,6 +1035,9 @@
     <t xml:space="preserve">I was unsure about this hotel but that went away shortly after arriving. It's not your resort hotel (all rooms have full kitchens, no pool, no breakfast, no hot tub), but it's great if your there a long time. They do have a store in the hotel where you can buy food, snacks, and drinks. Highly recommend this hotel. </t>
   </si>
   <si>
+    <t>Brijesh S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r175830190-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -960,6 +1059,9 @@
     <t>Hotel that makes extended stays comfortable. I have been staying here for more than 2 weeks in a Queen bed studioPros:1. Very close to the Irvine Spectrum Center and the offices around this area.2. I have stayed in other Candlewood suites and the level of service from the staff here is better.3. Cost effective pricing and they have good corporate rates for long stays4. Complimentary washer and dryer use5. Hotel seems to have been recently refurbished so it does not appear dated6. Kitchen with stove, microwave, utensils - something that is very important to me on extended stays as I do not like to eat out every day7. Irvine city Shuttle service (Route D) stop is just a couple of minutes away and has regular service during working hours8. Average gym, but good enough when you are on the moveCons1. No restaurant, or breakfast but that is standard across all Candlewood suites2. Finding the hotel the first time might be difficult, so remember to enter the campus of Hoag Irvine hospital and turn right. Even with a GPS you might be lost for a bit.My colleagues who have stayed in other hotels like Extended Stay America and La Quinta in Irvine have recommended this place. I would definitely want to stay here againMore</t>
   </si>
   <si>
+    <t>Jaymat86</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r162544304-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -975,6 +1077,9 @@
     <t>This is my second time here and I love the new lobby/check in area! Updated and refreshing! The staff was great as they were last time. I will definitely stay again in the future when in the area for business.</t>
   </si>
   <si>
+    <t>Katherine S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r154288985-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -993,6 +1098,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>Sreevalsan I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r152754079-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1009,6 +1117,9 @@
   </si>
   <si>
     <t>August 2012</t>
+  </si>
+  <si>
+    <t>St28</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r133313185-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
@@ -1038,6 +1149,9 @@
 I stayed in a one-bedroom unit, so I don’t know how much different the studio suites are, but I am told it’s basically the same, just a wall is added to separate the bedroom and living room. Overall the room was average, nothing to get overly excited. The brochure says the rooms include a kitchen. What you get is a two station electric hot-surface stove, microwave, refrigerator, coffee maker and toaster. They do include two placements...Stayed here twice in the past year.Location is by far the best thing about this hotel. It’s located right off the I-405 and just minutes away from the I-5. This makes getting anywhere inside Orange County a snap and a quick shot up to northern Los Angeles if needed. Your also minutes from a couple major shopping centers, which have Macy’s and Targets so getting supplies is very convenient.Finding this hotel is not such a joy. It shares the entrance with a major hospital and you cannot actually see the property from the road. Navigation systems get confused as well and pretty much get you to the hospital entrance and then you’re on your own. The hotel is actually in the back. You take the hospital entrance and follow the winding road to almost the backside of the property. The hotel is on the left-hand side. For being by a major hospital, I never once heard a single ambulance, even far off.I stayed in a one-bedroom unit, so I don’t know how much different the studio suites are, but I am told it’s basically the same, just a wall is added to separate the bedroom and living room. Overall the room was average, nothing to get overly excited. The brochure says the rooms include a kitchen. What you get is a two station electric hot-surface stove, microwave, refrigerator, coffee maker and toaster. They do include two placements of silverware for use and a dishwasher to easily clean. The appliances are what you would expect, usable, but some in need of replacement. The dishwasher loved to leak water and the ice machine inside the refrigerator did not work. The toaster worked fine, but the coffee maker was a nightmare, the light did work to say it was on and it did a great job of overflowing water and beans onto the counter. I was seriously tempted to buy a coffee maker for my limited stay.The rest of the room was about average or standard. Sleeping will defiantly not be a problem as you’re surrounded by foliage and trees, which effectively block out noises from the street. One appliance issue that actually plagued both rooms I have stayed in was the air conditioner. For whatever reason, both units leak water onto the floor under them. If you walk close to them after running for a couple hours, you get wet so be carefully putting anything around them. My biggest concern was any biological issues that could result from water under the rug from countless times running. Unfortunately, no one ever answered the maintenance line when I called.One last note. Do not expect any maid service at this hotel, unless you’re staying over 7-days.More</t>
   </si>
   <si>
+    <t>Aprilrod</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r130405692-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1053,6 +1167,9 @@
     <t>Hotel was in a perfect location! Everything we needed near by.</t>
   </si>
   <si>
+    <t>Ann O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r127489542-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1074,6 +1191,9 @@
     <t>The rooms are set up for long term stay with a small but totally equipped (for 2) and adequate kitchenette (minus an oven). They are clean and very quiet.We stoppped by the front desk on our way out for only a few hours.  We made a couple of comments of items that possibly could use some attention in our room.  Ice maker was not working and the air conditioner seemed a bit noisy.  Upon our return we had a working ice maker and a working but silent air conditioner.  The staff and maintenance crew was on top of it!The Video Library had a nice selection and even had "Second Hand Lion"!  We have a hard time getting that one from Block Buster!More</t>
   </si>
   <si>
+    <t>Traveller_Tripadvise</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r119242801-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1095,6 +1215,9 @@
     <t>Poor management of hotel and staff. There has been a deterioration of integrity; guests are intentionally given faulty information and no remorse is shown even when calmly confronted about this. My husband and I stayed at this hotel on Sand Canyon Avenue four times during the past 12 months, and observed that guests are treated as disposables, as if management fails to comprehend and uphold its role in the hospitality industry!  We have had two incidences with this hotel.  There was an issue with the room that we were incorrectly assigned. When we approached the general manager, he checked the computer and said that he understood the issue and that he would personally fix this by assigning us a different room within a half hour.  After 40 minutes, we went to him for the fulfillment of his commit and he said that there was nothing he can do for us.  We immediately terminated our stay there.Thank goodness, there are optional hotels for guests.  So we have astutely opted to not return to that hotel.  For the sake of other guests, we truly hope for correction of the attitude of indifference towards guests.More</t>
   </si>
   <si>
+    <t>fastrack m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r117631249-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1113,6 +1236,9 @@
     <t>September 2011</t>
   </si>
   <si>
+    <t>Christine S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r117447406-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1131,6 +1257,9 @@
     <t>August 2011</t>
   </si>
   <si>
+    <t>LuluSmith</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r115895865-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1149,6 +1278,9 @@
     <t>April 2011</t>
   </si>
   <si>
+    <t>rwmiller56</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r103882602-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1173,6 +1305,9 @@
     <t>I stayed here twice in April 2011 on business. The first time, I was in a first floor room, and got very little sleep due to the noise from the room above. The resident above was pacing on the heels of his feet back and forth all night long. Miserable.The second time, I requested a top floor room. The first room had a climate control system on the wall which would not turn on. It was completely dead. The room was hot. Opening the window is not an option, due to the noise of people talking in the parking lot, and the traffic noise.They gave me a second room on the top floor, and lo and behold, the climate control did not work in that room either!!!!! The display worked, but the AC unit would never come on. Amazing.This hotel has some serious maintenance issues. I will probably not be staying there again.More</t>
   </si>
   <si>
+    <t>RKim40</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r85087207-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1186,6 +1321,9 @@
   </si>
   <si>
     <t xml:space="preserve">The hotel needs renovation. Inteior is  showing its age. But price is right. The suite is worth the upgrade as there is a door for the bedroom, which cuts down the noise from the fridge </t>
+  </si>
+  <si>
+    <t>whidcrad</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r54048465-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
@@ -1211,6 +1349,9 @@
 The standard room is what we had booked and it was a large room &amp; bathroom. The room includes a full size refrigerator w/ icemaker, two burner electric cooktop, large microwave oven, dishwasher, set of cookware, microwavable glassware, set of dishes, glasses, can opener, potato peeler, cutting knife, steak knives, spatula, cooking spoon and fork, strainer, toaster, measuring cup, dish towels, paper towels, dishwasher soap &amp; regular dish soap and there is even a garbage disposal! My wife had come with me so she just brought some food from home and made breakfast and a couple of dinners while we were there. She had brought a lot of the things like dish soap, paper towels, dish towels as well as a can opener. We were both surprised that they provided so much in the room. All you need to bring is food. They provide free hardline internet connection, the tv is pretty much like most hotels with cable and a dvd/vhs player so bring your own movies or check out the free ones at the front desk, a desk with 2...My wife and I arrived Sunday evening and I would suggest that Candlewood put a sign indicating that they are located in the back of the hospital that you see on Sand Canyon Ave, because you can't see the hotel from Sand Canyon Ave. That was the only thing that we found to be a problem during our stay. The standard room is what we had booked and it was a large room &amp; bathroom. The room includes a full size refrigerator w/ icemaker, two burner electric cooktop, large microwave oven, dishwasher, set of cookware, microwavable glassware, set of dishes, glasses, can opener, potato peeler, cutting knife, steak knives, spatula, cooking spoon and fork, strainer, toaster, measuring cup, dish towels, paper towels, dishwasher soap &amp; regular dish soap and there is even a garbage disposal! My wife had come with me so she just brought some food from home and made breakfast and a couple of dinners while we were there. She had brought a lot of the things like dish soap, paper towels, dish towels as well as a can opener. We were both surprised that they provided so much in the room. All you need to bring is food. They provide free hardline internet connection, the tv is pretty much like most hotels with cable and a dvd/vhs player so bring your own movies or check out the free ones at the front desk, a desk with 2 chairs for use as a desk/dining table and they even have a little convience store that is attached to the gym on the first floor. If you do use the store they have a complimentary coffee station for you to use. I forgot to mention there is a coffee pot in the room also. The queen size bed was comfortable but the I guess the bed is situated for 1 traveler, the bed was not centered on the wall so there would be equal room on each side of the bed so she could get into it from her own side, but there is a recliner on the side with more room and a bedside table. I think next time I'll just get the Deluxe room for about $20.00 more, which is still a bargan!The staff is helpful and very nice. When I had to stay at Quality Suites in Santa Ana because the company paid for it I figured it was okay and they provided a free breakfast, tiny refrigerator, microwave. But after finding and staying at Candlewood Suites, there will never be a question of where I will be staying for business or pleasure when we want a place to stay if we want to have the option of cooking our own food while out of town. I've probably forgotten something but they probably have it, if not in the room at the front desk.  We were in Irvine for 4 days and we enjoyed our stay at Candlewood Suites. It is close to the freeway, shopping centers, movie theaters and basically everything.  Do yourself a favor if you need a place to stay in Irvine, don't pass up the Candlewood Suites.More</t>
   </si>
   <si>
+    <t>HollyRNTennessee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r45705027-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1238,6 +1379,9 @@
     <t>Immaculate room! Bed was not as soft as I hoped it would be, sheets and pillows incredible! Large tv w/dvd &amp; vhs player in room, 52 cable channels including multiple HBO. Radio/alarm clock/CD player. Kitchen comes stocked with not just a silverware and a pot but multiple and very nice cookware pots w/lids, glass bowls w/lids, measuring cup, potato peeler-you name it. Full sized fridge has an icemaker. Full size microwave. Dishwasher, stove top (no oven), garbage disposal, plenty of hanger and a separate closet, laundry basket in room, dishwasher soap, paper towels, soaps and shampoo, hair dryer. Decorated to feel like home, large recliner, work space with two chairs, 2 phones w/multiple features, free internet in the room, full length mirror, hair dryer, pleasant location and close to gas station, grocery and places to dine. , Free washers and dryers, free lending dvd/vhs library, free locked mail box if you desire during your stay. Gym, business center, 24 hr store. Called the front desk and asked if the store had tylenol, that I wasn't feeling well. She hand delivered tylenol to my room for me with a smile. Hotel itself is very clean and friendly and feels safe. I am very impressive, I travel to this area often for a month at a time and I will be a repeat traveler!More</t>
   </si>
   <si>
+    <t>Daddyof6Girls</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r37192611-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1265,6 +1409,9 @@
     <t>What a pleasant surprise!  The staff at Candlewood was terrific, making us feel like royalty when we arrived and all throughout our stay.  The room was clean and comfortable, giving us a great place for a low fee.  The kitchenette was well supplied with everything we needed for our visit.We have stayed in less comfortable hotel rooms for a lot more money.  Anytime we come back to Orange County, you can bet we'll be staying at the Candlewood Suites in the Irvine Spectrum!More</t>
   </si>
   <si>
+    <t>GJSVZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r6156136-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1281,6 +1428,9 @@
   </si>
   <si>
     <t>November 2006</t>
+  </si>
+  <si>
+    <t>SPGplatinum1</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r3743168-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
@@ -1800,43 +1950,47 @@
       <c r="A2" t="n">
         <v>37043</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>130061</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1850,50 +2004,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37043</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>130062</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1905,56 +2063,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37043</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>130063</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1974,50 +2136,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37043</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>130064</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P5" t="n">
         <v>2</v>
@@ -2033,56 +2199,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37043</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>130065</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2094,56 +2264,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="X6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37043</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>130066</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -2161,56 +2335,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="X7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37043</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>130067</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2230,50 +2408,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37043</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>1652</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2285,56 +2467,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="X9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37043</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>130068</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="O10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2348,50 +2534,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37043</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>48537</v>
+      </c>
+      <c r="C11" t="s">
+        <v>126</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2403,56 +2593,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="X11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="Y11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37043</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>14695</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="L12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2472,50 +2666,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37043</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>130069</v>
+      </c>
+      <c r="C13" t="s">
+        <v>143</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2527,56 +2725,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="X13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="Y13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37043</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>12774</v>
+      </c>
+      <c r="C14" t="s">
+        <v>153</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="J14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="K14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="O14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2588,56 +2790,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="X14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="Y14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37043</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>130070</v>
+      </c>
+      <c r="C15" t="s">
+        <v>163</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="J15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="K15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="O15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2649,56 +2855,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="X15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="Y15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37043</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>130071</v>
+      </c>
+      <c r="C16" t="s">
+        <v>172</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="J16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="K16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="O16" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2712,50 +2922,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37043</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>130072</v>
+      </c>
+      <c r="C17" t="s">
+        <v>180</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="J17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="K17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="O17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2773,56 +2987,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="X17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="Y17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37043</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>130073</v>
+      </c>
+      <c r="C18" t="s">
+        <v>191</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="J18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="K18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="O18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -2840,56 +3058,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="X18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="Y18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37043</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>130074</v>
+      </c>
+      <c r="C19" t="s">
+        <v>201</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="J19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="K19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="L19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="O19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -2909,50 +3131,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37043</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>130075</v>
+      </c>
+      <c r="C20" t="s">
+        <v>207</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="J20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="K20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="O20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2968,56 +3194,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="X20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="Y20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37043</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>130076</v>
+      </c>
+      <c r="C21" t="s">
+        <v>217</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="J21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="K21" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="L21" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="O21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3029,56 +3259,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="X21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="Y21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37043</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>130077</v>
+      </c>
+      <c r="C22" t="s">
+        <v>226</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="J22" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="K22" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="L22" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="O22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -3096,56 +3330,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="X22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="Y22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37043</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>130078</v>
+      </c>
+      <c r="C23" t="s">
+        <v>236</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="J23" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="K23" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="L23" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="O23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -3163,56 +3401,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="X23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="Y23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37043</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>35966</v>
+      </c>
+      <c r="C24" t="s">
+        <v>246</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="J24" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="K24" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="L24" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3226,41 +3468,45 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37043</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>130079</v>
+      </c>
+      <c r="C25" t="s">
+        <v>252</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="J25" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="K25" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="L25" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
@@ -3279,50 +3525,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37043</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>130080</v>
+      </c>
+      <c r="C26" t="s">
+        <v>258</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="J26" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="K26" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="L26" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="O26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3338,56 +3588,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="X26" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="Y26" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37043</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>130081</v>
+      </c>
+      <c r="C27" t="s">
+        <v>268</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="J27" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="K27" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="L27" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="O27" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -3405,50 +3659,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>37043</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>130082</v>
+      </c>
+      <c r="C28" t="s">
+        <v>275</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="J28" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="K28" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="L28" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="O28" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -3468,50 +3726,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>37043</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>130083</v>
+      </c>
+      <c r="C29" t="s">
+        <v>282</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="J29" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="K29" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="L29" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="O29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -3529,50 +3791,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37043</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>5674</v>
+      </c>
+      <c r="C30" t="s">
+        <v>289</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="J30" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="K30" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="L30" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="O30" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3590,50 +3856,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>37043</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>130084</v>
+      </c>
+      <c r="C31" t="s">
+        <v>297</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="J31" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="K31" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="L31" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="O31" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -3651,50 +3921,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>37043</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>130085</v>
+      </c>
+      <c r="C32" t="s">
+        <v>305</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="J32" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="K32" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="L32" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="O32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P32" t="n">
         <v>2</v>
@@ -3716,47 +3990,51 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="X32" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="Y32" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>37043</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>130086</v>
+      </c>
+      <c r="C33" t="s">
+        <v>315</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="J33" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="K33" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="L33" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
@@ -3775,50 +4053,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>37043</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>130087</v>
+      </c>
+      <c r="C34" t="s">
+        <v>321</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="J34" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="K34" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="L34" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="O34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -3842,41 +4124,45 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>37043</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>130088</v>
+      </c>
+      <c r="C35" t="s">
+        <v>329</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="J35" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="K35" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="L35" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
@@ -3905,50 +4191,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>37043</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>9114</v>
+      </c>
+      <c r="C36" t="s">
+        <v>335</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="J36" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="K36" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="L36" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="O36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -3972,50 +4262,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>37043</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>130089</v>
+      </c>
+      <c r="C37" t="s">
+        <v>342</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="J37" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="K37" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="L37" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="O37" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -4039,50 +4333,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37043</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>130090</v>
+      </c>
+      <c r="C38" t="s">
+        <v>349</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="J38" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="K38" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="L38" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="O38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
@@ -4106,41 +4404,45 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37043</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>130091</v>
+      </c>
+      <c r="C39" t="s">
+        <v>357</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="J39" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="K39" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="L39" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
@@ -4169,50 +4471,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>37043</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>130092</v>
+      </c>
+      <c r="C40" t="s">
+        <v>363</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="J40" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="K40" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="L40" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
@@ -4236,50 +4542,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>37043</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>130093</v>
+      </c>
+      <c r="C41" t="s">
+        <v>371</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="J41" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="K41" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="L41" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="M41" t="n">
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="O41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P41" t="n">
         <v>2</v>
@@ -4303,50 +4613,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>37043</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>130094</v>
+      </c>
+      <c r="C42" t="s">
+        <v>379</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="J42" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="K42" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="L42" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="O42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4366,50 +4680,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>37043</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>19275</v>
+      </c>
+      <c r="C43" t="s">
+        <v>386</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="J43" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="K43" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="L43" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4423,50 +4741,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>37043</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>130095</v>
+      </c>
+      <c r="C44" t="s">
+        <v>393</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="J44" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="K44" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="L44" t="s">
-        <v>355</v>
+        <v>398</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="O44" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="P44" t="n">
         <v>3</v>
@@ -4486,50 +4808,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>355</v>
+        <v>398</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>37043</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>130096</v>
+      </c>
+      <c r="C45" t="s">
+        <v>400</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="J45" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="K45" t="s">
-        <v>360</v>
+        <v>404</v>
       </c>
       <c r="L45" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="M45" t="n">
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="O45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -4551,47 +4877,51 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>362</v>
+        <v>406</v>
       </c>
       <c r="X45" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="Y45" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>37043</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>130097</v>
+      </c>
+      <c r="C46" t="s">
+        <v>409</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="J46" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="K46" t="s">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="L46" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
@@ -4620,50 +4950,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>37043</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>130098</v>
+      </c>
+      <c r="C47" t="s">
+        <v>415</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>370</v>
+        <v>416</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="J47" t="s">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="K47" t="s">
-        <v>373</v>
+        <v>419</v>
       </c>
       <c r="L47" t="s">
-        <v>374</v>
+        <v>420</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
       <c r="O47" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -4687,50 +5021,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>37043</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>130099</v>
+      </c>
+      <c r="C48" t="s">
+        <v>423</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>377</v>
+        <v>424</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="J48" t="s">
-        <v>379</v>
+        <v>426</v>
       </c>
       <c r="K48" t="s">
-        <v>380</v>
+        <v>427</v>
       </c>
       <c r="L48" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>382</v>
+        <v>429</v>
       </c>
       <c r="O48" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4752,56 +5090,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>383</v>
+        <v>430</v>
       </c>
       <c r="X48" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="Y48" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>37043</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>130100</v>
+      </c>
+      <c r="C49" t="s">
+        <v>433</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>386</v>
+        <v>434</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
       <c r="J49" t="s">
-        <v>388</v>
+        <v>436</v>
       </c>
       <c r="K49" t="s">
-        <v>389</v>
+        <v>437</v>
       </c>
       <c r="L49" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -4823,56 +5165,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="X49" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="Y49" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>37043</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>130101</v>
+      </c>
+      <c r="C50" t="s">
+        <v>443</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="J50" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="K50" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="L50" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="O50" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P50" t="n">
         <v>3</v>
@@ -4896,41 +5242,45 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>37043</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>130102</v>
+      </c>
+      <c r="C51" t="s">
+        <v>450</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>402</v>
+        <v>452</v>
       </c>
       <c r="J51" t="s">
-        <v>403</v>
+        <v>453</v>
       </c>
       <c r="K51" t="s">
-        <v>404</v>
+        <v>454</v>
       </c>
       <c r="L51" t="s">
-        <v>405</v>
+        <v>455</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
@@ -4957,7 +5307,7 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>405</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_101.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_101.xlsx
@@ -1951,7 +1951,7 @@
         <v>37043</v>
       </c>
       <c r="B2" t="n">
-        <v>130061</v>
+        <v>160774</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -2012,7 +2012,7 @@
         <v>37043</v>
       </c>
       <c r="B3" t="n">
-        <v>130062</v>
+        <v>160775</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -2077,7 +2077,7 @@
         <v>37043</v>
       </c>
       <c r="B4" t="n">
-        <v>130063</v>
+        <v>160776</v>
       </c>
       <c r="C4" t="s">
         <v>65</v>
@@ -2144,7 +2144,7 @@
         <v>37043</v>
       </c>
       <c r="B5" t="n">
-        <v>130064</v>
+        <v>160777</v>
       </c>
       <c r="C5" t="s">
         <v>71</v>
@@ -2213,7 +2213,7 @@
         <v>37043</v>
       </c>
       <c r="B6" t="n">
-        <v>130065</v>
+        <v>160778</v>
       </c>
       <c r="C6" t="s">
         <v>81</v>
@@ -2278,7 +2278,7 @@
         <v>37043</v>
       </c>
       <c r="B7" t="n">
-        <v>130066</v>
+        <v>160779</v>
       </c>
       <c r="C7" t="s">
         <v>91</v>
@@ -2349,7 +2349,7 @@
         <v>37043</v>
       </c>
       <c r="B8" t="n">
-        <v>130067</v>
+        <v>160780</v>
       </c>
       <c r="C8" t="s">
         <v>100</v>
@@ -2481,7 +2481,7 @@
         <v>37043</v>
       </c>
       <c r="B10" t="n">
-        <v>130068</v>
+        <v>160781</v>
       </c>
       <c r="C10" t="s">
         <v>117</v>
@@ -2674,7 +2674,7 @@
         <v>37043</v>
       </c>
       <c r="B13" t="n">
-        <v>130069</v>
+        <v>160782</v>
       </c>
       <c r="C13" t="s">
         <v>143</v>
@@ -2804,7 +2804,7 @@
         <v>37043</v>
       </c>
       <c r="B15" t="n">
-        <v>130070</v>
+        <v>160783</v>
       </c>
       <c r="C15" t="s">
         <v>163</v>
@@ -2869,7 +2869,7 @@
         <v>37043</v>
       </c>
       <c r="B16" t="n">
-        <v>130071</v>
+        <v>160784</v>
       </c>
       <c r="C16" t="s">
         <v>172</v>
@@ -2930,7 +2930,7 @@
         <v>37043</v>
       </c>
       <c r="B17" t="n">
-        <v>130072</v>
+        <v>160785</v>
       </c>
       <c r="C17" t="s">
         <v>180</v>
@@ -3001,7 +3001,7 @@
         <v>37043</v>
       </c>
       <c r="B18" t="n">
-        <v>130073</v>
+        <v>160786</v>
       </c>
       <c r="C18" t="s">
         <v>191</v>
@@ -3072,7 +3072,7 @@
         <v>37043</v>
       </c>
       <c r="B19" t="n">
-        <v>130074</v>
+        <v>160787</v>
       </c>
       <c r="C19" t="s">
         <v>201</v>
@@ -3139,7 +3139,7 @@
         <v>37043</v>
       </c>
       <c r="B20" t="n">
-        <v>130075</v>
+        <v>160788</v>
       </c>
       <c r="C20" t="s">
         <v>207</v>
@@ -3208,7 +3208,7 @@
         <v>37043</v>
       </c>
       <c r="B21" t="n">
-        <v>130076</v>
+        <v>160789</v>
       </c>
       <c r="C21" t="s">
         <v>217</v>
@@ -3273,7 +3273,7 @@
         <v>37043</v>
       </c>
       <c r="B22" t="n">
-        <v>130077</v>
+        <v>160790</v>
       </c>
       <c r="C22" t="s">
         <v>226</v>
@@ -3344,7 +3344,7 @@
         <v>37043</v>
       </c>
       <c r="B23" t="n">
-        <v>130078</v>
+        <v>160791</v>
       </c>
       <c r="C23" t="s">
         <v>236</v>
@@ -3476,7 +3476,7 @@
         <v>37043</v>
       </c>
       <c r="B25" t="n">
-        <v>130079</v>
+        <v>160792</v>
       </c>
       <c r="C25" t="s">
         <v>252</v>
@@ -3533,7 +3533,7 @@
         <v>37043</v>
       </c>
       <c r="B26" t="n">
-        <v>130080</v>
+        <v>160793</v>
       </c>
       <c r="C26" t="s">
         <v>258</v>
@@ -3602,7 +3602,7 @@
         <v>37043</v>
       </c>
       <c r="B27" t="n">
-        <v>130081</v>
+        <v>160794</v>
       </c>
       <c r="C27" t="s">
         <v>268</v>
@@ -3667,7 +3667,7 @@
         <v>37043</v>
       </c>
       <c r="B28" t="n">
-        <v>130082</v>
+        <v>160795</v>
       </c>
       <c r="C28" t="s">
         <v>275</v>
@@ -3734,7 +3734,7 @@
         <v>37043</v>
       </c>
       <c r="B29" t="n">
-        <v>130083</v>
+        <v>160796</v>
       </c>
       <c r="C29" t="s">
         <v>282</v>
@@ -3864,7 +3864,7 @@
         <v>37043</v>
       </c>
       <c r="B31" t="n">
-        <v>130084</v>
+        <v>160797</v>
       </c>
       <c r="C31" t="s">
         <v>297</v>
@@ -3929,7 +3929,7 @@
         <v>37043</v>
       </c>
       <c r="B32" t="n">
-        <v>130085</v>
+        <v>160798</v>
       </c>
       <c r="C32" t="s">
         <v>305</v>
@@ -4004,7 +4004,7 @@
         <v>37043</v>
       </c>
       <c r="B33" t="n">
-        <v>130086</v>
+        <v>160799</v>
       </c>
       <c r="C33" t="s">
         <v>315</v>
@@ -4061,7 +4061,7 @@
         <v>37043</v>
       </c>
       <c r="B34" t="n">
-        <v>130087</v>
+        <v>160800</v>
       </c>
       <c r="C34" t="s">
         <v>321</v>
@@ -4132,7 +4132,7 @@
         <v>37043</v>
       </c>
       <c r="B35" t="n">
-        <v>130088</v>
+        <v>160801</v>
       </c>
       <c r="C35" t="s">
         <v>329</v>
@@ -4270,7 +4270,7 @@
         <v>37043</v>
       </c>
       <c r="B37" t="n">
-        <v>130089</v>
+        <v>160802</v>
       </c>
       <c r="C37" t="s">
         <v>342</v>
@@ -4341,7 +4341,7 @@
         <v>37043</v>
       </c>
       <c r="B38" t="n">
-        <v>130090</v>
+        <v>160803</v>
       </c>
       <c r="C38" t="s">
         <v>349</v>
@@ -4412,7 +4412,7 @@
         <v>37043</v>
       </c>
       <c r="B39" t="n">
-        <v>130091</v>
+        <v>160804</v>
       </c>
       <c r="C39" t="s">
         <v>357</v>
@@ -4479,7 +4479,7 @@
         <v>37043</v>
       </c>
       <c r="B40" t="n">
-        <v>130092</v>
+        <v>160805</v>
       </c>
       <c r="C40" t="s">
         <v>363</v>
@@ -4550,7 +4550,7 @@
         <v>37043</v>
       </c>
       <c r="B41" t="n">
-        <v>130093</v>
+        <v>160806</v>
       </c>
       <c r="C41" t="s">
         <v>371</v>
@@ -4621,7 +4621,7 @@
         <v>37043</v>
       </c>
       <c r="B42" t="n">
-        <v>130094</v>
+        <v>160807</v>
       </c>
       <c r="C42" t="s">
         <v>379</v>
@@ -4749,7 +4749,7 @@
         <v>37043</v>
       </c>
       <c r="B44" t="n">
-        <v>130095</v>
+        <v>160808</v>
       </c>
       <c r="C44" t="s">
         <v>393</v>
@@ -4816,7 +4816,7 @@
         <v>37043</v>
       </c>
       <c r="B45" t="n">
-        <v>130096</v>
+        <v>160809</v>
       </c>
       <c r="C45" t="s">
         <v>400</v>
@@ -4891,7 +4891,7 @@
         <v>37043</v>
       </c>
       <c r="B46" t="n">
-        <v>130097</v>
+        <v>160810</v>
       </c>
       <c r="C46" t="s">
         <v>409</v>
@@ -4958,7 +4958,7 @@
         <v>37043</v>
       </c>
       <c r="B47" t="n">
-        <v>130098</v>
+        <v>160811</v>
       </c>
       <c r="C47" t="s">
         <v>415</v>
@@ -5029,7 +5029,7 @@
         <v>37043</v>
       </c>
       <c r="B48" t="n">
-        <v>130099</v>
+        <v>160812</v>
       </c>
       <c r="C48" t="s">
         <v>423</v>
@@ -5104,7 +5104,7 @@
         <v>37043</v>
       </c>
       <c r="B49" t="n">
-        <v>130100</v>
+        <v>160813</v>
       </c>
       <c r="C49" t="s">
         <v>433</v>
@@ -5179,7 +5179,7 @@
         <v>37043</v>
       </c>
       <c r="B50" t="n">
-        <v>130101</v>
+        <v>160814</v>
       </c>
       <c r="C50" t="s">
         <v>443</v>
@@ -5250,7 +5250,7 @@
         <v>37043</v>
       </c>
       <c r="B51" t="n">
-        <v>130102</v>
+        <v>160815</v>
       </c>
       <c r="C51" t="s">
         <v>450</v>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_101.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_101.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="668">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,153 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Gregoire H</t>
-  </si>
-  <si>
-    <t>06/29/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r611745442-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>32530</t>
+  </si>
+  <si>
+    <t>78395</t>
+  </si>
+  <si>
+    <t>611745442</t>
+  </si>
+  <si>
+    <t>08/28/2018</t>
+  </si>
+  <si>
+    <t>Friendly</t>
+  </si>
+  <si>
+    <t>I was able to check in early since the room was ready. The man at the front desk was extremely helpful and helped me to book a Taxi for the next morning.  Everything was clean and whatever I needed was available. Very quiet location. I would definitely come back and stay here again.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r602004791-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>602004791</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>Convenient and affordable</t>
+  </si>
+  <si>
+    <t>Tucked away around the back of the medical centre off Sand Canyon Ave, this is a clean comfortable, quiet place to stay with helpful amenities like the "pantry" style shop for small food items, a gym and small kitchen in the room. Everything is simple and easy, staff are helpful and cheery. A great place for a long stay.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r603637718-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>603637718</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>Unexpected pleasant surprise</t>
+  </si>
+  <si>
+    <t>We stayed only night but we wish we could have stayed longer. We had a full kitchen, pull out sofa, a queen bed in a seperate room and all the ammenities needed. Very clean and friendly staff. Definitly will use this hotel again!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r598438312-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>598438312</t>
+  </si>
+  <si>
+    <t>07/22/2018</t>
+  </si>
+  <si>
+    <t>Fancy, no.  Comfortable, yes.</t>
+  </si>
+  <si>
+    <t>Nothing fancy, but bright, spacious, and comfortable. Staff were understanding and even funny when hubby couldn't find the thermostat that was right in front of his face. Next time we're in Irvine, we'll stay at the Candlewood Suites again.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r595713906-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>595713906</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
+  </si>
+  <si>
+    <t>Convenient &amp; Comfortable</t>
+  </si>
+  <si>
+    <t>We chose this particular hotel becuase it was just 5 minutes away from the Momentous Center. Upon arrival, the staff was super friendly &amp; helpful.  Our room was clean &amp; comfortable. A few malls was down the road so we headed to Wal-Mart to get food to cook during our stay. They have a laundry room that's free to wash clothes &amp; provide the detergent. However, we have to pay for the dryer which wasn't a problem :-)  We'd stay here again. Thank you for making our stay worth while!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r580488535-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>580488535</t>
+  </si>
+  <si>
+    <t>05/15/2018</t>
+  </si>
+  <si>
+    <t>A second home</t>
+  </si>
+  <si>
+    <t>I would like to genuinely thank David Arriola and Chase McCullough for everything! The stay at this hotel couldn’t have felt more welcoming. The presentation of the hotel inside and out was beautiful and gave a home feeling. I recommend trying their waffles! They are delicious</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r558681989-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>558681989</t>
+  </si>
+  <si>
+    <t>02/05/2018</t>
+  </si>
+  <si>
+    <t>Always a great stay!</t>
+  </si>
+  <si>
+    <t>It's always a great stay when you are staying at Candlewood Suites and this one was no exception to that rule! The rooms were spacious, the front desk staff was AMAZING and the value was great! The kitchen was in full working order which is great when you are traveling with softball players; huge fridge to hold all their fruit and other necessities!</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r555625287-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
-    <t>32530</t>
-  </si>
-  <si>
-    <t>78395</t>
-  </si>
-  <si>
     <t>555625287</t>
   </si>
   <si>
@@ -180,12 +312,6 @@
     <t>November 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Atanu N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r540951323-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -201,9 +327,6 @@
     <t>Hotel location and setup is good with spacious room and fully equipped kitchen. This horek doesn't have a breakfast option, they have a small pantry type setup where you can purchase sime items to munch on.The biggest set back for me was the wifi connection in the room. Every 2 min the wifi either goes off or comes up with no data. I did complain and it was promptly attended to and things were better for half a day before it went back to what it was.This hotel doesn't provide daily room service as well.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>IHGService, Guest Relations Manager at Candlewood Suites Orange County, Irvine Spectrum, responded to this reviewResponded November 28, 2017</t>
   </si>
   <si>
@@ -213,9 +336,6 @@
     <t>Hotel location and setup is good with spacious room and fully equipped kitchen. This horek doesn't have a breakfast option, they have a small pantry type setup where you can purchase sime items to munch on.The biggest set back for me was the wifi connection in the room. Every 2 min the wifi either goes off or comes up with no data. I did complain and it was promptly attended to and things were better for half a day before it went back to what it was.This hotel doesn't provide daily room service as well.More</t>
   </si>
   <si>
-    <t>1mjw2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r540275868-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -231,7 +351,49 @@
     <t>After another hotel gave my room to a "higher paying customer", I was fortunate to find a room at the Candlewood Suites.  The staff was incredibly friendly and helpful.  My room was perfect... clean, quiet, and very comfortable.  You can't ask for more than that.  They have a great snack area where you can grab food and drinks - all based on the honor system.  They workout facility is small, but adequate and kept clean.  There were dozens of great restaurant options within a mile or so of this location.  I travel to Irvine every month for work, and this is where I will stay from this point forward.</t>
   </si>
   <si>
-    <t>toetobin</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r538482269-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>538482269</t>
+  </si>
+  <si>
+    <t>11/05/2017</t>
+  </si>
+  <si>
+    <t>Spacious room</t>
+  </si>
+  <si>
+    <t>Suite had a bedroom with a TV and a another room with a TV kitchen, bar, couch and TV.  Plenty roomy.  Internet is really slow which drove me crazy.  Bathroom was big.  This is an extended stay so maid service once a week.  It was a little hard to find Late at night.  There is a sign by the road and then you turn into the hospital buildings.  This hotel is clear to the back and follow the emergency arrow.  MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Orange County, Irvine Spectrum, responded to this reviewResponded November 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2017</t>
+  </si>
+  <si>
+    <t>Suite had a bedroom with a TV and a another room with a TV kitchen, bar, couch and TV.  Plenty roomy.  Internet is really slow which drove me crazy.  Bathroom was big.  This is an extended stay so maid service once a week.  It was a little hard to find Late at night.  There is a sign by the road and then you turn into the hospital buildings.  This hotel is clear to the back and follow the emergency arrow.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r524560230-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>524560230</t>
+  </si>
+  <si>
+    <t>09/15/2017</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>I stayed for 3 months in Cadlewood suites since i was working at one of Mortgage company at Irvine. My company was paying the accommodation expenses. The room service is good and it is located near to main road. I didn't get hot water when i want to go for bath for which when i call help desk they said they will fix the issue. Unfortunately they didn't fixed the issue . But next day morning it was fixed and they said they won't charge money for that day since they were not able to provide me hot water for my bath. Room cleaning will be done once in a week. The mates cleans the vessels and room. Internet speed is good.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>I stayed for 3 months in Cadlewood suites since i was working at one of Mortgage company at Irvine. My company was paying the accommodation expenses. The room service is good and it is located near to main road. I didn't get hot water when i want to go for bath for which when i call help desk they said they will fix the issue. Unfortunately they didn't fixed the issue . But next day morning it was fixed and they said they won't charge money for that day since they were not able to provide me hot water for my bath. Room cleaning will be done once in a week. The mates cleans the vessels and room. Internet speed is good.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r522458105-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
@@ -261,9 +423,6 @@
     <t>I went to this place because they offered good long term rates.  After staying there, I ran into a couple of issues with my room.  On the third day when I was there, I tried to use the garbage disposal after cutting up some veggies.  Unfortunately, the disposal didn't work.  When I went to the front desk, they told me to look under the sink for a hex key to manually crank it, then it should  work.   I couldn't find the key.  When I went  back, they said they would get to me later.  After several visits and an hour, the front desk operator came to my room to confirm I didn't have a key (my room was at least 50-60 feet from the front desk, so I understand why it took so long).  After a couple of more visits and about 2 more hours, the front desk manager was able to get me a key and I was able to fix it, so that worked out fairly well.  Then, over the weekend, the shower that hadn't been working all that great was broken by the maid.  The hot water was going full steam and the knob was broken.  The room reminded me not of dry California, but the hot muggy South that I am used to.  I went to the front desk and they said their maintenance person was out, but they would look at it.  After a couple...I went to this place because they offered good long term rates.  After staying there, I ran into a couple of issues with my room.  On the third day when I was there, I tried to use the garbage disposal after cutting up some veggies.  Unfortunately, the disposal didn't work.  When I went to the front desk, they told me to look under the sink for a hex key to manually crank it, then it should  work.   I couldn't find the key.  When I went  back, they said they would get to me later.  After several visits and an hour, the front desk operator came to my room to confirm I didn't have a key (my room was at least 50-60 feet from the front desk, so I understand why it took so long).  After a couple of more visits and about 2 more hours, the front desk manager was able to get me a key and I was able to fix it, so that worked out fairly well.  Then, over the weekend, the shower that hadn't been working all that great was broken by the maid.  The hot water was going full steam and the knob was broken.  The room reminded me not of dry California, but the hot muggy South that I am used to.  I went to the front desk and they said their maintenance person was out, but they would look at it.  After a couple of hours and several visits, they told me each time I was the next priority, but they were trying to get people checked in, as well as help a rental car company find a customer who didn't sign something.  I understand why it is more important to take care of new guest rather than paying guests, only one of them you already have money from, so I waited patiently in my 89 degree room where all the metal objects (refrigerator, microwave glass, etc) were collecting condensation.  Well, that isn't fair, after two hours I went to a local hardware store and bought some tool, then took off the broken handle and turned the shower off.  They said they couldn't fix the shower for a day and couldn't put me in a room that wasn't an sauna because they were filled that night.  When I asked how to take a shower in the morning, they informed my I could use a screwdriver to try to make the shower work.  I'm not a plumber, but since I figured out how to turn the shower off I figured I could turn it back on.  The next morning after about 15 minutes of messing with the valves with a screwdriver, I took a cold  shower.  I was told to go to the hotel between 8 and 4 to talk with the general manager, but unfortunately my job didn't allow me a break during that time frame.   Luckily, they gave me the option of having him call me, which didn't happen.  The next day I checked out.  When asked why I was checking out of my 60 day stay 45 days early, I let them know.  They said they would have the general manager contact me, and gave me a 1000 bonus points.  That was nice, because I am Spire Elite and have staid at IHG properties more than 75 nights a year for the last several years.  I'm still waiting on the call.  Then  I got  a survey request, and of course I said I would like to be contacted about my stay after filling out the survey.  I declined to post my review at the time because normally IHG properties are awesome and take care of the guests.  After a month and a half  of  waiting to be contacted, waiting by my phone (which in reality is in my pocket), I finally decided to post a review.  Looooooong story short,  this is a nice  place, smaller than most extended stays in the area and  in the middle of the price range, and if you don't have an issue you will be fine.  If  you do have an issue, good luck.  I should also mention that there were bugs in the room, but in fairness I didn't mention them to the staff due to what it took to get a backed up sink and a stuck on then non-working shower fixed.More</t>
   </si>
   <si>
-    <t>hjeff2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r510518874-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -279,9 +438,6 @@
     <t>Good hotel for a business trip.  Nothing spectacular.   Staff was helpful and friendly.   Location is convenient to I-405 and medical center.   There's an Albertson's right down the road for stocking up on groceries.   Fitness center was small but well maintained, had a good assortment of equipment and was clean.  Room was quiet and comfortable.   There was a recliner in the room but the room was really too small to accommodate it.  Bed was comfortable. MoreShow less</t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
     <t>IHGService, Guest Relations Manager at Candlewood Suites Orange County, Irvine Spectrum, responded to this reviewResponded August 24, 2017</t>
   </si>
   <si>
@@ -289,9 +445,6 @@
   </si>
   <si>
     <t>Good hotel for a business trip.  Nothing spectacular.   Staff was helpful and friendly.   Location is convenient to I-405 and medical center.   There's an Albertson's right down the road for stocking up on groceries.   Fitness center was small but well maintained, had a good assortment of equipment and was clean.  Room was quiet and comfortable.   There was a recliner in the room but the room was really too small to accommodate it.  Bed was comfortable. More</t>
-  </si>
-  <si>
-    <t>Applied W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r509654815-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
@@ -332,7 +485,34 @@
 I could list more issues after losing $152.07 in 30 minutes; but, I’m residing at a better hotel for the same...By far, this was the worst 30-minutes that I have experienced at a hotel, ever! I never write a review online; yet, this experience is worth documenting. Unfortunately, the Candlewood Suites (on Sand Canyon Ave) has the name of a top rate hotel (i.e., “Suites”); but, the experience is like a country motel in the south. There were several warning signs and events that caused me to check-out after 30-minutes:1.	During my arrival and departure, there were customers at the front desk discussing/disputing charges to hotel bill charges;2.	During my arrival and departure, the front desk assistance stated that house-keeping occurs only once a week. This was the excuse provided to charge me for “use of the room” since I laid on the bed and smiled smoke on the pillowcase. NOTE: After reading a few reviews, the hotel appears to leverage “use of the room” as way to charge individuals for a full-night stay without addressing the real issues at-hand with the hotel;3.	Upon entering the room, the AC was set to maximum and the room was freezing which is one-sign for trying to hide the smoking smell;4.	After cracking the window, I laid on the bed and the pillow had residue of smoke;5.	There was a strong odor as you enter/exit the elevator.      I could list more issues after losing $152.07 in 30 minutes; but, I’m residing at a better hotel for the same cost.More</t>
   </si>
   <si>
-    <t>Rambleontr650</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r506157856-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>506157856</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>It has everything I needed</t>
+  </si>
+  <si>
+    <t>The suite has mini kitchen with fridge and microwave. The cabinet feature in the well-appointed gym can get you simple breakfast to microwave for quick start morning. Loved it! Especially useful when taking cab to work location as there are no nearby restaurants.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r504906287-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>504906287</t>
+  </si>
+  <si>
+    <t>07/23/2017</t>
+  </si>
+  <si>
+    <t>Great Staff =Great Stay</t>
+  </si>
+  <si>
+    <t>I can only say positive things about Javier at the front desk. He is always cool under pressure when multiple guests are present. He knows his job and what is expected of him. He completed all my requests timely and efficiently - including email correspondences. I appreciate everything he does for hotel guests and how he represents Candlewood Suites!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r476952385-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
@@ -353,9 +533,6 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t>Chris S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r459480882-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -381,9 +558,6 @@
   </si>
   <si>
     <t>The rooms are OK and the exercise facilities are decent. The night staff seemed more friendly than the day staff; but generally, most people were cordial and friendly enough. No one really went out of their way to be helpful, but the went any big issues. It was a good, quiet stay.More</t>
-  </si>
-  <si>
-    <t>HotelGuruGirl</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r447911678-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
@@ -417,9 +591,6 @@
     <t>December 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Hotel is an odd location but it's mainly because they cater to specific businesses in the area.
 Has a nice size parking lot.
 Check in was quick and the front desk guy was very nice and professional.
@@ -436,7 +607,49 @@
 All in all was not a bad stay. This hotel is in a quiet area and it served my needs....Hotel is an odd location but it's mainly because they cater to specific businesses in the area.Has a nice size parking lot.Check in was quick and the front desk guy was very nice and professional.Room was the typical candlewood decor.I enjoyed having a kitchenette although an oven or toaster oven would be nice.Dishwasher in my room leaked the first time I used it. Called the front desk and the guy came up right away and cleaned up the water but said that they had to wait for a maintenence person to come in the next day. Unfortunately the dishwasher could not be fixed so I was moved to a new upgraded one bedroom and given some gift certificates for the cupboard store for my trouble.TV was decent but could use more channels.Bathroom was clean and worked fine for me.Bed was comfy. Pillows were too soft and went flat.Hotel has all the typical candlewood features like the cupboard, fitness center, laundry and grilling area out back.Hotel is quiet and I didn't hear other guests which is always nice.It seems like the staff at this hotel genuinely cares about guest satisfaction.This hotel also has a monthly raffle for ihg club members where you can win points. Kinda cool I thought.All in all was not a bad stay. This hotel is in a quiet area and it served my needs.I'd come again for the one bedroom suite again!More</t>
   </si>
   <si>
-    <t>ajnuff</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r439678159-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>439678159</t>
+  </si>
+  <si>
+    <t>11/23/2016</t>
+  </si>
+  <si>
+    <t>Candlewood suites - Think before you choose</t>
+  </si>
+  <si>
+    <t>Candlewood suites is midst of no parks, landscapes and lakes. It is between - Sand canyon hospital, Cancer care trust and Kaiser permanente health centre. The very first issue with this place is the location.Hotel staff are not very friendly. One guy names Byran/Ryan was extremely friendly and customer centric but everytime i came down to ask for a help, his shift would have got over and he left.Hygiene - Candlewood suites is a very clean place to be. They address the traveller's concerns about cleanliness within minutes. You can expect a quick turnaround for your issues in the room.Access to shops - This places is really far from shopping hunts like The Market Place , Spectrum centre etc and walking would be too tiring so far.Kitchenette - kitchen is well equipped and tissues and napkins are replenished often. same with the toiletries.Laundry - laundry is absolutely free unlike other similar hotels where you have to pay 4 quarters for wash and 4 to dry.You have to get your own detergents.You get books and DVDs for some minimal cost.Concierge services are not so great, they do not have tie ups with any travels though they suggest many options but you don't get a discount or value offer there.Free Wifi is fastCoffee machine available near the Laundry for free.GYM has basic requirements.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Orange County, Irvine Spectrum, responded to this reviewResponded December 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2016</t>
+  </si>
+  <si>
+    <t>Candlewood suites is midst of no parks, landscapes and lakes. It is between - Sand canyon hospital, Cancer care trust and Kaiser permanente health centre. The very first issue with this place is the location.Hotel staff are not very friendly. One guy names Byran/Ryan was extremely friendly and customer centric but everytime i came down to ask for a help, his shift would have got over and he left.Hygiene - Candlewood suites is a very clean place to be. They address the traveller's concerns about cleanliness within minutes. You can expect a quick turnaround for your issues in the room.Access to shops - This places is really far from shopping hunts like The Market Place , Spectrum centre etc and walking would be too tiring so far.Kitchenette - kitchen is well equipped and tissues and napkins are replenished often. same with the toiletries.Laundry - laundry is absolutely free unlike other similar hotels where you have to pay 4 quarters for wash and 4 to dry.You have to get your own detergents.You get books and DVDs for some minimal cost.Concierge services are not so great, they do not have tie ups with any travels though they suggest many options but you don't get a discount or value offer there.Free Wifi is fastCoffee machine available near the Laundry for free.GYM has basic requirements.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r429519640-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>429519640</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>Comfortable and friendly.</t>
+  </si>
+  <si>
+    <t>It's not the Ritz, but if you need a comfortable place to stay and work near John Wayne Airport in Orange County, this is a great option. The staff is friendly and ready to do what's necessary to make your stay comfortable.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r408296023-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
@@ -466,9 +679,6 @@
     <t>If given the opportunity I would avoid this hotel and choose a different place.  I was staying using IHG rewards points for one night prior to an early flight from SNA, and the location was close, and the points per night among the lowest options available.  As a spire elite I received no upgrade, although I did inquire online ahead of my stay and at the reception when I checked in.  The problem is that the IHG website does not allow for any other type of room than a single queen studio when using points to book a reward night.  The room was very warm when we checked in, and the very noisy A/C did a poor job of cooling the room.  It was not a particularly restful nights sleep.  The internet speed was fast enough, no complaints there.  Maintenance is lacking a little bit with a fair amount of wear and tear both in the room and in common areas.  Be aware that there is no breakfast provided and no pool at most Candlewood Suites locations.More</t>
   </si>
   <si>
-    <t>Russell C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r392654445-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -487,9 +697,6 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t>mahendra n</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r379465341-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -517,7 +724,55 @@
     <t>I was here for 3weeks on business. The location is good...near to lot of businesses..inhouse kitchen is good...esp if you are vegan coming from India this is ideal...hotel could use some upgrade though...equipment is old and noisy some times...no breakfast as well..but a decent hotel to stay..Wifi speed improved since last time 2years back...More</t>
   </si>
   <si>
-    <t>Debbie R</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r373646076-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>373646076</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>Disneyland Trip</t>
+  </si>
+  <si>
+    <t>Stayed here with my wife from may 6-10 and could not have asked for a better hotel. We had to leave on the 9th because of unforeseen circumstances back at home, Providence, Rhode Island, and they worked with me on getting the refund for the night I wasn't going to be there. Only about a 17 minute drive to disneyland, which wasn't too bad. But, the best part about this hotel was that it was quiet, out of the way, and I felt extremely safe.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stephanie H, Director of Sales at Candlewood Suites Orange County, Irvine Spectrum, responded to this reviewResponded May 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here with my wife from may 6-10 and could not have asked for a better hotel. We had to leave on the 9th because of unforeseen circumstances back at home, Providence, Rhode Island, and they worked with me on getting the refund for the night I wasn't going to be there. Only about a 17 minute drive to disneyland, which wasn't too bad. But, the best part about this hotel was that it was quiet, out of the way, and I felt extremely safe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r369399439-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>369399439</t>
+  </si>
+  <si>
+    <t>05/01/2016</t>
+  </si>
+  <si>
+    <t>4 night stay between the holidays</t>
+  </si>
+  <si>
+    <t>This hotel was great for our stay between Christmas and New Years while visiting family.  The staff was awesome, the place was clean, it was nice to have a kitchenette although we didn't need it because we ate all our meals w family.  In previous visits we stayed at the Best Western Plus Irvine Spectrum and the rooms here are nicer, cleaner, feel better to be in. Would def stay here again for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Stephanie H, Director of Sales at Candlewood Suites Orange County, Irvine Spectrum, responded to this reviewResponded May 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2016</t>
+  </si>
+  <si>
+    <t>This hotel was great for our stay between Christmas and New Years while visiting family.  The staff was awesome, the place was clean, it was nice to have a kitchenette although we didn't need it because we ate all our meals w family.  In previous visits we stayed at the Best Western Plus Irvine Spectrum and the rooms here are nicer, cleaner, feel better to be in. Would def stay here again for the price.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r365894531-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
@@ -547,9 +802,6 @@
     <t>This hotel is literally hidden in the middle of a multi hospital complex. If you have a long term reason to be in the hospital area then I definitely and strongly recommend this place for you. It wasn't the best fit for me simply because I was not interested in preparing meals and eating in. I was at work more than I was in the room and so having the convenience of a full kitchen didn't add any value for my trip. There is not a convenient grocery store, had to map a route to closest one to pick up food for fridge. Then after first meal I realized I was going to have to clean up after myself and food containers would remain in trash for the duration of my visit unless I took out the trash, well, quickly I realized I didn't enjoy paying the room rate to clean and service my own room. I did not love the shower head and water pressure in my room either. Not returning for a second visit didn't allow me to determine if my room was a fluke or if that was the norm. I know a guy who wants to make his own meals and has spent weeks staying at this hotel.  He's the one he referred me to it. I can see the appeal in the right conditions but wasn't best for me for my purposes.More</t>
   </si>
   <si>
-    <t>Nonya</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r354237096-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -574,9 +826,6 @@
     <t>Clean and spacious room. I find the refrigerator humming sound to be a bit too loud.  I did not turn on the air-conditioner so I can't comment on its noise.  There is a Denny's within 2 miles that made It convenient to get breakfast. Hotel is well located in terms of proximity to the major freeways, restaurants and Spectrum mall, but nothing is within walking distance. I don't expect a large variety of bathroom amenities in this hotel but I was surprised they did not provide a shower cap. A great plus is the free parking and use of washer/dryer (detergent can be purchased at the hotel). I would stay there again.More</t>
   </si>
   <si>
-    <t>Oldayn</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r350065837-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -598,7 +847,55 @@
     <t>It was one of cheapest hotels from IHG on my route, so I've choosed it mostly because of good price and location near main highways.Room equipment looks old and air condition was extremly noisy. Most unexpected thing: no shampoo in bathroom, only soap bar.But I understand that this property is more for extended stay scenario when it's not a problem for you to buy shampoo from grocery.What I like is Cupboard. Usually eating is overpriced in hotels and here you can find nice selection of food and drinks for nearby grocery prices, quickly reach it and easily pay for it.I'm not sure will I stay there once again or not, but it's nothing really bad in this location and if you need something nearby and travel on budget it could be a good option to consider.More</t>
   </si>
   <si>
-    <t>TomRIUSA</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r349016163-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>349016163</t>
+  </si>
+  <si>
+    <t>02/18/2016</t>
+  </si>
+  <si>
+    <t>It's a Candlewood.</t>
+  </si>
+  <si>
+    <t>All Candlewood's seem to be the same... Cheap uncomfortable furniture in the living area and OK beds. The air conditioning seems be be struggling to keep up and it was a nice day and night. Overall this seems to be a good safe area at a OK price.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Orange County, Irvine Spectrum, responded to this reviewResponded March 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2016</t>
+  </si>
+  <si>
+    <t>All Candlewood's seem to be the same... Cheap uncomfortable furniture in the living area and OK beds. The air conditioning seems be be struggling to keep up and it was a nice day and night. Overall this seems to be a good safe area at a OK price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r341787491-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>341787491</t>
+  </si>
+  <si>
+    <t>01/21/2016</t>
+  </si>
+  <si>
+    <t>A nice quite hotel, near to an Emergency room</t>
+  </si>
+  <si>
+    <t>The hotel is located close to an Emergency room, so I *think* a lot of people that stay, are visiting relatives. As such, the hotel is very quite, clean and generally nice. There is a small gym room, with basic equipement, there is a coffee machine and a free laundry. What's not to like? :)MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Stephanie H, Director of Sales at Candlewood Suites Orange County, Irvine Spectrum, responded to this reviewResponded January 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2016</t>
+  </si>
+  <si>
+    <t>The hotel is located close to an Emergency room, so I *think* a lot of people that stay, are visiting relatives. As such, the hotel is very quite, clean and generally nice. There is a small gym room, with basic equipement, there is a coffee machine and a free laundry. What's not to like? :)More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r327499689-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
@@ -619,9 +916,6 @@
     <t>November 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>IHGCare, Guest Relations Manager at Candlewood Suites Orange County, Irvine Spectrum, responded to this reviewResponded December 2, 2015</t>
   </si>
   <si>
@@ -631,9 +925,6 @@
     <t>The was $98 with tax and near to Newport Beach, Laguna Beach and about an hour north of San Diego but NOT at those $$$ prices.  We went to Ralphs to get breakfast and late night snacks (microwave and full size refrigerator ) for Ice Cream and Apple Pie.  This was our only hotel with FREE parking!More</t>
   </si>
   <si>
-    <t>Sciencesy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r318596728-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -661,9 +952,6 @@
     <t>I probably should have done more research before booking this hotel. It just wasn't what I was expecting, so I was taken aback when the concept of Candlewood Suites was explained to me at check-in - basically, you get a room and no services. That is, the room is cleaned once a week, if you need clean linens in the meantime, you have to take your dirty ones to the lobby and get replacements; take out your own garbage, etc. I stayed 5 nights and my room was never cleaned. So, not your regular hotel. Again, my fault for not understanding the concept when I booked. The room itself was a good size, clean and comfortable, and had a well-equipped kitchenette with everything you'd need to make and serve a meal (and clean up afterwards). It would be a good choice for a family or an extended-stay visitor who didn't want to eat out all the time. You need a car (or use a cab) to get to anywhere; there is nothing in walking distance except the hospital next door. The driver of the shuttle I took from the airport had trouble finding the place, and it seems you have to go through the hospital parking lot to get to the hotel. I was in a ground floor room and was awoken at 5 am the first two days by the person upstairs apparently running a herd of elephants through...I probably should have done more research before booking this hotel. It just wasn't what I was expecting, so I was taken aback when the concept of Candlewood Suites was explained to me at check-in - basically, you get a room and no services. That is, the room is cleaned once a week, if you need clean linens in the meantime, you have to take your dirty ones to the lobby and get replacements; take out your own garbage, etc. I stayed 5 nights and my room was never cleaned. So, not your regular hotel. Again, my fault for not understanding the concept when I booked. The room itself was a good size, clean and comfortable, and had a well-equipped kitchenette with everything you'd need to make and serve a meal (and clean up afterwards). It would be a good choice for a family or an extended-stay visitor who didn't want to eat out all the time. You need a car (or use a cab) to get to anywhere; there is nothing in walking distance except the hospital next door. The driver of the shuttle I took from the airport had trouble finding the place, and it seems you have to go through the hospital parking lot to get to the hotel. I was in a ground floor room and was awoken at 5 am the first two days by the person upstairs apparently running a herd of elephants through their room (at least that's what it sounded like), so maybe try getting a room on the top floor if you want to avoid that. The front-desk staff were friendly and always had a cheerful greeting. All-in-all, it was OK; just not what I expected and I probably would not stay here again. I'd pay the extra to have more services and better location.More</t>
   </si>
   <si>
-    <t>dan m</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r318437712-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -679,7 +967,46 @@
     <t>You feel like you are at home here.  Relaxing, quite, clean.  Just pack your food and drinks,  the rooms are fully equipped with everything you need to have a 7 course meal.Close to airport, $13.00 taxi ride from airport to hotel.</t>
   </si>
   <si>
-    <t>Felipe G</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r316399278-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>316399278</t>
+  </si>
+  <si>
+    <t>10/05/2015</t>
+  </si>
+  <si>
+    <t>Basically a hostel with private rooms - very noisy a/c and fridge</t>
+  </si>
+  <si>
+    <t>We moved after one sleepless night because the fridge and a/c were so noisy. No safe, no breakfast, bed OK, bathroom basic. Bin was unemptied from last time, hair from previous occupant in bath. It was more like a private room in a youth hostel and apparently used mostly by families of people in the hospital next door which it is probably OK for but I think they would prefer peace and quiet too.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Orange County, Irvine Spectrum, responded to this reviewResponded October 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2015</t>
+  </si>
+  <si>
+    <t>We moved after one sleepless night because the fridge and a/c were so noisy. No safe, no breakfast, bed OK, bathroom basic. Bin was unemptied from last time, hair from previous occupant in bath. It was more like a private room in a youth hostel and apparently used mostly by families of people in the hospital next door which it is probably OK for but I think they would prefer peace and quiet too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r303863395-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>303863395</t>
+  </si>
+  <si>
+    <t>08/26/2015</t>
+  </si>
+  <si>
+    <t>Great Experience</t>
+  </si>
+  <si>
+    <t>I have been doing a lot of traveling and this hotel was great!  The staff was always happy to answer questions, solves problems (and there were a few, no big deal) and make our stay more comfortable. It was easy to find using Google maps and it is quiet and has a nice walking trail behind the hotel.   I am a satisfied customer.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r290428326-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
@@ -709,9 +1036,6 @@
     <t>I went to Candlewood with my wife for two weeks for a study proposal. Price is good, but I didn't see, clearly, in any place at the site, that the housekeeping would come once a week. Impossible to keep clean if there is a kitchen inside the suite. Staff very good, specially a young Latin one. The American was to cold. He never responded to "good morning", "good evening". Very basic education, but that's it!More</t>
   </si>
   <si>
-    <t>USCproud</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r289349149-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -736,9 +1060,6 @@
     <t>This place is so hard to find, just like others have stated. Wasted 20 minutes circling around. Just know it's near Hoag Hospital. Room was dirty (hairs) dated, and musty. Most CS smell amazing as soon as you walk in. Would never stay here again. My wake up call was even late. Since when does 15 sound like 20? I lived in a CS for 3 monthsand it was great.More</t>
   </si>
   <si>
-    <t>Vickey G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r260233405-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -766,7 +1087,46 @@
     <t>We spent 3 nights here while on business.  The mattress was not the best and the A/C had some problems but after we notified the front desk, they sent someone in to fix it promptly.  It would have been nice to have a restaurant close by but we enjoyed the convenience of having a room with a kitchenette. There is a workout room onsite with 4-5 cardio machines. Staff was friendly and the room was clean so, overall, a good value.More</t>
   </si>
   <si>
-    <t>Idahotraveler88</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r258312250-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>258312250</t>
+  </si>
+  <si>
+    <t>03/07/2015</t>
+  </si>
+  <si>
+    <t>Great value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great location and value if you are visiting Hoag or Kaiser hospitals.  Ample lighted parking.  Staff very friendly and acknowledged IHG Club status.  Room was clean well appointed, with good WiFi and plenty of desk space.  Would stay here again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r255527827-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>255527827</t>
+  </si>
+  <si>
+    <t>02/20/2015</t>
+  </si>
+  <si>
+    <t>wifi sucks/peanuts in "clean pticher"/long black hair in bed, dirty dishes,ihg member requested upgrade never heard back</t>
+  </si>
+  <si>
+    <t>1) peanuts in "clean pticher"2) long black hair in bed - I have short 1 inch grey and brown hair3) dirty dishes - went out and bought some4) ihg member requested upgrade never heard back5) made ihg reservations rep  note I needed help on checkin and wanted a room easy to find and quiet to study in and also wanted to inquire about upgrade...called back to confirm notes existed before I left Got NO help on checkin on any of my issues/requests6) wifi sucks - I needed to stay online 45 minutes + online sessions at night and would get knocked off 2 to 3 times before completing ...was never able to complete sessions longer than 20/25 minutes....other guest were complaining at the front desk.........I am a computer guy and I rate the wifi a 1 on a 1 to 10 scale.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Orange County, Irvine Spectrum, responded to this reviewResponded March 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2015</t>
+  </si>
+  <si>
+    <t>1) peanuts in "clean pticher"2) long black hair in bed - I have short 1 inch grey and brown hair3) dirty dishes - went out and bought some4) ihg member requested upgrade never heard back5) made ihg reservations rep  note I needed help on checkin and wanted a room easy to find and quiet to study in and also wanted to inquire about upgrade...called back to confirm notes existed before I left Got NO help on checkin on any of my issues/requests6) wifi sucks - I needed to stay online 45 minutes + online sessions at night and would get knocked off 2 to 3 times before completing ...was never able to complete sessions longer than 20/25 minutes....other guest were complaining at the front desk.........I am a computer guy and I rate the wifi a 1 on a 1 to 10 scale.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r255132843-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
@@ -784,9 +1144,6 @@
     <t>Very quiet except for the typical midnight car alarm from some guest. Staff friendly, place is clean, adequate. I won't say its super nice, it could use some updating but for the price its great. Nice bike / jog path right out the door. Bed was comfy, can sleep with windows open and get some real air.MoreShow less</t>
   </si>
   <si>
-    <t>February 2015</t>
-  </si>
-  <si>
     <t>IHGCare, Guest Relations Manager at Candlewood Suites Orange County, Irvine Spectrum, responded to this reviewResponded March 7, 2015</t>
   </si>
   <si>
@@ -796,9 +1153,6 @@
     <t>Very quiet except for the typical midnight car alarm from some guest. Staff friendly, place is clean, adequate. I won't say its super nice, it could use some updating but for the price its great. Nice bike / jog path right out the door. Bed was comfy, can sleep with windows open and get some real air.More</t>
   </si>
   <si>
-    <t>Tommy L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r254669211-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -814,9 +1168,6 @@
     <t>The renovation to Candlewood was ok, the one thing I found odd was all three facilities were connected. There wasn't much space to move around in the gym. Also, the room we stayed in had major flaws such as unmatched paint, mildew build up around the bathroom sink and tub, and wall thermostat not functioning properly. Inspector needs to check for every detail.</t>
   </si>
   <si>
-    <t>kimoxxx116</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r250825993-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -832,7 +1183,49 @@
     <t>actually studio type is pretty cool..like it..requested a king size and got my request...it was a double bed in two...nice stuff..we'll be back for sure...we were in room 118...love the ambiance of this room and pretty close to hoag hospital..</t>
   </si>
   <si>
-    <t>Dejosa</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r245787142-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>245787142</t>
+  </si>
+  <si>
+    <t>12/24/2014</t>
+  </si>
+  <si>
+    <t>no internet</t>
+  </si>
+  <si>
+    <t>The hotel claimed the internet is available. But I found it was not worked at all. I checked other guests, they feel the same way. The front desk staff talk me they just updated their conneciton. i cannot even open a webpage. it is really not as they claimed.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Orange County, Irvine Spectrum, responded to this reviewResponded January 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 13, 2015</t>
+  </si>
+  <si>
+    <t>The hotel claimed the internet is available. But I found it was not worked at all. I checked other guests, they feel the same way. The front desk staff talk me they just updated their conneciton. i cannot even open a webpage. it is really not as they claimed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r243205694-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>243205694</t>
+  </si>
+  <si>
+    <t>12/06/2014</t>
+  </si>
+  <si>
+    <t>Good hotel near the hospitals</t>
+  </si>
+  <si>
+    <t>My wife was an emergency patient at Hoag hospital and I stayed three nights in two separate stays at the Candlewood to be as close as possible to her. The hotel was clean if a little bit worn ( the armchair in my first room was very worn). My second room was fine. The workout room facility is very good. The laundry facility is a godsend. I was able to wash my clothes for free and as this was an unexpected visit to the hotel we did not have a lot of extra clothes. The front desk staff could not of been friendlier they were professional and very accommodating. The television had a limited number of channels by my standards. What's up with no Comedy Central?  On the other hand, the Wi-Fi was excellent I was able to stream movies on Netflix on my iPad without a problem.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife was an emergency patient at Hoag hospital and I stayed three nights in two separate stays at the Candlewood to be as close as possible to her. The hotel was clean if a little bit worn ( the armchair in my first room was very worn). My second room was fine. The workout room facility is very good. The laundry facility is a godsend. I was able to wash my clothes for free and as this was an unexpected visit to the hotel we did not have a lot of extra clothes. The front desk staff could not of been friendlier they were professional and very accommodating. The television had a limited number of channels by my standards. What's up with no Comedy Central?  On the other hand, the Wi-Fi was excellent I was able to stream movies on Netflix on my iPad without a problem.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r243148786-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
@@ -862,9 +1255,6 @@
     <t>Horrible - could be nice as the rooms are large. Unfortunately the place reeks of cigarette smoke - the smell is imbedded into the furniture and walls. I actually checked out and didn't spend the night because the smell of smoke was so horrible.More</t>
   </si>
   <si>
-    <t>happyvaio</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r238704596-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -881,9 +1271,6 @@
   </si>
   <si>
     <t>May 2014</t>
-  </si>
-  <si>
-    <t>LAshunn</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r235362494-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
@@ -910,7 +1297,43 @@
 My only real complaint was with the beds. The first night I passed...My husband and I stayed here over the weekend with our dog. Long story short, we wanted to be near his work so we could maximize the little time we had together this weekend. It was not meant to be a romantic weekend. I read a lot of the reviews on multiple sites and was a bit wary about the condition of the hotel, but I was pleasantly surprised. I read somewhere that the hotel was completely remodeled in 2013. So I'd ignore the old reviews regarding the condition. There is a very strong perfumed chemical smell in the stairways but you don't smell it in your room. We had a studio suite and it was plenty roomy for all two and a half of us. The shower had great pressure and it was nice to have a full kitchen (although we weren't there to cook). The location isn't that great if you want to just walk to dinner but we were only a mile and a half from the husband's work, so that was convenient. The hotel actually connects with miles of bike paths so I was able to take the dog on a long walk every day without being next to a busy road. It also means the hotel is really quiet. And I didn't hear any of the other dogs that were staying there.  My only real complaint was with the beds. The first night I passed out and slept through the entire night. My husband did not feel the same. The second night both our necks hurt and we tossed and turned. The beds are on noisy box springs, so you know what that means. Squeak squeak squeak. Oh, and I was also annoyed that the free wi-fi shut off on our check out day. It would have been nice if it was available until noon. I could have called the front desk but I didn't feel like going through the effort. But overall, we were happy we stayed there. You can get to the Spectrum and all of the malls fairly quickly because you're also pretty close to the 405. There's a 7-11 just down the road if you need snacks. And this is the OC. You're most likely going to have to drive.More</t>
   </si>
   <si>
-    <t>Ron A</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r233854410-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>233854410</t>
+  </si>
+  <si>
+    <t>10/11/2014</t>
+  </si>
+  <si>
+    <t>An excellent place</t>
+  </si>
+  <si>
+    <t>Its my first stay at Candlewood and I am super impressed. It has a nice sized kitchen with utensils, a stove, coffee maker and a fridge all of which work great. Plenty of storage space, a nice couch, its never too hot or cold...I can open the windows if I want. Plus it has a nice little bedroom and a super comfortable bed. The bathroom is nice and I appreciate housekeeping done only once a week as I'm generally very clean - instead of someone coming in every single day and throwing out soap used once and otherwise clean towels.Also for a change..the switches are in the right places :).The staff is very friendly, Erin specially.. (hopefully spelt right :)). I'd strongly recommend staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Its my first stay at Candlewood and I am super impressed. It has a nice sized kitchen with utensils, a stove, coffee maker and a fridge all of which work great. Plenty of storage space, a nice couch, its never too hot or cold...I can open the windows if I want. Plus it has a nice little bedroom and a super comfortable bed. The bathroom is nice and I appreciate housekeeping done only once a week as I'm generally very clean - instead of someone coming in every single day and throwing out soap used once and otherwise clean towels.Also for a change..the switches are in the right places :).The staff is very friendly, Erin specially.. (hopefully spelt right :)). I'd strongly recommend staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r231131248-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>231131248</t>
+  </si>
+  <si>
+    <t>09/26/2014</t>
+  </si>
+  <si>
+    <t>Simply fantastic</t>
+  </si>
+  <si>
+    <t>My work consist of a lot of travel and whenever I can I stay at an IHG property. So also on this occasion which was my actual holiday. I have never stayed at a Candlewood Suits property as we do not have them in Australia. From the moment we got checked by Erin (front desk)everyone and everything at this property was simply fantastic. Guest laundry and a honour system mini mart, clean rooms, good matrasses, quiet and 2 min from the main 405 freeway (no noise at the hotel) I recommend this property for anyone on business or leisure. Just look closely for the the hotel sign on the main road (Sand Canyon Ave) as is easy to miss especially at night.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>My work consist of a lot of travel and whenever I can I stay at an IHG property. So also on this occasion which was my actual holiday. I have never stayed at a Candlewood Suits property as we do not have them in Australia. From the moment we got checked by Erin (front desk)everyone and everything at this property was simply fantastic. Guest laundry and a honour system mini mart, clean rooms, good matrasses, quiet and 2 min from the main 405 freeway (no noise at the hotel) I recommend this property for anyone on business or leisure. Just look closely for the the hotel sign on the main road (Sand Canyon Ave) as is easy to miss especially at night.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r229226853-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
@@ -928,12 +1351,6 @@
     <t>Rooms are fine but the halls and stairwells stink like smoke and the chemical they used to try and cover it. Its so bad that it doesn't matter if we give the rest of the hotel 5 stars we can not stay there again. Set AC to 60 and it never got below 78. nothing within walking distance</t>
   </si>
   <si>
-    <t>September 2014</t>
-  </si>
-  <si>
-    <t>Debbie L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r228907613-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -949,13 +1366,7 @@
     <t>First off this place is hard to find, its hidden way in the back off of Sand Canyon the hotel is not visible from the street.   Right next to Hoag Hospital.  The rooms are large they feature a small kitchenette, with refrigerator, microwave, coffee maker, and 2 small burners, the room is well equipped with all types of utensils to cook just about anything that you want to.  TV is mounted where you can swing it around to see it from any area in the room.  Free Internet that was really easy to set up. If you are in the mood to exercise the hotel is equipped with a gym, in the gym area you will also find a place where you can purchase snacks and drinks. Noticed they also had free coffee available at all times.  You need your room key to open up the gym area.  Washers and Dryers were also available for use.The location of this place is not near anything you definitely will need a car to get around.Would recommend this place to anyone.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>First off this place is hard to find, its hidden way in the back off of Sand Canyon the hotel is not visible from the street.   Right next to Hoag Hospital.  The rooms are large they feature a small kitchenette, with refrigerator, microwave, coffee maker, and 2 small burners, the room is well equipped with all types of utensils to cook just about anything that you want to.  TV is mounted where you can swing it around to see it from any area in the room.  Free Internet that was really easy to set up. If you are in the mood to exercise the hotel is equipped with a gym, in the gym area you will also find a place where you can purchase snacks and drinks. Noticed they also had free coffee available at all times.  You need your room key to open up the gym area.  Washers and Dryers were also available for use.The location of this place is not near anything you definitely will need a car to get around.Would recommend this place to anyone.More</t>
-  </si>
-  <si>
-    <t>OH2CA</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r222740303-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
@@ -987,7 +1398,52 @@
 Having the full size refrigerator in the room did add noise, but it did not disturb my sleep. Bathroom has only one switch which turns on the light and a noisy fan.  Nice big window which can be fully opened to allow fresh air in - a warning to those with small children! I had a view of the parking lot, but with the sheer curtains pulled had...I needed accommodations for weekend events in the general area and chose this based on their affiliation with IHG (able to use or earn points).  It was a little tricky to find - there is a sign at the road, but no directional signs once you make the turn off of Sand Cyn.  Just bear left and follow the signs to 'Emergency'. Yes, it is on the campus of Hoag Medical Center. The desk clerks were very nice and the young man who checked me, when I commented I was looking for a quiet spot, made the effort to locate my room on the opposite end of the hotel from a family group that had lots of children.   The room was very comfortable, and spacious - well appointed for the extended stay guest. In Room Coffee was provided, along with a bag of microwave popcorn and a bottle of water (although these may have been due to my IHG membership). Bathroom amenities were basic - nice fluffy towels, comfortable bedding as well.  Having the full size refrigerator in the room did add noise, but it did not disturb my sleep. Bathroom has only one switch which turns on the light and a noisy fan.  Nice big window which can be fully opened to allow fresh air in - a warning to those with small children! I had a view of the parking lot, but with the sheer curtains pulled had nice light. Blackout curtains worked well. They have gym equipment.  NO restaurant on site, NO free breakfast, but the 'Candlewood Cupboard' offers breakfast and lunch items for fairly reasonable prices.  Ralph's and Gelson's supermarkets along with a variety of restaurants are located just over a mile away. You pretty much have to drive for any shopping/food/entertainment.More</t>
   </si>
   <si>
-    <t>RupjyotiDeka</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r222487390-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>222487390</t>
+  </si>
+  <si>
+    <t>08/17/2014</t>
+  </si>
+  <si>
+    <t>Very Good Stay</t>
+  </si>
+  <si>
+    <t>My son and I came to Irvine to enroll in IVC.  He is an attending freshmen and had to go through a whole process to resister so we wanted to be close to the school and get the lay of the land as we searched for a place he could call home.  We had a car so getting around was easy and it was only a five to seven minute drive to IVC. By bike maybe a  15 minute ride.  The hotel has over 100 rooms but only 5 of those are doubles.  We needed a double but the hotel cannot guarantee that as they do not reserve them. (This is a trial period to see if there is a demand for it and if so will add more) getting a room at check in  is based on what is available at the time. We were given a room with a queen so we took it on the basis a double would open up in 3 days.  The room was comfortable.  Everything worked well.  My only complaint was the shower head released a limited stream of water but it was still functional. After there days we were moved in to room 318.  This room was located in the top floor, corner of the hallway,  near the stairway so you had no guest rooms  to your left.  To the right was the elevator as well no guest room as well.  Above...My son and I came to Irvine to enroll in IVC.  He is an attending freshmen and had to go through a whole process to resister so we wanted to be close to the school and get the lay of the land as we searched for a place he could call home.  We had a car so getting around was easy and it was only a five to seven minute drive to IVC. By bike maybe a  15 minute ride.  The hotel has over 100 rooms but only 5 of those are doubles.  We needed a double but the hotel cannot guarantee that as they do not reserve them. (This is a trial period to see if there is a demand for it and if so will add more) getting a room at check in  is based on what is available at the time. We were given a room with a queen so we took it on the basis a double would open up in 3 days.  The room was comfortable.  Everything worked well.  My only complaint was the shower head released a limited stream of water but it was still functional. After there days we were moved in to room 318.  This room was located in the top floor, corner of the hallway,  near the stairway so you had no guest rooms  to your left.  To the right was the elevator as well no guest room as well.  Above room 318 was the roof so again no guest.  The room was quiet and peaceful. No elevator noise and no noise from  either sides. I loved the room choice.The air conditioner was weak and did not cool off the room.  The maintenance guy came up and replaced the whole unit. The room could now be made very cold with a setting of 61 degrees.  Wow!!! . The full sized fridge worked fine. The shower had great pressure  and was a pleasure. Room and beds were clean and comfortable.  You could open the window and bring in fresh air.  In a nut shell I really appreciated  staying in this room for the full 2 weeks.  The staff are all kind and try to attend to your every need which they did with great success. Free parking, free laundry facilities, free Wi-fi and complimentary all day coffee was fantastic. The fitness center, although not big was very functional and I used it every day.  While working out they have a big TV so you could watch the news or sports or history channel to name but a few. The Staff are all great and understand the needs of there guests.  I left the hotel for a few days as I was trailing and when returning i requested room 318.  It was taken but the next day they moved me in to 118.  This room was also good but i did get a bunch of early morning stomping for the tenant above. Other than that again everything was just about perfect.  A few points here.  the Hotel does not have a restaurant but do offer pre-packaged snacks, fruits, yogurts, ice cream, and an assorted bunch of other goodies.  If you do not have a car or bike to get around this hotel is not for you. It is near a few restaurants but not near any shopping malls.  In general I would rate this hotel good value for money. I recommend it for anyone considering short or long term stays. I would recommend this to a friend and  stay here again.  I would try to get room 318.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>My son and I came to Irvine to enroll in IVC.  He is an attending freshmen and had to go through a whole process to resister so we wanted to be close to the school and get the lay of the land as we searched for a place he could call home.  We had a car so getting around was easy and it was only a five to seven minute drive to IVC. By bike maybe a  15 minute ride.  The hotel has over 100 rooms but only 5 of those are doubles.  We needed a double but the hotel cannot guarantee that as they do not reserve them. (This is a trial period to see if there is a demand for it and if so will add more) getting a room at check in  is based on what is available at the time. We were given a room with a queen so we took it on the basis a double would open up in 3 days.  The room was comfortable.  Everything worked well.  My only complaint was the shower head released a limited stream of water but it was still functional. After there days we were moved in to room 318.  This room was located in the top floor, corner of the hallway,  near the stairway so you had no guest rooms  to your left.  To the right was the elevator as well no guest room as well.  Above...My son and I came to Irvine to enroll in IVC.  He is an attending freshmen and had to go through a whole process to resister so we wanted to be close to the school and get the lay of the land as we searched for a place he could call home.  We had a car so getting around was easy and it was only a five to seven minute drive to IVC. By bike maybe a  15 minute ride.  The hotel has over 100 rooms but only 5 of those are doubles.  We needed a double but the hotel cannot guarantee that as they do not reserve them. (This is a trial period to see if there is a demand for it and if so will add more) getting a room at check in  is based on what is available at the time. We were given a room with a queen so we took it on the basis a double would open up in 3 days.  The room was comfortable.  Everything worked well.  My only complaint was the shower head released a limited stream of water but it was still functional. After there days we were moved in to room 318.  This room was located in the top floor, corner of the hallway,  near the stairway so you had no guest rooms  to your left.  To the right was the elevator as well no guest room as well.  Above room 318 was the roof so again no guest.  The room was quiet and peaceful. No elevator noise and no noise from  either sides. I loved the room choice.The air conditioner was weak and did not cool off the room.  The maintenance guy came up and replaced the whole unit. The room could now be made very cold with a setting of 61 degrees.  Wow!!! . The full sized fridge worked fine. The shower had great pressure  and was a pleasure. Room and beds were clean and comfortable.  You could open the window and bring in fresh air.  In a nut shell I really appreciated  staying in this room for the full 2 weeks.  The staff are all kind and try to attend to your every need which they did with great success. Free parking, free laundry facilities, free Wi-fi and complimentary all day coffee was fantastic. The fitness center, although not big was very functional and I used it every day.  While working out they have a big TV so you could watch the news or sports or history channel to name but a few. The Staff are all great and understand the needs of there guests.  I left the hotel for a few days as I was trailing and when returning i requested room 318.  It was taken but the next day they moved me in to 118.  This room was also good but i did get a bunch of early morning stomping for the tenant above. Other than that again everything was just about perfect.  A few points here.  the Hotel does not have a restaurant but do offer pre-packaged snacks, fruits, yogurts, ice cream, and an assorted bunch of other goodies.  If you do not have a car or bike to get around this hotel is not for you. It is near a few restaurants but not near any shopping malls.  In general I would rate this hotel good value for money. I recommend it for anyone considering short or long term stays. I would recommend this to a friend and  stay here again.  I would try to get room 318.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r203894041-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>203894041</t>
+  </si>
+  <si>
+    <t>05/03/2014</t>
+  </si>
+  <si>
+    <t>Nothing Great, Nothing Terrible, Just Average</t>
+  </si>
+  <si>
+    <t>The location is really not too bad - Sandy Canyon seems to be the south-most major road for Irvine.  It is a short drive to the many strip malls in Irvine - if you have a car.  The good thing is that it is away from the freeways and it is quiet.This is a typical renovated Candlewood.  Some of the shortcomings I don't like here:1 - some rooms don't smell too good - like people have been frying things in there.  3rd time was the charm2 - Candlewood still has smoking rooms (even in CA) - so if you really don't like smoke, be careful3 - the room I ended up getting has a pretty worn out cushion for the sofa4 - like many Candlewoods, there is not much space around the queen bed 5 - the refrigerator in the room was a little old and noisy.  I had to shut the power to it when I sleptThe staff is friendly and helpful although my request for a room on the top floor was lost.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Orange County, Irvine Spectrum, responded to this reviewResponded May 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2014</t>
+  </si>
+  <si>
+    <t>The location is really not too bad - Sandy Canyon seems to be the south-most major road for Irvine.  It is a short drive to the many strip malls in Irvine - if you have a car.  The good thing is that it is away from the freeways and it is quiet.This is a typical renovated Candlewood.  Some of the shortcomings I don't like here:1 - some rooms don't smell too good - like people have been frying things in there.  3rd time was the charm2 - Candlewood still has smoking rooms (even in CA) - so if you really don't like smoke, be careful3 - the room I ended up getting has a pretty worn out cushion for the sofa4 - like many Candlewoods, there is not much space around the queen bed 5 - the refrigerator in the room was a little old and noisy.  I had to shut the power to it when I sleptThe staff is friendly and helpful although my request for a room on the top floor was lost.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r183032054-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
@@ -1017,9 +1473,6 @@
     <t>Hotel is good, main problem is the location, far away from any market, for that one need to cross the highway, Not recommended unless you have a car. Crossing the higway by walking is impossible no way. Mostly the Medicals around.More</t>
   </si>
   <si>
-    <t>Bobosanders</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r182287447-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1035,9 +1488,6 @@
     <t xml:space="preserve">I was unsure about this hotel but that went away shortly after arriving. It's not your resort hotel (all rooms have full kitchens, no pool, no breakfast, no hot tub), but it's great if your there a long time. They do have a store in the hotel where you can buy food, snacks, and drinks. Highly recommend this hotel. </t>
   </si>
   <si>
-    <t>Brijesh S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r175830190-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1059,7 +1509,46 @@
     <t>Hotel that makes extended stays comfortable. I have been staying here for more than 2 weeks in a Queen bed studioPros:1. Very close to the Irvine Spectrum Center and the offices around this area.2. I have stayed in other Candlewood suites and the level of service from the staff here is better.3. Cost effective pricing and they have good corporate rates for long stays4. Complimentary washer and dryer use5. Hotel seems to have been recently refurbished so it does not appear dated6. Kitchen with stove, microwave, utensils - something that is very important to me on extended stays as I do not like to eat out every day7. Irvine city Shuttle service (Route D) stop is just a couple of minutes away and has regular service during working hours8. Average gym, but good enough when you are on the moveCons1. No restaurant, or breakfast but that is standard across all Candlewood suites2. Finding the hotel the first time might be difficult, so remember to enter the campus of Hoag Irvine hospital and turn right. Even with a GPS you might be lost for a bit.My colleagues who have stayed in other hotels like Extended Stay America and La Quinta in Irvine have recommended this place. I would definitely want to stay here againMore</t>
   </si>
   <si>
-    <t>Jaymat86</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r170622490-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>170622490</t>
+  </si>
+  <si>
+    <t>08/03/2013</t>
+  </si>
+  <si>
+    <t>A little out of the way but serviceable</t>
+  </si>
+  <si>
+    <t>Shared a suite with two others. The room was clean and neat and the staff friendly. The hotel is not near any restaurants or shopping however although there is an Albertson's supermarket a couple miles away.  The hotel has an arrangement with LABites.com for food delivery from a variety of local restaurants. We tried Yard House and it was OK but as expected, the food was not really hot when it arrived. The pull out couch is not a bed you'd want to be in more than two or three nights.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Orange County, Irvine Spectrum, responded to this reviewResponded August 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 20, 2013</t>
+  </si>
+  <si>
+    <t>Shared a suite with two others. The room was clean and neat and the staff friendly. The hotel is not near any restaurants or shopping however although there is an Albertson's supermarket a couple miles away.  The hotel has an arrangement with LABites.com for food delivery from a variety of local restaurants. We tried Yard House and it was OK but as expected, the food was not really hot when it arrived. The pull out couch is not a bed you'd want to be in more than two or three nights.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r165299287-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>165299287</t>
+  </si>
+  <si>
+    <t>06/26/2013</t>
+  </si>
+  <si>
+    <t>One Great Deal!!</t>
+  </si>
+  <si>
+    <t>I had stayed in a Candlewood Suites in Chicago a few years back and was not impressed but this one rivals some of the best hotels I have stayed in. You have no need to look any further as this place is it. Superb staff and superb rooms. There's no gratis hot breakfast but they do have food available for purchase.  WiFi worked great and room had a huge work area. This Hotel earned their excellent rating from me!!</t>
+  </si>
+  <si>
+    <t>June 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r162544304-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
@@ -1077,9 +1566,6 @@
     <t>This is my second time here and I love the new lobby/check in area! Updated and refreshing! The staff was great as they were last time. I will definitely stay again in the future when in the area for business.</t>
   </si>
   <si>
-    <t>Katherine S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r154288985-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1098,9 +1584,6 @@
     <t>March 2013</t>
   </si>
   <si>
-    <t>Sreevalsan I</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r152754079-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1119,7 +1602,56 @@
     <t>August 2012</t>
   </si>
   <si>
-    <t>St28</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r140344402-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>140344402</t>
+  </si>
+  <si>
+    <t>09/15/2012</t>
+  </si>
+  <si>
+    <t>Bait &amp; Switch at Candlewood - Beware!</t>
+  </si>
+  <si>
+    <t>After enjoying a wonder Rascal Flatts concert at the Verizon Ampitheater in Irvine my wife and I didn't want to drive all the back to Temecula so we decided to stay at Candlewood Suites on Sand Canyon Ave. I had stayed there before a couple of years ago and things were fine. It's a completely different story now. I travel a lot and have seen it all so I normally have a Q&amp;A protocol when I call to reserve a hotel room. Problem was I didn't follow my protocol this time and got burned. Don't let this happen to you. Red Flag #1. I called directly to the front desk to book the room and was immediately transferred to a 1-800 number. Next, I forgot to ask whether the hotel was undergoing any renovations.
+By request, I was reserved a room with a king-sized bed for $84. Red flag #2: We arrived, checked in and immediately upon walking down the hallway to our room we could see that their were hundreds of one inch holes drilled at the bottom of the walls, carpet siding at the base of walls had been removed, large air dryers were on and there was "that smell" of water damage or who knows what. There was obviously some type of renovation going on. It was also clear from my last visit that things had changed at this hotel. It appeared a bit run-down. 
+Red flag...After enjoying a wonder Rascal Flatts concert at the Verizon Ampitheater in Irvine my wife and I didn't want to drive all the back to Temecula so we decided to stay at Candlewood Suites on Sand Canyon Ave. I had stayed there before a couple of years ago and things were fine. It's a completely different story now. I travel a lot and have seen it all so I normally have a Q&amp;A protocol when I call to reserve a hotel room. Problem was I didn't follow my protocol this time and got burned. Don't let this happen to you. Red Flag #1. I called directly to the front desk to book the room and was immediately transferred to a 1-800 number. Next, I forgot to ask whether the hotel was undergoing any renovations.By request, I was reserved a room with a king-sized bed for $84. Red flag #2: We arrived, checked in and immediately upon walking down the hallway to our room we could see that their were hundreds of one inch holes drilled at the bottom of the walls, carpet siding at the base of walls had been removed, large air dryers were on and there was "that smell" of water damage or who knows what. There was obviously some type of renovation going on. It was also clear from my last visit that things had changed at this hotel. It appeared a bit run-down. Red flag #3: Upon entering our room we found a queen instead of the king bed we reserved. By then it was so late in the evening we just went to sleep without complaining. However, the "bait &amp; switch" routine was clear. Further, an ethical front desk clerk should inform you that their hotel is undergoing renovations - or may have had water damage, mold issues or whatever. Summary: I would avoid the Candlewood Suites Hotel if I could. There is a LaQuinta Hotel just up the road with a couple of restaurants next door right at the 405. Better choice.Tip #1 - Always ask before you reserve a room in any hotel if they are doing any renovations.             If they are, you can easily negotiate a discount for your room; or decide not to stay there.Tip #2 - Always confirm with the front desk your accomodations before you hand over your $$.            This is especially the case if you are sent to a 1-800 ph# to make your reservation.Tip #3 - If you are not satisfied with the hotel or room, get your money back and leave; or              negotiate a discounted room rate the following day.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Orange County, Irvine Spectrum, responded to this reviewResponded October 9, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2012</t>
+  </si>
+  <si>
+    <t>After enjoying a wonder Rascal Flatts concert at the Verizon Ampitheater in Irvine my wife and I didn't want to drive all the back to Temecula so we decided to stay at Candlewood Suites on Sand Canyon Ave. I had stayed there before a couple of years ago and things were fine. It's a completely different story now. I travel a lot and have seen it all so I normally have a Q&amp;A protocol when I call to reserve a hotel room. Problem was I didn't follow my protocol this time and got burned. Don't let this happen to you. Red Flag #1. I called directly to the front desk to book the room and was immediately transferred to a 1-800 number. Next, I forgot to ask whether the hotel was undergoing any renovations.
+By request, I was reserved a room with a king-sized bed for $84. Red flag #2: We arrived, checked in and immediately upon walking down the hallway to our room we could see that their were hundreds of one inch holes drilled at the bottom of the walls, carpet siding at the base of walls had been removed, large air dryers were on and there was "that smell" of water damage or who knows what. There was obviously some type of renovation going on. It was also clear from my last visit that things had changed at this hotel. It appeared a bit run-down. 
+Red flag...After enjoying a wonder Rascal Flatts concert at the Verizon Ampitheater in Irvine my wife and I didn't want to drive all the back to Temecula so we decided to stay at Candlewood Suites on Sand Canyon Ave. I had stayed there before a couple of years ago and things were fine. It's a completely different story now. I travel a lot and have seen it all so I normally have a Q&amp;A protocol when I call to reserve a hotel room. Problem was I didn't follow my protocol this time and got burned. Don't let this happen to you. Red Flag #1. I called directly to the front desk to book the room and was immediately transferred to a 1-800 number. Next, I forgot to ask whether the hotel was undergoing any renovations.By request, I was reserved a room with a king-sized bed for $84. Red flag #2: We arrived, checked in and immediately upon walking down the hallway to our room we could see that their were hundreds of one inch holes drilled at the bottom of the walls, carpet siding at the base of walls had been removed, large air dryers were on and there was "that smell" of water damage or who knows what. There was obviously some type of renovation going on. It was also clear from my last visit that things had changed at this hotel. It appeared a bit run-down. Red flag #3: Upon entering our room we found a queen instead of the king bed we reserved. By then it was so late in the evening we just went to sleep without complaining. However, the "bait &amp; switch" routine was clear. Further, an ethical front desk clerk should inform you that their hotel is undergoing renovations - or may have had water damage, mold issues or whatever. Summary: I would avoid the Candlewood Suites Hotel if I could. There is a LaQuinta Hotel just up the road with a couple of restaurants next door right at the 405. Better choice.Tip #1 - Always ask before you reserve a room in any hotel if they are doing any renovations.             If they are, you can easily negotiate a discount for your room; or decide not to stay there.Tip #2 - Always confirm with the front desk your accomodations before you hand over your $$.            This is especially the case if you are sent to a 1-800 ph# to make your reservation.Tip #3 - If you are not satisfied with the hotel or room, get your money back and leave; or              negotiate a discounted room rate the following day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r134770480-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>134770480</t>
+  </si>
+  <si>
+    <t>07/18/2012</t>
+  </si>
+  <si>
+    <t>Subtle Spectacle Near the Spectrum</t>
+  </si>
+  <si>
+    <t>As I travel throughout California this week, I have decided to offer business and leisure travelers my thoughts. Tonight is my first stay at this hotel property, and right away, I am impressed! The layout of the rooms are spacious, clean, and modern.  The staff greeted and smiled at me as if I were a Hollywood VIP!  Located off the I-405 Freeway at Sand Canyon Avenue, the Candlewood Suites is a nice alternative to high-rise hotels in the area.  This subtle spectacle near the iconic Spectrum at Irvine is a home away from home. On yeah, I won two cupboard dollars upon check in! Spin the wheel of fortune as a Priority Club Member!  Good luck!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>As I travel throughout California this week, I have decided to offer business and leisure travelers my thoughts. Tonight is my first stay at this hotel property, and right away, I am impressed! The layout of the rooms are spacious, clean, and modern.  The staff greeted and smiled at me as if I were a Hollywood VIP!  Located off the I-405 Freeway at Sand Canyon Avenue, the Candlewood Suites is a nice alternative to high-rise hotels in the area.  This subtle spectacle near the iconic Spectrum at Irvine is a home away from home. On yeah, I won two cupboard dollars upon check in! Spin the wheel of fortune as a Priority Club Member!  Good luck!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r133313185-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
@@ -1140,18 +1672,12 @@
 I stayed in a one-bedroom unit, so I don’t know how much different the studio suites are, but I am told it’s basically the same, just a wall is added to separate the bedroom and living room. Overall the room was average, nothing to get overly excited. The brochure says the rooms include a kitchen. What you get is a two station electric hot-surface stove, microwave, refrigerator, coffee maker and toaster. They do include two placements...Stayed here twice in the past year.Location is by far the best thing about this hotel. It’s located right off the I-405 and just minutes away from the I-5. This makes getting anywhere inside Orange County a snap and a quick shot up to northern Los Angeles if needed. Your also minutes from a couple major shopping centers, which have Macy’s and Targets so getting supplies is very convenient.Finding this hotel is not such a joy. It shares the entrance with a major hospital and you cannot actually see the property from the road. Navigation systems get confused as well and pretty much get you to the hospital entrance and then you’re on your own. The hotel is actually in the back. You take the hospital entrance and follow the winding road to almost the backside of the property. The hotel is on the left-hand side. For being by a major hospital, I never once heard a single ambulance, even far off.I stayed in a one-bedroom unit, so I don’t know how much different the studio suites are, but I am told it’s basically the same, just a wall is added to separate the bedroom and living room. Overall the room was average, nothing to get overly excited. The brochure says the rooms include a kitchen. What you get is a two station electric hot-surface stove, microwave, refrigerator, coffee maker and toaster. They do include two placements of silverware for use and a dishwasher to easily clean. The appliances are what you would expect, usable, but some in need of replacement. The dishwasher loved to leak water and the ice machine inside the refrigerator did not work. The toaster worked fine, but the coffee maker was a nightmare, the light did work to say it was on and it did a great job of overflowing water and beans onto the counter. I was seriously tempted to buy a coffee maker for my limited stay.The rest of the room was about average or standard. Sleeping will defiantly not be a problem as you’re surrounded by foliage and trees, which effectively block out noises from the street. One appliance issue that actually plagued both rooms I have stayed in was the air conditioner. For whatever reason, both units leak water onto the floor under them. If you walk close to them after running for a couple hours, you get wet so be carefully putting anything around them. My biggest concern was any biological issues that could result from water under the rug from countless times running. Unfortunately, no one ever answered the maintenance line when I called.One last note. Do not expect any maid service at this hotel, unless you’re staying over 7-days.MoreShow less</t>
   </si>
   <si>
-    <t>July 2012</t>
-  </si>
-  <si>
     <t>Stayed here twice in the past year.
 Location is by far the best thing about this hotel. It’s located right off the I-405 and just minutes away from the I-5. This makes getting anywhere inside Orange County a snap and a quick shot up to northern Los Angeles if needed. Your also minutes from a couple major shopping centers, which have Macy’s and Targets so getting supplies is very convenient.
 Finding this hotel is not such a joy. It shares the entrance with a major hospital and you cannot actually see the property from the road. Navigation systems get confused as well and pretty much get you to the hospital entrance and then you’re on your own. The hotel is actually in the back. You take the hospital entrance and follow the winding road to almost the backside of the property. The hotel is on the left-hand side. For being by a major hospital, I never once heard a single ambulance, even far off.
 I stayed in a one-bedroom unit, so I don’t know how much different the studio suites are, but I am told it’s basically the same, just a wall is added to separate the bedroom and living room. Overall the room was average, nothing to get overly excited. The brochure says the rooms include a kitchen. What you get is a two station electric hot-surface stove, microwave, refrigerator, coffee maker and toaster. They do include two placements...Stayed here twice in the past year.Location is by far the best thing about this hotel. It’s located right off the I-405 and just minutes away from the I-5. This makes getting anywhere inside Orange County a snap and a quick shot up to northern Los Angeles if needed. Your also minutes from a couple major shopping centers, which have Macy’s and Targets so getting supplies is very convenient.Finding this hotel is not such a joy. It shares the entrance with a major hospital and you cannot actually see the property from the road. Navigation systems get confused as well and pretty much get you to the hospital entrance and then you’re on your own. The hotel is actually in the back. You take the hospital entrance and follow the winding road to almost the backside of the property. The hotel is on the left-hand side. For being by a major hospital, I never once heard a single ambulance, even far off.I stayed in a one-bedroom unit, so I don’t know how much different the studio suites are, but I am told it’s basically the same, just a wall is added to separate the bedroom and living room. Overall the room was average, nothing to get overly excited. The brochure says the rooms include a kitchen. What you get is a two station electric hot-surface stove, microwave, refrigerator, coffee maker and toaster. They do include two placements of silverware for use and a dishwasher to easily clean. The appliances are what you would expect, usable, but some in need of replacement. The dishwasher loved to leak water and the ice machine inside the refrigerator did not work. The toaster worked fine, but the coffee maker was a nightmare, the light did work to say it was on and it did a great job of overflowing water and beans onto the counter. I was seriously tempted to buy a coffee maker for my limited stay.The rest of the room was about average or standard. Sleeping will defiantly not be a problem as you’re surrounded by foliage and trees, which effectively block out noises from the street. One appliance issue that actually plagued both rooms I have stayed in was the air conditioner. For whatever reason, both units leak water onto the floor under them. If you walk close to them after running for a couple hours, you get wet so be carefully putting anything around them. My biggest concern was any biological issues that could result from water under the rug from countless times running. Unfortunately, no one ever answered the maintenance line when I called.One last note. Do not expect any maid service at this hotel, unless you’re staying over 7-days.More</t>
   </si>
   <si>
-    <t>Aprilrod</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r130405692-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1167,9 +1693,6 @@
     <t>Hotel was in a perfect location! Everything we needed near by.</t>
   </si>
   <si>
-    <t>Ann O</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r127489542-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1191,7 +1714,59 @@
     <t>The rooms are set up for long term stay with a small but totally equipped (for 2) and adequate kitchenette (minus an oven). They are clean and very quiet.We stoppped by the front desk on our way out for only a few hours.  We made a couple of comments of items that possibly could use some attention in our room.  Ice maker was not working and the air conditioner seemed a bit noisy.  Upon our return we had a working ice maker and a working but silent air conditioner.  The staff and maintenance crew was on top of it!The Video Library had a nice selection and even had "Second Hand Lion"!  We have a hard time getting that one from Block Buster!More</t>
   </si>
   <si>
-    <t>Traveller_Tripadvise</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r123579794-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>123579794</t>
+  </si>
+  <si>
+    <t>01/24/2012</t>
+  </si>
+  <si>
+    <t>Awful Experience During Renovations</t>
+  </si>
+  <si>
+    <t>I booked my reservation for a week long business trip and imagine my surprise when I arrived and discovered that they were in the middle of renovating the hotel while I was staying there.
+Yup, they took my money (standard price) and didn't bother to tell me that:
+1. I would need to stay in one room one night and another room the following nights, so I had to checkin and checkout twice.
+2. The laundry mat and gym would be closed for two of the days.
+3. The hotel would have no water after 10am on a couple of the days.
+4. I would enjoy the sights, sounds and smells of construction from early morning to early evening.
+I didn't receive any cut rate or advance warning or anything.
+Now, if you're reading this, you may think, "What do I care? By the time I visit, they will be done." That's a fair point, but consider this: This hotel is so desperate for money and so devalues its relationship with its business customers that it will charge them full price with no warning to stay in a hotel that is undergoing construction in the exact same areas where you are staying. If you think the mindset that thought this was OK is going to lead to you having a good experience while staying at this hotel for an extended period, I wish  you luck.
+We have an internal travel...I booked my reservation for a week long business trip and imagine my surprise when I arrived and discovered that they were in the middle of renovating the hotel while I was staying there.Yup, they took my money (standard price) and didn't bother to tell me that:1. I would need to stay in one room one night and another room the following nights, so I had to checkin and checkout twice.2. The laundry mat and gym would be closed for two of the days.3. The hotel would have no water after 10am on a couple of the days.4. I would enjoy the sights, sounds and smells of construction from early morning to early evening.I didn't receive any cut rate or advance warning or anything.Now, if you're reading this, you may think, "What do I care? By the time I visit, they will be done." That's a fair point, but consider this: This hotel is so desperate for money and so devalues its relationship with its business customers that it will charge them full price with no warning to stay in a hotel that is undergoing construction in the exact same areas where you are staying. If you think the mindset that thought this was OK is going to lead to you having a good experience while staying at this hotel for an extended period, I wish  you luck.We have an internal travel site at our company, and you can be sure that my fellow employees will hear about this and think twice about staying here or any Candlewood Suites again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>I booked my reservation for a week long business trip and imagine my surprise when I arrived and discovered that they were in the middle of renovating the hotel while I was staying there.
+Yup, they took my money (standard price) and didn't bother to tell me that:
+1. I would need to stay in one room one night and another room the following nights, so I had to checkin and checkout twice.
+2. The laundry mat and gym would be closed for two of the days.
+3. The hotel would have no water after 10am on a couple of the days.
+4. I would enjoy the sights, sounds and smells of construction from early morning to early evening.
+I didn't receive any cut rate or advance warning or anything.
+Now, if you're reading this, you may think, "What do I care? By the time I visit, they will be done." That's a fair point, but consider this: This hotel is so desperate for money and so devalues its relationship with its business customers that it will charge them full price with no warning to stay in a hotel that is undergoing construction in the exact same areas where you are staying. If you think the mindset that thought this was OK is going to lead to you having a good experience while staying at this hotel for an extended period, I wish  you luck.
+We have an internal travel...I booked my reservation for a week long business trip and imagine my surprise when I arrived and discovered that they were in the middle of renovating the hotel while I was staying there.Yup, they took my money (standard price) and didn't bother to tell me that:1. I would need to stay in one room one night and another room the following nights, so I had to checkin and checkout twice.2. The laundry mat and gym would be closed for two of the days.3. The hotel would have no water after 10am on a couple of the days.4. I would enjoy the sights, sounds and smells of construction from early morning to early evening.I didn't receive any cut rate or advance warning or anything.Now, if you're reading this, you may think, "What do I care? By the time I visit, they will be done." That's a fair point, but consider this: This hotel is so desperate for money and so devalues its relationship with its business customers that it will charge them full price with no warning to stay in a hotel that is undergoing construction in the exact same areas where you are staying. If you think the mindset that thought this was OK is going to lead to you having a good experience while staying at this hotel for an extended period, I wish  you luck.We have an internal travel site at our company, and you can be sure that my fellow employees will hear about this and think twice about staying here or any Candlewood Suites again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r121797302-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>121797302</t>
+  </si>
+  <si>
+    <t>12/16/2011</t>
+  </si>
+  <si>
+    <t>A night in Irvine</t>
+  </si>
+  <si>
+    <t>My room was upgaded to a suite on arrival. The suite was nicely appointed and clean, the only minus was the cabinetry showed a bit of wear. The staff was friendly and professional, I'd stay here again.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r119242801-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
@@ -1215,9 +1790,6 @@
     <t>Poor management of hotel and staff. There has been a deterioration of integrity; guests are intentionally given faulty information and no remorse is shown even when calmly confronted about this. My husband and I stayed at this hotel on Sand Canyon Avenue four times during the past 12 months, and observed that guests are treated as disposables, as if management fails to comprehend and uphold its role in the hospitality industry!  We have had two incidences with this hotel.  There was an issue with the room that we were incorrectly assigned. When we approached the general manager, he checked the computer and said that he understood the issue and that he would personally fix this by assigning us a different room within a half hour.  After 40 minutes, we went to him for the fulfillment of his commit and he said that there was nothing he can do for us.  We immediately terminated our stay there.Thank goodness, there are optional hotels for guests.  So we have astutely opted to not return to that hotel.  For the sake of other guests, we truly hope for correction of the attitude of indifference towards guests.More</t>
   </si>
   <si>
-    <t>fastrack m</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r117631249-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1236,9 +1808,6 @@
     <t>September 2011</t>
   </si>
   <si>
-    <t>Christine S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r117447406-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1257,7 +1826,43 @@
     <t>August 2011</t>
   </si>
   <si>
-    <t>LuluSmith</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r116835676-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>116835676</t>
+  </si>
+  <si>
+    <t>08/16/2011</t>
+  </si>
+  <si>
+    <t>OK property in an extremely quiet neighborhood</t>
+  </si>
+  <si>
+    <t>I stayed here this week and it was the usual Candlewood Suites experience.  The 2 standouts are that it is exceptionally quiet here (that's a good thing), but there is ZERO recognition of Priority Club status.  With that I mean no welcome back greeting, no recognition that you are a PC member at all, and no water or cheap amenity snack at check-in.  I have seen the Priority Club program with Intercontinental Hotels Group diminish into near joke status over the past few years.  Marriott and Hilton are eating their hotel lunch and they really need to try harder for frequent stayers.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r115931857-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>115931857</t>
+  </si>
+  <si>
+    <t>07/28/2011</t>
+  </si>
+  <si>
+    <t>Hard to find, but worth the comfort</t>
+  </si>
+  <si>
+    <t>If you miss the actual street to trun down going past the hospital, you will miss it! Love Candlewood Suites, the rooms are like mini apartments. We normally get the smoking room, this last time it was a bit stuffy, but otherwise this location features a much better stocked hotel pantry. Staff are quite polite and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>LAXSDGM, General Manager at Candlewood Suites Orange County, Irvine Spectrum, responded to this reviewResponded September 6, 2011</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2011</t>
+  </si>
+  <si>
+    <t>If you miss the actual street to trun down going past the hospital, you will miss it! Love Candlewood Suites, the rooms are like mini apartments. We normally get the smoking room, this last time it was a bit stuffy, but otherwise this location features a much better stocked hotel pantry. Staff are quite polite and helpful.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r115895865-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
@@ -1266,9 +1871,6 @@
     <t>115895865</t>
   </si>
   <si>
-    <t>07/28/2011</t>
-  </si>
-  <si>
     <t>Decent Hotel; Spent Two Nights</t>
   </si>
   <si>
@@ -1278,9 +1880,6 @@
     <t>April 2011</t>
   </si>
   <si>
-    <t>rwmiller56</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r103882602-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1305,9 +1904,6 @@
     <t>I stayed here twice in April 2011 on business. The first time, I was in a first floor room, and got very little sleep due to the noise from the room above. The resident above was pacing on the heels of his feet back and forth all night long. Miserable.The second time, I requested a top floor room. The first room had a climate control system on the wall which would not turn on. It was completely dead. The room was hot. Opening the window is not an option, due to the noise of people talking in the parking lot, and the traffic noise.They gave me a second room on the top floor, and lo and behold, the climate control did not work in that room either!!!!! The display worked, but the AC unit would never come on. Amazing.This hotel has some serious maintenance issues. I will probably not be staying there again.More</t>
   </si>
   <si>
-    <t>RKim40</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r85087207-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1323,7 +1919,53 @@
     <t xml:space="preserve">The hotel needs renovation. Inteior is  showing its age. But price is right. The suite is worth the upgrade as there is a door for the bedroom, which cuts down the noise from the fridge </t>
   </si>
   <si>
-    <t>whidcrad</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r77140422-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>77140422</t>
+  </si>
+  <si>
+    <t>08/27/2010</t>
+  </si>
+  <si>
+    <t>Great Stay, Great Staff!!!</t>
+  </si>
+  <si>
+    <t>Our group, about 15 families, stayed here for a tournament back in early July.  Everyone had a great time; most mentioned returning for a more relaxing stay when a tournament wasn't involved.  Having a fully equipped kitchen was a great benefit for our families while traveling on a budget.  The GM Charles, DOS Erin and Brenda at the front desk were great to work with and made sure our stay went well.  One note:  this hotel is located off of Sand Canyon Ave and hidden behind some other buildings.  You'll need to turn on Hoag-Irvine and keep to your left to get to the hotel.</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r57142589-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>57142589</t>
+  </si>
+  <si>
+    <t>02/25/2010</t>
+  </si>
+  <si>
+    <t>Just Okay</t>
+  </si>
+  <si>
+    <t>I chose this hotel due to reviews I read on TripAdvisor.  I found some reviews accurate to our experience, and some reviews the exact opposite.
+Location:  First, the hotel is *not* well marked.  As another reviewer stated, it is located behind a medical office building on Sand Canyon.  They need to mark the entrance better.  The location, though, is good.  It's close to Newport and Balboa, South Coast, Laguna, etc.  The mall (Specturm) is close and has a number of restaurants and fun activities.
+Room:  It is okay.  Yes, the rooms have a refrigerator, microwave, 2-burner stove, etc., but the room itself is pretty depressingly plain.  The bed is small (queen), and one side is close to the wall. . .so close the the person sleeping next to the wall has to crawl either over the other person or down to the foot of the bed to get out.
+The fan in the bathroom is annoyingly loud.  I also found the towels to be stained.  They were clean, but there were permanent stains on them.  AUGH.
+The worst thing, though, is the smell.  I know that they probably spray some stupid air freshener in the room, but it stinks.  We were there three nights, and the smell never got better.  I dreaded returning to the room each afternoon and evening.
+We were supposed to stay 4 nights, but we ended up leaving after 3 because the room and the smell...I chose this hotel due to reviews I read on TripAdvisor.  I found some reviews accurate to our experience, and some reviews the exact opposite.Location:  First, the hotel is *not* well marked.  As another reviewer stated, it is located behind a medical office building on Sand Canyon.  They need to mark the entrance better.  The location, though, is good.  It's close to Newport and Balboa, South Coast, Laguna, etc.  The mall (Specturm) is close and has a number of restaurants and fun activities.Room:  It is okay.  Yes, the rooms have a refrigerator, microwave, 2-burner stove, etc., but the room itself is pretty depressingly plain.  The bed is small (queen), and one side is close to the wall. . .so close the the person sleeping next to the wall has to crawl either over the other person or down to the foot of the bed to get out.The fan in the bathroom is annoyingly loud.  I also found the towels to be stained.  They were clean, but there were permanent stains on them.  AUGH.The worst thing, though, is the smell.  I know that they probably spray some stupid air freshener in the room, but it stinks.  We were there three nights, and the smell never got better.  I dreaded returning to the room each afternoon and evening.We were supposed to stay 4 nights, but we ended up leaving after 3 because the room and the smell were just too depressing.STAFF:  I know others have said how wonderful the staff was.  We wonder about whom they were talking.  The woman who checked us in was nice enough, but the other people rarely even said, "Hello" when we walked by.I'm a Priority Club Gold Member and am usually upgraded.  They didn't even acknowledge my PC membership.I have stayed in other Candlewood Suites in other cities and didn't find them quite as depressing as this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>I chose this hotel due to reviews I read on TripAdvisor.  I found some reviews accurate to our experience, and some reviews the exact opposite.
+Location:  First, the hotel is *not* well marked.  As another reviewer stated, it is located behind a medical office building on Sand Canyon.  They need to mark the entrance better.  The location, though, is good.  It's close to Newport and Balboa, South Coast, Laguna, etc.  The mall (Specturm) is close and has a number of restaurants and fun activities.
+Room:  It is okay.  Yes, the rooms have a refrigerator, microwave, 2-burner stove, etc., but the room itself is pretty depressingly plain.  The bed is small (queen), and one side is close to the wall. . .so close the the person sleeping next to the wall has to crawl either over the other person or down to the foot of the bed to get out.
+The fan in the bathroom is annoyingly loud.  I also found the towels to be stained.  They were clean, but there were permanent stains on them.  AUGH.
+The worst thing, though, is the smell.  I know that they probably spray some stupid air freshener in the room, but it stinks.  We were there three nights, and the smell never got better.  I dreaded returning to the room each afternoon and evening.
+We were supposed to stay 4 nights, but we ended up leaving after 3 because the room and the smell...I chose this hotel due to reviews I read on TripAdvisor.  I found some reviews accurate to our experience, and some reviews the exact opposite.Location:  First, the hotel is *not* well marked.  As another reviewer stated, it is located behind a medical office building on Sand Canyon.  They need to mark the entrance better.  The location, though, is good.  It's close to Newport and Balboa, South Coast, Laguna, etc.  The mall (Specturm) is close and has a number of restaurants and fun activities.Room:  It is okay.  Yes, the rooms have a refrigerator, microwave, 2-burner stove, etc., but the room itself is pretty depressingly plain.  The bed is small (queen), and one side is close to the wall. . .so close the the person sleeping next to the wall has to crawl either over the other person or down to the foot of the bed to get out.The fan in the bathroom is annoyingly loud.  I also found the towels to be stained.  They were clean, but there were permanent stains on them.  AUGH.The worst thing, though, is the smell.  I know that they probably spray some stupid air freshener in the room, but it stinks.  We were there three nights, and the smell never got better.  I dreaded returning to the room each afternoon and evening.We were supposed to stay 4 nights, but we ended up leaving after 3 because the room and the smell were just too depressing.STAFF:  I know others have said how wonderful the staff was.  We wonder about whom they were talking.  The woman who checked us in was nice enough, but the other people rarely even said, "Hello" when we walked by.I'm a Priority Club Gold Member and am usually upgraded.  They didn't even acknowledge my PC membership.I have stayed in other Candlewood Suites in other cities and didn't find them quite as depressing as this one.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r54048465-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
@@ -1349,9 +1991,6 @@
 The standard room is what we had booked and it was a large room &amp; bathroom. The room includes a full size refrigerator w/ icemaker, two burner electric cooktop, large microwave oven, dishwasher, set of cookware, microwavable glassware, set of dishes, glasses, can opener, potato peeler, cutting knife, steak knives, spatula, cooking spoon and fork, strainer, toaster, measuring cup, dish towels, paper towels, dishwasher soap &amp; regular dish soap and there is even a garbage disposal! My wife had come with me so she just brought some food from home and made breakfast and a couple of dinners while we were there. She had brought a lot of the things like dish soap, paper towels, dish towels as well as a can opener. We were both surprised that they provided so much in the room. All you need to bring is food. They provide free hardline internet connection, the tv is pretty much like most hotels with cable and a dvd/vhs player so bring your own movies or check out the free ones at the front desk, a desk with 2...My wife and I arrived Sunday evening and I would suggest that Candlewood put a sign indicating that they are located in the back of the hospital that you see on Sand Canyon Ave, because you can't see the hotel from Sand Canyon Ave. That was the only thing that we found to be a problem during our stay. The standard room is what we had booked and it was a large room &amp; bathroom. The room includes a full size refrigerator w/ icemaker, two burner electric cooktop, large microwave oven, dishwasher, set of cookware, microwavable glassware, set of dishes, glasses, can opener, potato peeler, cutting knife, steak knives, spatula, cooking spoon and fork, strainer, toaster, measuring cup, dish towels, paper towels, dishwasher soap &amp; regular dish soap and there is even a garbage disposal! My wife had come with me so she just brought some food from home and made breakfast and a couple of dinners while we were there. She had brought a lot of the things like dish soap, paper towels, dish towels as well as a can opener. We were both surprised that they provided so much in the room. All you need to bring is food. They provide free hardline internet connection, the tv is pretty much like most hotels with cable and a dvd/vhs player so bring your own movies or check out the free ones at the front desk, a desk with 2 chairs for use as a desk/dining table and they even have a little convience store that is attached to the gym on the first floor. If you do use the store they have a complimentary coffee station for you to use. I forgot to mention there is a coffee pot in the room also. The queen size bed was comfortable but the I guess the bed is situated for 1 traveler, the bed was not centered on the wall so there would be equal room on each side of the bed so she could get into it from her own side, but there is a recliner on the side with more room and a bedside table. I think next time I'll just get the Deluxe room for about $20.00 more, which is still a bargan!The staff is helpful and very nice. When I had to stay at Quality Suites in Santa Ana because the company paid for it I figured it was okay and they provided a free breakfast, tiny refrigerator, microwave. But after finding and staying at Candlewood Suites, there will never be a question of where I will be staying for business or pleasure when we want a place to stay if we want to have the option of cooking our own food while out of town. I've probably forgotten something but they probably have it, if not in the room at the front desk.  We were in Irvine for 4 days and we enjoyed our stay at Candlewood Suites. It is close to the freeway, shopping centers, movie theaters and basically everything.  Do yourself a favor if you need a place to stay in Irvine, don't pass up the Candlewood Suites.More</t>
   </si>
   <si>
-    <t>HollyRNTennessee</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r45705027-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1379,9 +2018,6 @@
     <t>Immaculate room! Bed was not as soft as I hoped it would be, sheets and pillows incredible! Large tv w/dvd &amp; vhs player in room, 52 cable channels including multiple HBO. Radio/alarm clock/CD player. Kitchen comes stocked with not just a silverware and a pot but multiple and very nice cookware pots w/lids, glass bowls w/lids, measuring cup, potato peeler-you name it. Full sized fridge has an icemaker. Full size microwave. Dishwasher, stove top (no oven), garbage disposal, plenty of hanger and a separate closet, laundry basket in room, dishwasher soap, paper towels, soaps and shampoo, hair dryer. Decorated to feel like home, large recliner, work space with two chairs, 2 phones w/multiple features, free internet in the room, full length mirror, hair dryer, pleasant location and close to gas station, grocery and places to dine. , Free washers and dryers, free lending dvd/vhs library, free locked mail box if you desire during your stay. Gym, business center, 24 hr store. Called the front desk and asked if the store had tylenol, that I wasn't feeling well. She hand delivered tylenol to my room for me with a smile. Hotel itself is very clean and friendly and feels safe. I am very impressive, I travel to this area often for a month at a time and I will be a repeat traveler!More</t>
   </si>
   <si>
-    <t>Daddyof6Girls</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r37192611-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1409,7 +2045,40 @@
     <t>What a pleasant surprise!  The staff at Candlewood was terrific, making us feel like royalty when we arrived and all throughout our stay.  The room was clean and comfortable, giving us a great place for a low fee.  The kitchenette was well supplied with everything we needed for our visit.We have stayed in less comfortable hotel rooms for a lot more money.  Anytime we come back to Orange County, you can bet we'll be staying at the Candlewood Suites in the Irvine Spectrum!More</t>
   </si>
   <si>
-    <t>GJSVZ</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r37161803-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>37161803</t>
+  </si>
+  <si>
+    <t>The most depressing place on earth</t>
+  </si>
+  <si>
+    <t>I chose the Candlewood suites because it was cheap and convienient, and I was running low on funds. It cost $90 a night, but that was way too much money for the room. The worst thing about it is the smell, it is putrid, especially when you get to your room near the fridge . . .the elevators are pretty awful too and there is a build up of dirt in the corner which is quite vile. The extractor fan in the bathroom is deafening and prevents any hope of a peaceful soak in the bath too. I shortened my 6 night stay to just 2, and checked into the doubletree instead. As horrible and insanely depressing this place is, the staff are as friendly as can be, and were very friendly in offering to call me a taxi.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>I chose the Candlewood suites because it was cheap and convienient, and I was running low on funds. It cost $90 a night, but that was way too much money for the room. The worst thing about it is the smell, it is putrid, especially when you get to your room near the fridge . . .the elevators are pretty awful too and there is a build up of dirt in the corner which is quite vile. The extractor fan in the bathroom is deafening and prevents any hope of a peaceful soak in the bath too. I shortened my 6 night stay to just 2, and checked into the doubletree instead. As horrible and insanely depressing this place is, the staff are as friendly as can be, and were very friendly in offering to call me a taxi.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r22318799-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>22318799</t>
+  </si>
+  <si>
+    <t>11/30/2008</t>
+  </si>
+  <si>
+    <t>Home Away From Home!</t>
+  </si>
+  <si>
+    <t>Overall it was a comfortable stay with no real complaints. Free wireless is a plus. Staff very willing to help with GREAT service. Great miles-long walkway behind the hotel for a jog, bike ride, or even a nature walk. Really close to the Irvine Spectrum Center, where all shopping needs are met! Its home away from home! There is also a store near the lobby in which we can purchase cereal, milk, chips, etc at reasonable prices. Laundry is free! Its a great place, with a very homely atmosphere!</t>
+  </si>
+  <si>
+    <t>November 2008</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r6156136-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
@@ -1428,9 +2097,6 @@
   </si>
   <si>
     <t>November 2006</t>
-  </si>
-  <si>
-    <t>SPGplatinum1</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d78395-r3743168-Candlewood_Suites_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
@@ -1950,309 +2616,281 @@
       <c r="A2" t="n">
         <v>37043</v>
       </c>
-      <c r="B2" t="n">
-        <v>160774</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37043</v>
       </c>
-      <c r="B3" t="n">
-        <v>160775</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="M3" t="n">
-        <v>3</v>
-      </c>
-      <c r="N3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" t="s"/>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>62</v>
-      </c>
-      <c r="X3" t="s">
-        <v>63</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37043</v>
       </c>
-      <c r="B4" t="n">
-        <v>160776</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
         <v>66</v>
-      </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O4" t="s">
-        <v>61</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>4</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37043</v>
       </c>
-      <c r="B5" t="n">
-        <v>160777</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="O5" t="s">
         <v>73</v>
       </c>
-      <c r="J5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" t="s">
-        <v>76</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>77</v>
-      </c>
-      <c r="O5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2</v>
-      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>1</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>78</v>
-      </c>
-      <c r="X5" t="s">
-        <v>79</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37043</v>
       </c>
-      <c r="B6" t="n">
-        <v>160778</v>
-      </c>
-      <c r="C6" t="s">
-        <v>81</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2263,141 +2901,119 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>88</v>
-      </c>
-      <c r="X6" t="s">
-        <v>89</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37043</v>
       </c>
-      <c r="B7" t="n">
-        <v>160779</v>
-      </c>
-      <c r="C7" t="s">
-        <v>91</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>1</v>
-      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>1</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>97</v>
-      </c>
-      <c r="X7" t="s">
-        <v>98</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37043</v>
       </c>
-      <c r="B8" t="n">
-        <v>160780</v>
-      </c>
-      <c r="C8" t="s">
-        <v>100</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
       <c r="R8" t="n">
-        <v>3</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
         <v>5</v>
@@ -2408,54 +3024,50 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37043</v>
       </c>
-      <c r="B9" t="n">
-        <v>1652</v>
-      </c>
-      <c r="C9" t="s">
-        <v>107</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2466,61 +3078,53 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>114</v>
-      </c>
-      <c r="X9" t="s">
-        <v>115</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37043</v>
       </c>
-      <c r="B10" t="n">
-        <v>160781</v>
-      </c>
-      <c r="C10" t="s">
-        <v>117</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="O10" t="s">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2531,319 +3135,309 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>103</v>
+      </c>
+      <c r="X10" t="s">
+        <v>104</v>
+      </c>
       <c r="Y10" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37043</v>
       </c>
-      <c r="B11" t="n">
-        <v>48537</v>
-      </c>
-      <c r="C11" t="s">
-        <v>126</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="O11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>133</v>
-      </c>
-      <c r="X11" t="s">
-        <v>134</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37043</v>
       </c>
-      <c r="B12" t="n">
-        <v>14695</v>
-      </c>
-      <c r="C12" t="s">
-        <v>136</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="J12" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="K12" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="L12" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="O12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>116</v>
+      </c>
+      <c r="X12" t="s">
+        <v>117</v>
+      </c>
       <c r="Y12" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37043</v>
       </c>
-      <c r="B13" t="n">
-        <v>160782</v>
-      </c>
-      <c r="C13" t="s">
-        <v>143</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="O13" t="s">
-        <v>61</v>
-      </c>
-      <c r="P13" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>150</v>
-      </c>
-      <c r="X13" t="s">
-        <v>151</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37043</v>
       </c>
-      <c r="B14" t="n">
-        <v>12774</v>
-      </c>
-      <c r="C14" t="s">
-        <v>153</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="J14" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="K14" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="O14" t="s">
-        <v>61</v>
-      </c>
-      <c r="P14" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="X14" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="Y14" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37043</v>
       </c>
-      <c r="B15" t="n">
-        <v>160783</v>
-      </c>
-      <c r="C15" t="s">
-        <v>163</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="J15" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="K15" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="L15" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="O15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2855,272 +3449,250 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="X15" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="Y15" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37043</v>
       </c>
-      <c r="B16" t="n">
-        <v>160784</v>
-      </c>
-      <c r="C16" t="s">
-        <v>172</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="J16" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="K16" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="L16" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>178</v>
+        <v>90</v>
       </c>
       <c r="O16" t="s">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
       <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>148</v>
+      </c>
+      <c r="X16" t="s">
+        <v>149</v>
+      </c>
       <c r="Y16" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37043</v>
       </c>
-      <c r="B17" t="n">
-        <v>160785</v>
-      </c>
-      <c r="C17" t="s">
-        <v>180</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="J17" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="K17" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="L17" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="O17" t="s">
-        <v>187</v>
+        <v>60</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>3</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3</v>
-      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>3</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>188</v>
-      </c>
-      <c r="X17" t="s">
-        <v>189</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37043</v>
       </c>
-      <c r="B18" t="n">
-        <v>160786</v>
-      </c>
-      <c r="C18" t="s">
-        <v>191</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="J18" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="K18" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="L18" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="O18" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="n">
-        <v>4</v>
-      </c>
-      <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>198</v>
-      </c>
-      <c r="X18" t="s">
-        <v>199</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37043</v>
       </c>
-      <c r="B19" t="n">
-        <v>160787</v>
-      </c>
-      <c r="C19" t="s">
-        <v>201</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>203</v>
+        <v>162</v>
       </c>
       <c r="J19" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="K19" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="L19" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="O19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q19" t="s"/>
       <c r="R19" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
         <v>5</v>
@@ -3131,123 +3703,111 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37043</v>
       </c>
-      <c r="B20" t="n">
-        <v>160788</v>
-      </c>
-      <c r="C20" t="s">
-        <v>207</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="J20" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="K20" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="L20" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="O20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>1</v>
-      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>3</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="X20" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="Y20" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37043</v>
       </c>
-      <c r="B21" t="n">
-        <v>160789</v>
-      </c>
-      <c r="C21" t="s">
-        <v>217</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>219</v>
+        <v>177</v>
       </c>
       <c r="J21" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="K21" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="L21" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="O21" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3258,203 +3818,175 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>223</v>
-      </c>
-      <c r="X21" t="s">
-        <v>224</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37043</v>
       </c>
-      <c r="B22" t="n">
-        <v>160790</v>
-      </c>
-      <c r="C22" t="s">
-        <v>226</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="J22" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="K22" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="L22" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="O22" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="X22" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="Y22" t="s">
-        <v>235</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37043</v>
       </c>
-      <c r="B23" t="n">
-        <v>160791</v>
-      </c>
-      <c r="C23" t="s">
-        <v>236</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="J23" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="K23" t="s">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="L23" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
       <c r="O23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="n">
-        <v>3</v>
-      </c>
-      <c r="R23" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>3</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>243</v>
-      </c>
-      <c r="X23" t="s">
-        <v>244</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>245</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37043</v>
       </c>
-      <c r="B24" t="n">
-        <v>35966</v>
-      </c>
-      <c r="C24" t="s">
-        <v>246</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="J24" t="s">
-        <v>249</v>
+        <v>200</v>
       </c>
       <c r="K24" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="L24" t="s">
-        <v>251</v>
+        <v>202</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="O24" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3465,796 +3997,764 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>204</v>
+      </c>
+      <c r="X24" t="s">
+        <v>205</v>
+      </c>
       <c r="Y24" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37043</v>
       </c>
-      <c r="B25" t="n">
-        <v>160792</v>
-      </c>
-      <c r="C25" t="s">
-        <v>252</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="J25" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="K25" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="L25" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
-      </c>
-      <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
-      <c r="P25" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>212</v>
+      </c>
+      <c r="O25" t="s">
+        <v>66</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37043</v>
       </c>
-      <c r="B26" t="n">
-        <v>160793</v>
-      </c>
-      <c r="C26" t="s">
-        <v>258</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="J26" t="s">
-        <v>261</v>
+        <v>215</v>
       </c>
       <c r="K26" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="L26" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="O26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="n">
-        <v>3</v>
-      </c>
+      <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>3</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="X26" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="Y26" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37043</v>
       </c>
-      <c r="B27" t="n">
-        <v>160794</v>
-      </c>
-      <c r="C27" t="s">
-        <v>268</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>269</v>
+        <v>222</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="J27" t="s">
-        <v>271</v>
+        <v>224</v>
       </c>
       <c r="K27" t="s">
-        <v>272</v>
+        <v>225</v>
       </c>
       <c r="L27" t="s">
-        <v>273</v>
+        <v>226</v>
       </c>
       <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>218</v>
+      </c>
+      <c r="O27" t="s">
+        <v>73</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
         <v>4</v>
       </c>
-      <c r="N27" t="s">
-        <v>274</v>
-      </c>
-      <c r="O27" t="s">
-        <v>124</v>
-      </c>
-      <c r="P27" t="s"/>
-      <c r="Q27" t="n">
-        <v>4</v>
-      </c>
-      <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>227</v>
+      </c>
+      <c r="X27" t="s">
+        <v>228</v>
+      </c>
       <c r="Y27" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>37043</v>
       </c>
-      <c r="B28" t="n">
-        <v>160795</v>
-      </c>
-      <c r="C28" t="s">
-        <v>275</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c r="J28" t="s">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="K28" t="s">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="L28" t="s">
-        <v>280</v>
+        <v>234</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="O28" t="s">
-        <v>187</v>
+        <v>66</v>
       </c>
       <c r="P28" t="s"/>
-      <c r="Q28" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
-      <c r="S28" t="n">
-        <v>4</v>
-      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>4</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>236</v>
+      </c>
+      <c r="X28" t="s">
+        <v>237</v>
+      </c>
       <c r="Y28" t="s">
-        <v>281</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>37043</v>
       </c>
-      <c r="B29" t="n">
-        <v>160796</v>
-      </c>
-      <c r="C29" t="s">
-        <v>282</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>284</v>
+        <v>240</v>
       </c>
       <c r="J29" t="s">
-        <v>285</v>
+        <v>241</v>
       </c>
       <c r="K29" t="s">
-        <v>286</v>
+        <v>242</v>
       </c>
       <c r="L29" t="s">
-        <v>287</v>
+        <v>243</v>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>288</v>
+        <v>244</v>
       </c>
       <c r="O29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P29" t="s"/>
-      <c r="Q29" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>3</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>245</v>
+      </c>
+      <c r="X29" t="s">
+        <v>246</v>
+      </c>
       <c r="Y29" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37043</v>
       </c>
-      <c r="B30" t="n">
-        <v>5674</v>
-      </c>
-      <c r="C30" t="s">
-        <v>289</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="J30" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="K30" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="L30" t="s">
-        <v>294</v>
+        <v>252</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>288</v>
+        <v>244</v>
       </c>
       <c r="O30" t="s">
-        <v>295</v>
+        <v>60</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>253</v>
+      </c>
+      <c r="X30" t="s">
+        <v>254</v>
+      </c>
       <c r="Y30" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>37043</v>
       </c>
-      <c r="B31" t="n">
-        <v>160797</v>
-      </c>
-      <c r="C31" t="s">
-        <v>297</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>299</v>
+        <v>257</v>
       </c>
       <c r="J31" t="s">
-        <v>300</v>
+        <v>258</v>
       </c>
       <c r="K31" t="s">
-        <v>301</v>
+        <v>259</v>
       </c>
       <c r="L31" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="O31" t="s">
-        <v>124</v>
-      </c>
-      <c r="P31" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>4</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>37043</v>
       </c>
-      <c r="B32" t="n">
-        <v>160798</v>
-      </c>
-      <c r="C32" t="s">
-        <v>305</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>306</v>
+        <v>263</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="J32" t="s">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="K32" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="L32" t="s">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>311</v>
+        <v>261</v>
       </c>
       <c r="O32" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="P32" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>312</v>
+        <v>268</v>
       </c>
       <c r="X32" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="Y32" t="s">
-        <v>314</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>37043</v>
       </c>
-      <c r="B33" t="n">
-        <v>160799</v>
-      </c>
-      <c r="C33" t="s">
-        <v>315</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
       <c r="J33" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
       <c r="K33" t="s">
-        <v>319</v>
+        <v>274</v>
       </c>
       <c r="L33" t="s">
-        <v>320</v>
+        <v>275</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
-      </c>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
-      <c r="P33" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>276</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
       <c r="Q33" t="s"/>
-      <c r="R33" t="s"/>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>277</v>
+      </c>
+      <c r="X33" t="s">
+        <v>278</v>
+      </c>
       <c r="Y33" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>37043</v>
       </c>
-      <c r="B34" t="n">
-        <v>160800</v>
-      </c>
-      <c r="C34" t="s">
-        <v>321</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>322</v>
+        <v>280</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>323</v>
+        <v>281</v>
       </c>
       <c r="J34" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="K34" t="s">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="L34" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="O34" t="s">
-        <v>61</v>
-      </c>
-      <c r="P34" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>4</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
       <c r="R34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>286</v>
+      </c>
+      <c r="X34" t="s">
+        <v>287</v>
+      </c>
       <c r="Y34" t="s">
-        <v>328</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>37043</v>
       </c>
-      <c r="B35" t="n">
-        <v>160801</v>
-      </c>
-      <c r="C35" t="s">
-        <v>329</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>330</v>
+        <v>289</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>331</v>
+        <v>290</v>
       </c>
       <c r="J35" t="s">
-        <v>332</v>
+        <v>291</v>
       </c>
       <c r="K35" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="L35" t="s">
-        <v>334</v>
+        <v>293</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
-      </c>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>294</v>
+      </c>
+      <c r="O35" t="s">
+        <v>60</v>
+      </c>
+      <c r="P35" t="s"/>
       <c r="Q35" t="n">
-        <v>5</v>
-      </c>
-      <c r="R35" t="n">
         <v>4</v>
       </c>
+      <c r="R35" t="s"/>
       <c r="S35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>295</v>
+      </c>
+      <c r="X35" t="s">
+        <v>296</v>
+      </c>
       <c r="Y35" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>37043</v>
       </c>
-      <c r="B36" t="n">
-        <v>9114</v>
-      </c>
-      <c r="C36" t="s">
-        <v>335</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="J36" t="s">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="K36" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
       <c r="L36" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="O36" t="s">
-        <v>61</v>
-      </c>
-      <c r="P36" t="n">
-        <v>3</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P36" t="s"/>
       <c r="Q36" t="n">
         <v>5</v>
       </c>
       <c r="R36" t="n">
         <v>5</v>
       </c>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -4262,141 +4762,127 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>37043</v>
       </c>
-      <c r="B37" t="n">
-        <v>160802</v>
-      </c>
-      <c r="C37" t="s">
-        <v>342</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="J37" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="K37" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="L37" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>348</v>
+        <v>294</v>
       </c>
       <c r="O37" t="s">
-        <v>124</v>
-      </c>
-      <c r="P37" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>3</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
       <c r="R37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>308</v>
+      </c>
+      <c r="X37" t="s">
+        <v>309</v>
+      </c>
       <c r="Y37" t="s">
-        <v>347</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37043</v>
       </c>
-      <c r="B38" t="n">
-        <v>160803</v>
-      </c>
-      <c r="C38" t="s">
-        <v>349</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="J38" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="K38" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="L38" t="s">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="M38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="O38" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="P38" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>3</v>
-      </c>
-      <c r="R38" t="n">
-        <v>4</v>
-      </c>
-      <c r="S38" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -4404,400 +4890,374 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>356</v>
+        <v>315</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37043</v>
       </c>
-      <c r="B39" t="n">
-        <v>160804</v>
-      </c>
-      <c r="C39" t="s">
-        <v>357</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>358</v>
+        <v>317</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>359</v>
+        <v>318</v>
       </c>
       <c r="J39" t="s">
-        <v>360</v>
+        <v>319</v>
       </c>
       <c r="K39" t="s">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="L39" t="s">
-        <v>362</v>
+        <v>321</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
-      </c>
-      <c r="N39" t="s"/>
-      <c r="O39" t="s"/>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>322</v>
+      </c>
+      <c r="O39" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
       <c r="S39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>323</v>
+      </c>
+      <c r="X39" t="s">
+        <v>324</v>
+      </c>
       <c r="Y39" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>37043</v>
       </c>
-      <c r="B40" t="n">
-        <v>160805</v>
-      </c>
-      <c r="C40" t="s">
-        <v>363</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>364</v>
+        <v>326</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="J40" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="K40" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
       <c r="L40" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>369</v>
+        <v>322</v>
       </c>
       <c r="O40" t="s">
-        <v>54</v>
-      </c>
-      <c r="P40" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>3</v>
-      </c>
-      <c r="R40" t="n">
-        <v>4</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>4</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>331</v>
+      </c>
+      <c r="X40" t="s">
+        <v>332</v>
+      </c>
       <c r="Y40" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>37043</v>
       </c>
-      <c r="B41" t="n">
-        <v>160806</v>
-      </c>
-      <c r="C41" t="s">
-        <v>371</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="J41" t="s">
-        <v>374</v>
+        <v>336</v>
       </c>
       <c r="K41" t="s">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="L41" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="M41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>377</v>
+        <v>339</v>
       </c>
       <c r="O41" t="s">
-        <v>61</v>
-      </c>
-      <c r="P41" t="n">
-        <v>2</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P41" t="s"/>
       <c r="Q41" t="n">
-        <v>2</v>
-      </c>
-      <c r="R41" t="n">
-        <v>3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R41" t="s"/>
       <c r="S41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>340</v>
+      </c>
+      <c r="X41" t="s">
+        <v>341</v>
+      </c>
       <c r="Y41" t="s">
-        <v>378</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>37043</v>
       </c>
-      <c r="B42" t="n">
-        <v>160807</v>
-      </c>
-      <c r="C42" t="s">
-        <v>379</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>380</v>
+        <v>343</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>381</v>
+        <v>344</v>
       </c>
       <c r="J42" t="s">
-        <v>382</v>
+        <v>345</v>
       </c>
       <c r="K42" t="s">
-        <v>383</v>
+        <v>346</v>
       </c>
       <c r="L42" t="s">
-        <v>384</v>
+        <v>347</v>
       </c>
       <c r="M42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>385</v>
+        <v>339</v>
       </c>
       <c r="O42" t="s">
-        <v>61</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
       <c r="R42" t="s"/>
-      <c r="S42" t="n">
-        <v>3</v>
-      </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>3</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>384</v>
+        <v>347</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>37043</v>
       </c>
-      <c r="B43" t="n">
-        <v>19275</v>
-      </c>
-      <c r="C43" t="s">
-        <v>386</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="J43" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="K43" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="L43" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="M43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="O43" t="s">
-        <v>54</v>
-      </c>
-      <c r="P43" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2</v>
+      </c>
       <c r="Q43" t="s"/>
       <c r="R43" t="s"/>
       <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>354</v>
+      </c>
+      <c r="X43" t="s">
+        <v>355</v>
+      </c>
       <c r="Y43" t="s">
-        <v>391</v>
+        <v>356</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>37043</v>
       </c>
-      <c r="B44" t="n">
-        <v>160808</v>
-      </c>
-      <c r="C44" t="s">
-        <v>393</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>394</v>
+        <v>357</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>395</v>
+        <v>358</v>
       </c>
       <c r="J44" t="s">
-        <v>396</v>
+        <v>359</v>
       </c>
       <c r="K44" t="s">
-        <v>397</v>
+        <v>360</v>
       </c>
       <c r="L44" t="s">
-        <v>398</v>
+        <v>361</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>399</v>
+        <v>353</v>
       </c>
       <c r="O44" t="s">
-        <v>187</v>
-      </c>
-      <c r="P44" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q44" t="s"/>
-      <c r="R44" t="s"/>
-      <c r="S44" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
         <v>3</v>
@@ -4805,283 +5265,241 @@
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>362</v>
+      </c>
+      <c r="X44" t="s">
+        <v>363</v>
+      </c>
       <c r="Y44" t="s">
-        <v>398</v>
+        <v>364</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>37043</v>
       </c>
-      <c r="B45" t="n">
-        <v>160809</v>
-      </c>
-      <c r="C45" t="s">
-        <v>400</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>401</v>
+        <v>365</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>402</v>
+        <v>366</v>
       </c>
       <c r="J45" t="s">
-        <v>403</v>
+        <v>367</v>
       </c>
       <c r="K45" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="L45" t="s">
-        <v>405</v>
+        <v>369</v>
       </c>
       <c r="M45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>399</v>
+        <v>353</v>
       </c>
       <c r="O45" t="s">
-        <v>61</v>
-      </c>
-      <c r="P45" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1</v>
-      </c>
-      <c r="R45" t="n">
-        <v>3</v>
-      </c>
-      <c r="S45" t="n">
-        <v>4</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>3</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s">
-        <v>406</v>
-      </c>
-      <c r="X45" t="s">
-        <v>407</v>
-      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>408</v>
+        <v>369</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>37043</v>
       </c>
-      <c r="B46" t="n">
-        <v>160810</v>
-      </c>
-      <c r="C46" t="s">
-        <v>409</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
       <c r="J46" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="K46" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="L46" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
       <c r="M46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N46" t="s"/>
       <c r="O46" t="s"/>
-      <c r="P46" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>3</v>
-      </c>
-      <c r="R46" t="n">
-        <v>2</v>
-      </c>
-      <c r="S46" t="n">
-        <v>3</v>
-      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>3</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>37043</v>
       </c>
-      <c r="B47" t="n">
-        <v>160811</v>
-      </c>
-      <c r="C47" t="s">
-        <v>415</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>416</v>
+        <v>375</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="J47" t="s">
-        <v>418</v>
+        <v>377</v>
       </c>
       <c r="K47" t="s">
-        <v>419</v>
+        <v>378</v>
       </c>
       <c r="L47" t="s">
-        <v>420</v>
+        <v>379</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>421</v>
+        <v>380</v>
       </c>
       <c r="O47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q47" t="n">
-        <v>5</v>
-      </c>
-      <c r="R47" t="n">
-        <v>4</v>
-      </c>
-      <c r="S47" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>381</v>
+      </c>
+      <c r="X47" t="s">
+        <v>382</v>
+      </c>
       <c r="Y47" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>37043</v>
       </c>
-      <c r="B48" t="n">
-        <v>160812</v>
-      </c>
-      <c r="C48" t="s">
-        <v>423</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>425</v>
+        <v>385</v>
       </c>
       <c r="J48" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="K48" t="s">
-        <v>427</v>
+        <v>387</v>
       </c>
       <c r="L48" t="s">
-        <v>428</v>
+        <v>388</v>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>429</v>
+        <v>380</v>
       </c>
       <c r="O48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
       </c>
-      <c r="Q48" t="n">
-        <v>5</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5</v>
-      </c>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
         <v>5</v>
@@ -5089,152 +5507,128 @@
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s">
-        <v>430</v>
-      </c>
-      <c r="X48" t="s">
-        <v>431</v>
-      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>432</v>
+        <v>389</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>37043</v>
       </c>
-      <c r="B49" t="n">
-        <v>160813</v>
-      </c>
-      <c r="C49" t="s">
-        <v>433</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>434</v>
+        <v>390</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>435</v>
+        <v>391</v>
       </c>
       <c r="J49" t="s">
-        <v>436</v>
+        <v>392</v>
       </c>
       <c r="K49" t="s">
-        <v>437</v>
+        <v>393</v>
       </c>
       <c r="L49" t="s">
-        <v>438</v>
+        <v>394</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>439</v>
+        <v>395</v>
       </c>
       <c r="O49" t="s">
-        <v>54</v>
-      </c>
-      <c r="P49" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
       <c r="R49" t="n">
-        <v>5</v>
-      </c>
-      <c r="S49" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>440</v>
+        <v>396</v>
       </c>
       <c r="X49" t="s">
-        <v>441</v>
+        <v>397</v>
       </c>
       <c r="Y49" t="s">
-        <v>442</v>
+        <v>398</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>37043</v>
       </c>
-      <c r="B50" t="n">
-        <v>160814</v>
-      </c>
-      <c r="C50" t="s">
-        <v>443</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>444</v>
+        <v>399</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>445</v>
+        <v>400</v>
       </c>
       <c r="J50" t="s">
-        <v>446</v>
+        <v>401</v>
       </c>
       <c r="K50" t="s">
-        <v>447</v>
+        <v>402</v>
       </c>
       <c r="L50" t="s">
-        <v>448</v>
+        <v>403</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>449</v>
+        <v>404</v>
       </c>
       <c r="O50" t="s">
-        <v>61</v>
-      </c>
-      <c r="P50" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
       <c r="Q50" t="n">
-        <v>1</v>
-      </c>
-      <c r="R50" t="n">
         <v>4</v>
       </c>
-      <c r="S50" t="n">
-        <v>1</v>
-      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -5242,60 +5636,58 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>448</v>
+        <v>403</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>37043</v>
       </c>
-      <c r="B51" t="n">
-        <v>160815</v>
-      </c>
-      <c r="C51" t="s">
-        <v>450</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>451</v>
+        <v>405</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>452</v>
+        <v>406</v>
       </c>
       <c r="J51" t="s">
-        <v>453</v>
+        <v>407</v>
       </c>
       <c r="K51" t="s">
-        <v>454</v>
+        <v>408</v>
       </c>
       <c r="L51" t="s">
-        <v>455</v>
+        <v>409</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
-      <c r="N51" t="s"/>
-      <c r="O51" t="s"/>
-      <c r="P51" t="n">
-        <v>4</v>
-      </c>
+      <c r="N51" t="s">
+        <v>395</v>
+      </c>
+      <c r="O51" t="s">
+        <v>73</v>
+      </c>
+      <c r="P51" t="s"/>
       <c r="Q51" t="n">
         <v>4</v>
       </c>
       <c r="R51" t="s"/>
       <c r="S51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
@@ -5307,7 +5699,2562 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>411</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>412</v>
+      </c>
+      <c r="J52" t="s">
+        <v>413</v>
+      </c>
+      <c r="K52" t="s">
+        <v>414</v>
+      </c>
+      <c r="L52" t="s">
+        <v>415</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>395</v>
+      </c>
+      <c r="O52" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>417</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>418</v>
+      </c>
+      <c r="J53" t="s">
+        <v>419</v>
+      </c>
+      <c r="K53" t="s">
+        <v>420</v>
+      </c>
+      <c r="L53" t="s">
+        <v>421</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>422</v>
+      </c>
+      <c r="O53" t="s">
+        <v>73</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>424</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>425</v>
+      </c>
+      <c r="J54" t="s">
+        <v>426</v>
+      </c>
+      <c r="K54" t="s">
+        <v>427</v>
+      </c>
+      <c r="L54" t="s">
+        <v>428</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>422</v>
+      </c>
+      <c r="O54" t="s">
+        <v>60</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>429</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>430</v>
+      </c>
+      <c r="J55" t="s">
+        <v>431</v>
+      </c>
+      <c r="K55" t="s">
+        <v>432</v>
+      </c>
+      <c r="L55" t="s">
+        <v>433</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>422</v>
+      </c>
+      <c r="O55" t="s">
+        <v>91</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>435</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>436</v>
+      </c>
+      <c r="J56" t="s">
+        <v>437</v>
+      </c>
+      <c r="K56" t="s">
+        <v>438</v>
+      </c>
+      <c r="L56" t="s">
+        <v>439</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>440</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>442</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>443</v>
+      </c>
+      <c r="J57" t="s">
+        <v>444</v>
+      </c>
+      <c r="K57" t="s">
+        <v>445</v>
+      </c>
+      <c r="L57" t="s">
+        <v>446</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>447</v>
+      </c>
+      <c r="O57" t="s">
+        <v>66</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>449</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>450</v>
+      </c>
+      <c r="J58" t="s">
+        <v>451</v>
+      </c>
+      <c r="K58" t="s">
+        <v>452</v>
+      </c>
+      <c r="L58" t="s">
+        <v>453</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>454</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
         <v>455</v>
+      </c>
+      <c r="X58" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>458</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>459</v>
+      </c>
+      <c r="J59" t="s">
+        <v>460</v>
+      </c>
+      <c r="K59" t="s">
+        <v>461</v>
+      </c>
+      <c r="L59" t="s">
+        <v>462</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>463</v>
+      </c>
+      <c r="O59" t="s">
+        <v>60</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>464</v>
+      </c>
+      <c r="X59" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>467</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>468</v>
+      </c>
+      <c r="J60" t="s">
+        <v>469</v>
+      </c>
+      <c r="K60" t="s">
+        <v>470</v>
+      </c>
+      <c r="L60" t="s">
+        <v>471</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>472</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>473</v>
+      </c>
+      <c r="J61" t="s">
+        <v>474</v>
+      </c>
+      <c r="K61" t="s">
+        <v>475</v>
+      </c>
+      <c r="L61" t="s">
+        <v>476</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>477</v>
+      </c>
+      <c r="O61" t="s">
+        <v>60</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>479</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>480</v>
+      </c>
+      <c r="J62" t="s">
+        <v>481</v>
+      </c>
+      <c r="K62" t="s">
+        <v>482</v>
+      </c>
+      <c r="L62" t="s">
+        <v>483</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>463</v>
+      </c>
+      <c r="O62" t="s">
+        <v>66</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>484</v>
+      </c>
+      <c r="X62" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>487</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>488</v>
+      </c>
+      <c r="J63" t="s">
+        <v>489</v>
+      </c>
+      <c r="K63" t="s">
+        <v>490</v>
+      </c>
+      <c r="L63" t="s">
+        <v>491</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>492</v>
+      </c>
+      <c r="O63" t="s">
+        <v>60</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>493</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>494</v>
+      </c>
+      <c r="J64" t="s">
+        <v>495</v>
+      </c>
+      <c r="K64" t="s">
+        <v>496</v>
+      </c>
+      <c r="L64" t="s">
+        <v>497</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>498</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>499</v>
+      </c>
+      <c r="J65" t="s">
+        <v>500</v>
+      </c>
+      <c r="K65" t="s">
+        <v>501</v>
+      </c>
+      <c r="L65" t="s">
+        <v>502</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>503</v>
+      </c>
+      <c r="O65" t="s">
+        <v>60</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>504</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>505</v>
+      </c>
+      <c r="J66" t="s">
+        <v>506</v>
+      </c>
+      <c r="K66" t="s">
+        <v>507</v>
+      </c>
+      <c r="L66" t="s">
+        <v>508</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>509</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>510</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>511</v>
+      </c>
+      <c r="J67" t="s">
+        <v>512</v>
+      </c>
+      <c r="K67" t="s">
+        <v>513</v>
+      </c>
+      <c r="L67" t="s">
+        <v>514</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="s">
+        <v>515</v>
+      </c>
+      <c r="O67" t="s">
+        <v>73</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>2</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>516</v>
+      </c>
+      <c r="X67" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>519</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>520</v>
+      </c>
+      <c r="J68" t="s">
+        <v>521</v>
+      </c>
+      <c r="K68" t="s">
+        <v>522</v>
+      </c>
+      <c r="L68" t="s">
+        <v>523</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>524</v>
+      </c>
+      <c r="O68" t="s">
+        <v>60</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>526</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>527</v>
+      </c>
+      <c r="J69" t="s">
+        <v>528</v>
+      </c>
+      <c r="K69" t="s">
+        <v>529</v>
+      </c>
+      <c r="L69" t="s">
+        <v>530</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>524</v>
+      </c>
+      <c r="O69" t="s">
+        <v>60</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>532</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>533</v>
+      </c>
+      <c r="J70" t="s">
+        <v>534</v>
+      </c>
+      <c r="K70" t="s">
+        <v>535</v>
+      </c>
+      <c r="L70" t="s">
+        <v>536</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>537</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>538</v>
+      </c>
+      <c r="J71" t="s">
+        <v>539</v>
+      </c>
+      <c r="K71" t="s">
+        <v>540</v>
+      </c>
+      <c r="L71" t="s">
+        <v>541</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>542</v>
+      </c>
+      <c r="O71" t="s">
+        <v>66</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>544</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>545</v>
+      </c>
+      <c r="J72" t="s">
+        <v>546</v>
+      </c>
+      <c r="K72" t="s">
+        <v>547</v>
+      </c>
+      <c r="L72" t="s">
+        <v>548</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
+        <v>549</v>
+      </c>
+      <c r="O72" t="s">
+        <v>60</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>1</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>551</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>552</v>
+      </c>
+      <c r="J73" t="s">
+        <v>553</v>
+      </c>
+      <c r="K73" t="s">
+        <v>554</v>
+      </c>
+      <c r="L73" t="s">
+        <v>555</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>556</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>557</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>558</v>
+      </c>
+      <c r="J74" t="s">
+        <v>559</v>
+      </c>
+      <c r="K74" t="s">
+        <v>560</v>
+      </c>
+      <c r="L74" t="s">
+        <v>561</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="s">
+        <v>562</v>
+      </c>
+      <c r="O74" t="s">
+        <v>60</v>
+      </c>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>2</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>564</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>565</v>
+      </c>
+      <c r="J75" t="s">
+        <v>566</v>
+      </c>
+      <c r="K75" t="s">
+        <v>567</v>
+      </c>
+      <c r="L75" t="s">
+        <v>568</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="s">
+        <v>569</v>
+      </c>
+      <c r="O75" t="s">
+        <v>60</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>570</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>571</v>
+      </c>
+      <c r="J76" t="s">
+        <v>572</v>
+      </c>
+      <c r="K76" t="s">
+        <v>573</v>
+      </c>
+      <c r="L76" t="s">
+        <v>574</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>575</v>
+      </c>
+      <c r="O76" t="s">
+        <v>66</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>576</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>577</v>
+      </c>
+      <c r="J77" t="s">
+        <v>578</v>
+      </c>
+      <c r="K77" t="s">
+        <v>579</v>
+      </c>
+      <c r="L77" t="s">
+        <v>580</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>575</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>2</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>581</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>582</v>
+      </c>
+      <c r="J78" t="s">
+        <v>583</v>
+      </c>
+      <c r="K78" t="s">
+        <v>584</v>
+      </c>
+      <c r="L78" t="s">
+        <v>585</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>586</v>
+      </c>
+      <c r="X78" t="s">
+        <v>587</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>589</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>590</v>
+      </c>
+      <c r="J79" t="s">
+        <v>583</v>
+      </c>
+      <c r="K79" t="s">
+        <v>591</v>
+      </c>
+      <c r="L79" t="s">
+        <v>592</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>593</v>
+      </c>
+      <c r="O79" t="s">
+        <v>73</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>594</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>595</v>
+      </c>
+      <c r="J80" t="s">
+        <v>596</v>
+      </c>
+      <c r="K80" t="s">
+        <v>597</v>
+      </c>
+      <c r="L80" t="s">
+        <v>598</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2</v>
+      </c>
+      <c r="N80" t="s">
+        <v>593</v>
+      </c>
+      <c r="O80" t="s">
+        <v>60</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>599</v>
+      </c>
+      <c r="X80" t="s">
+        <v>600</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>602</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>603</v>
+      </c>
+      <c r="J81" t="s">
+        <v>604</v>
+      </c>
+      <c r="K81" t="s">
+        <v>605</v>
+      </c>
+      <c r="L81" t="s">
+        <v>606</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2</v>
+      </c>
+      <c r="S81" t="n">
+        <v>3</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>607</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>608</v>
+      </c>
+      <c r="J82" t="s">
+        <v>609</v>
+      </c>
+      <c r="K82" t="s">
+        <v>610</v>
+      </c>
+      <c r="L82" t="s">
+        <v>611</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>612</v>
+      </c>
+      <c r="O82" t="s">
+        <v>66</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>613</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>614</v>
+      </c>
+      <c r="J83" t="s">
+        <v>615</v>
+      </c>
+      <c r="K83" t="s">
+        <v>616</v>
+      </c>
+      <c r="L83" t="s">
+        <v>617</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>618</v>
+      </c>
+      <c r="O83" t="s">
+        <v>73</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>2</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>620</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>621</v>
+      </c>
+      <c r="J84" t="s">
+        <v>622</v>
+      </c>
+      <c r="K84" t="s">
+        <v>623</v>
+      </c>
+      <c r="L84" t="s">
+        <v>624</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>625</v>
+      </c>
+      <c r="O84" t="s">
+        <v>60</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>627</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>628</v>
+      </c>
+      <c r="J85" t="s">
+        <v>629</v>
+      </c>
+      <c r="K85" t="s">
+        <v>630</v>
+      </c>
+      <c r="L85" t="s">
+        <v>631</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>632</v>
+      </c>
+      <c r="O85" t="s">
+        <v>60</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>633</v>
+      </c>
+      <c r="X85" t="s">
+        <v>634</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>636</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>637</v>
+      </c>
+      <c r="J86" t="s">
+        <v>638</v>
+      </c>
+      <c r="K86" t="s">
+        <v>639</v>
+      </c>
+      <c r="L86" t="s">
+        <v>640</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>641</v>
+      </c>
+      <c r="O86" t="s">
+        <v>66</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>642</v>
+      </c>
+      <c r="X86" t="s">
+        <v>643</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>645</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>646</v>
+      </c>
+      <c r="J87" t="s">
+        <v>638</v>
+      </c>
+      <c r="K87" t="s">
+        <v>647</v>
+      </c>
+      <c r="L87" t="s">
+        <v>648</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>649</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="n">
+        <v>1</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>642</v>
+      </c>
+      <c r="X87" t="s">
+        <v>643</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>651</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>652</v>
+      </c>
+      <c r="J88" t="s">
+        <v>653</v>
+      </c>
+      <c r="K88" t="s">
+        <v>654</v>
+      </c>
+      <c r="L88" t="s">
+        <v>655</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>656</v>
+      </c>
+      <c r="O88" t="s">
+        <v>60</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>657</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>658</v>
+      </c>
+      <c r="J89" t="s">
+        <v>659</v>
+      </c>
+      <c r="K89" t="s">
+        <v>660</v>
+      </c>
+      <c r="L89" t="s">
+        <v>661</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s">
+        <v>662</v>
+      </c>
+      <c r="O89" t="s">
+        <v>60</v>
+      </c>
+      <c r="P89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>2</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>663</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>664</v>
+      </c>
+      <c r="J90" t="s">
+        <v>665</v>
+      </c>
+      <c r="K90" t="s">
+        <v>666</v>
+      </c>
+      <c r="L90" t="s">
+        <v>667</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="s"/>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>667</v>
       </c>
     </row>
   </sheetData>
